--- a/docs/PHAM_Planning_2025_.xlsx
+++ b/docs/PHAM_Planning_2025_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="440" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6A2863-A0E4-405C-8103-E92435599BBD}"/>
+  <xr:revisionPtr revIDLastSave="506" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC69A34-3868-4D31-B605-FCD959A29FDC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>Tâches</t>
   </si>
@@ -1295,6 +1295,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1307,22 +1347,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1357,30 +1381,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1450,12 +1450,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19842</xdr:colOff>
+      <xdr:colOff>19841</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>124238</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
@@ -1473,8 +1473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848603" y="662609"/>
-          <a:ext cx="2655439" cy="4472608"/>
+          <a:off x="4848602" y="662609"/>
+          <a:ext cx="3781875" cy="4472608"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1893,12 +1893,12 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="T17" sqref="T17"/>
+      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="2" customWidth="1"/>
     <col min="4" max="91" width="2.140625" style="1" customWidth="1"/>
@@ -1910,207 +1910,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="116" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
     </row>
     <row r="2" spans="1:94" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="117">
         <v>151481</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="125" t="s">
+      <c r="C2" s="118"/>
+      <c r="D2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="114"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="114"/>
+      <c r="AN2" s="114"/>
+      <c r="AO2" s="114"/>
+      <c r="AP2" s="114"/>
+      <c r="AQ2" s="114"/>
+      <c r="AR2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125"/>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="125"/>
-      <c r="BK2" s="125"/>
-      <c r="BL2" s="125"/>
-      <c r="BM2" s="125"/>
-      <c r="BN2" s="125"/>
-      <c r="BO2" s="125"/>
-      <c r="BP2" s="125"/>
-      <c r="BQ2" s="125"/>
-      <c r="BR2" s="125"/>
-      <c r="BS2" s="125"/>
-      <c r="BT2" s="125"/>
-      <c r="BU2" s="125"/>
-      <c r="BV2" s="125"/>
-      <c r="BW2" s="125"/>
-      <c r="BX2" s="125"/>
-      <c r="BY2" s="125"/>
-      <c r="BZ2" s="125"/>
-      <c r="CA2" s="125"/>
-      <c r="CB2" s="125"/>
-      <c r="CC2" s="125"/>
-      <c r="CD2" s="125"/>
-      <c r="CE2" s="125"/>
-      <c r="CF2" s="125" t="s">
+      <c r="AS2" s="114"/>
+      <c r="AT2" s="114"/>
+      <c r="AU2" s="114"/>
+      <c r="AV2" s="114"/>
+      <c r="AW2" s="114"/>
+      <c r="AX2" s="114"/>
+      <c r="AY2" s="114"/>
+      <c r="AZ2" s="114"/>
+      <c r="BA2" s="114"/>
+      <c r="BB2" s="114"/>
+      <c r="BC2" s="114"/>
+      <c r="BD2" s="114"/>
+      <c r="BE2" s="114"/>
+      <c r="BF2" s="114"/>
+      <c r="BG2" s="114"/>
+      <c r="BH2" s="114"/>
+      <c r="BI2" s="114"/>
+      <c r="BJ2" s="114"/>
+      <c r="BK2" s="114"/>
+      <c r="BL2" s="114"/>
+      <c r="BM2" s="114"/>
+      <c r="BN2" s="114"/>
+      <c r="BO2" s="114"/>
+      <c r="BP2" s="114"/>
+      <c r="BQ2" s="114"/>
+      <c r="BR2" s="114"/>
+      <c r="BS2" s="114"/>
+      <c r="BT2" s="114"/>
+      <c r="BU2" s="114"/>
+      <c r="BV2" s="114"/>
+      <c r="BW2" s="114"/>
+      <c r="BX2" s="114"/>
+      <c r="BY2" s="114"/>
+      <c r="BZ2" s="114"/>
+      <c r="CA2" s="114"/>
+      <c r="CB2" s="114"/>
+      <c r="CC2" s="114"/>
+      <c r="CD2" s="114"/>
+      <c r="CE2" s="114"/>
+      <c r="CF2" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="125"/>
-      <c r="CH2" s="125"/>
-      <c r="CI2" s="125"/>
-      <c r="CJ2" s="125"/>
-      <c r="CK2" s="125"/>
-      <c r="CL2" s="125"/>
-      <c r="CM2" s="125"/>
+      <c r="CG2" s="114"/>
+      <c r="CH2" s="114"/>
+      <c r="CI2" s="114"/>
+      <c r="CJ2" s="114"/>
+      <c r="CK2" s="114"/>
+      <c r="CL2" s="114"/>
+      <c r="CM2" s="114"/>
     </row>
     <row r="3" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="126"/>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="126"/>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="126"/>
-      <c r="AU3" s="126"/>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="126"/>
-      <c r="BC3" s="126"/>
-      <c r="BD3" s="126"/>
-      <c r="BE3" s="126"/>
-      <c r="BF3" s="126"/>
-      <c r="BG3" s="126"/>
-      <c r="BH3" s="126"/>
-      <c r="BI3" s="126"/>
-      <c r="BJ3" s="126"/>
-      <c r="BK3" s="126"/>
-      <c r="BL3" s="126"/>
-      <c r="BM3" s="126"/>
-      <c r="BN3" s="126"/>
-      <c r="BO3" s="126"/>
-      <c r="BP3" s="126"/>
-      <c r="BQ3" s="126"/>
-      <c r="BR3" s="126"/>
-      <c r="BS3" s="126"/>
-      <c r="BT3" s="126"/>
-      <c r="BU3" s="126"/>
-      <c r="BV3" s="126"/>
-      <c r="BW3" s="126"/>
-      <c r="BX3" s="126"/>
-      <c r="BY3" s="126"/>
-      <c r="BZ3" s="126"/>
-      <c r="CA3" s="126"/>
-      <c r="CB3" s="126"/>
-      <c r="CC3" s="126"/>
-      <c r="CD3" s="126"/>
-      <c r="CE3" s="126"/>
-      <c r="CF3" s="126"/>
-      <c r="CG3" s="126"/>
-      <c r="CH3" s="126"/>
-      <c r="CI3" s="126"/>
-      <c r="CJ3" s="126"/>
-      <c r="CK3" s="126"/>
-      <c r="CL3" s="126"/>
-      <c r="CM3" s="126"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
+      <c r="AL3" s="115"/>
+      <c r="AM3" s="115"/>
+      <c r="AN3" s="115"/>
+      <c r="AO3" s="115"/>
+      <c r="AP3" s="115"/>
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="115"/>
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="115"/>
+      <c r="AX3" s="115"/>
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="115"/>
+      <c r="BB3" s="115"/>
+      <c r="BC3" s="115"/>
+      <c r="BD3" s="115"/>
+      <c r="BE3" s="115"/>
+      <c r="BF3" s="115"/>
+      <c r="BG3" s="115"/>
+      <c r="BH3" s="115"/>
+      <c r="BI3" s="115"/>
+      <c r="BJ3" s="115"/>
+      <c r="BK3" s="115"/>
+      <c r="BL3" s="115"/>
+      <c r="BM3" s="115"/>
+      <c r="BN3" s="115"/>
+      <c r="BO3" s="115"/>
+      <c r="BP3" s="115"/>
+      <c r="BQ3" s="115"/>
+      <c r="BR3" s="115"/>
+      <c r="BS3" s="115"/>
+      <c r="BT3" s="115"/>
+      <c r="BU3" s="115"/>
+      <c r="BV3" s="115"/>
+      <c r="BW3" s="115"/>
+      <c r="BX3" s="115"/>
+      <c r="BY3" s="115"/>
+      <c r="BZ3" s="115"/>
+      <c r="CA3" s="115"/>
+      <c r="CB3" s="115"/>
+      <c r="CC3" s="115"/>
+      <c r="CD3" s="115"/>
+      <c r="CE3" s="115"/>
+      <c r="CF3" s="115"/>
+      <c r="CG3" s="115"/>
+      <c r="CH3" s="115"/>
+      <c r="CI3" s="115"/>
+      <c r="CJ3" s="115"/>
+      <c r="CK3" s="115"/>
+      <c r="CL3" s="115"/>
+      <c r="CM3" s="115"/>
     </row>
     <row r="4" spans="1:94" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2119,144 +2119,144 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111">
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="108"/>
+      <c r="H4" s="109">
         <v>45796</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="109" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111">
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="109">
         <v>45797</v>
       </c>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="109" t="s">
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="111">
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="109">
         <v>45798</v>
       </c>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="109" t="s">
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="110"/>
+      <c r="AB4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="111">
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="109">
         <v>45799</v>
       </c>
-      <c r="AG4" s="111"/>
-      <c r="AH4" s="111"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="109" t="s">
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="110"/>
+      <c r="AJ4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="111">
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="108"/>
+      <c r="AM4" s="108"/>
+      <c r="AN4" s="109">
         <v>45800</v>
       </c>
-      <c r="AO4" s="111"/>
-      <c r="AP4" s="111"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="109" t="s">
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="110"/>
+      <c r="AR4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="111">
+      <c r="AS4" s="108"/>
+      <c r="AT4" s="108"/>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="109">
         <v>45803</v>
       </c>
-      <c r="AW4" s="111"/>
-      <c r="AX4" s="111"/>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="109" t="s">
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="110"/>
+      <c r="AZ4" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="111">
+      <c r="BA4" s="108"/>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="109">
         <v>45804</v>
       </c>
-      <c r="BE4" s="111"/>
-      <c r="BF4" s="111"/>
-      <c r="BG4" s="112"/>
-      <c r="BH4" s="109" t="s">
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109"/>
+      <c r="BG4" s="110"/>
+      <c r="BH4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="111">
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="109">
         <v>45805</v>
       </c>
-      <c r="BM4" s="111"/>
-      <c r="BN4" s="111"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="109" t="s">
+      <c r="BM4" s="109"/>
+      <c r="BN4" s="109"/>
+      <c r="BO4" s="110"/>
+      <c r="BP4" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="111">
+      <c r="BQ4" s="108"/>
+      <c r="BR4" s="108"/>
+      <c r="BS4" s="108"/>
+      <c r="BT4" s="109">
         <v>45806</v>
       </c>
-      <c r="BU4" s="111"/>
-      <c r="BV4" s="111"/>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="109" t="s">
+      <c r="BU4" s="109"/>
+      <c r="BV4" s="109"/>
+      <c r="BW4" s="110"/>
+      <c r="BX4" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="111">
+      <c r="BY4" s="108"/>
+      <c r="BZ4" s="108"/>
+      <c r="CA4" s="108"/>
+      <c r="CB4" s="109">
         <v>45807</v>
       </c>
-      <c r="CC4" s="111"/>
-      <c r="CD4" s="111"/>
-      <c r="CE4" s="112"/>
-      <c r="CF4" s="109" t="s">
+      <c r="CC4" s="109"/>
+      <c r="CD4" s="109"/>
+      <c r="CE4" s="110"/>
+      <c r="CF4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="110"/>
-      <c r="CH4" s="110"/>
-      <c r="CI4" s="110"/>
-      <c r="CJ4" s="111">
+      <c r="CG4" s="108"/>
+      <c r="CH4" s="108"/>
+      <c r="CI4" s="108"/>
+      <c r="CJ4" s="109">
         <v>45810</v>
       </c>
-      <c r="CK4" s="111"/>
-      <c r="CL4" s="111"/>
-      <c r="CM4" s="112"/>
-      <c r="CN4" s="127" t="s">
+      <c r="CK4" s="109"/>
+      <c r="CL4" s="109"/>
+      <c r="CM4" s="110"/>
+      <c r="CN4" s="106" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="CM5" s="6">
         <v>8</v>
       </c>
-      <c r="CN5" s="127"/>
+      <c r="CN5" s="106"/>
     </row>
     <row r="6" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
@@ -2599,16 +2599,16 @@
       <c r="BM6" s="88"/>
       <c r="BN6" s="88"/>
       <c r="BO6" s="89"/>
-      <c r="BP6" s="113" t="s">
+      <c r="BP6" s="119" t="s">
         <v>13</v>
       </c>
-      <c r="BQ6" s="114"/>
-      <c r="BR6" s="114"/>
-      <c r="BS6" s="114"/>
-      <c r="BT6" s="114"/>
-      <c r="BU6" s="114"/>
-      <c r="BV6" s="114"/>
-      <c r="BW6" s="115"/>
+      <c r="BQ6" s="120"/>
+      <c r="BR6" s="120"/>
+      <c r="BS6" s="120"/>
+      <c r="BT6" s="120"/>
+      <c r="BU6" s="120"/>
+      <c r="BV6" s="120"/>
+      <c r="BW6" s="121"/>
       <c r="BX6" s="87"/>
       <c r="BY6" s="88"/>
       <c r="BZ6" s="88"/>
@@ -2625,7 +2625,7 @@
       <c r="CK6" s="88"/>
       <c r="CL6" s="88"/>
       <c r="CM6" s="89"/>
-      <c r="CN6" s="127"/>
+      <c r="CN6" s="106"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="85" t="s">
@@ -2705,14 +2705,14 @@
       <c r="BM7" s="92"/>
       <c r="BN7" s="92"/>
       <c r="BO7" s="93"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="117"/>
-      <c r="BR7" s="117"/>
-      <c r="BS7" s="117"/>
-      <c r="BT7" s="117"/>
-      <c r="BU7" s="117"/>
-      <c r="BV7" s="117"/>
-      <c r="BW7" s="118"/>
+      <c r="BP7" s="122"/>
+      <c r="BQ7" s="123"/>
+      <c r="BR7" s="123"/>
+      <c r="BS7" s="123"/>
+      <c r="BT7" s="123"/>
+      <c r="BU7" s="123"/>
+      <c r="BV7" s="123"/>
+      <c r="BW7" s="124"/>
       <c r="BX7" s="94"/>
       <c r="BY7" s="92"/>
       <c r="BZ7" s="92"/>
@@ -2729,7 +2729,7 @@
       <c r="CK7" s="92"/>
       <c r="CL7" s="92"/>
       <c r="CM7" s="93"/>
-      <c r="CN7" s="127"/>
+      <c r="CN7" s="106"/>
       <c r="CP7" s="2" t="s">
         <v>33</v>
       </c>
@@ -2808,14 +2808,14 @@
       <c r="BM8" s="92"/>
       <c r="BN8" s="92"/>
       <c r="BO8" s="93"/>
-      <c r="BP8" s="116"/>
-      <c r="BQ8" s="117"/>
-      <c r="BR8" s="117"/>
-      <c r="BS8" s="117"/>
-      <c r="BT8" s="117"/>
-      <c r="BU8" s="117"/>
-      <c r="BV8" s="117"/>
-      <c r="BW8" s="118"/>
+      <c r="BP8" s="122"/>
+      <c r="BQ8" s="123"/>
+      <c r="BR8" s="123"/>
+      <c r="BS8" s="123"/>
+      <c r="BT8" s="123"/>
+      <c r="BU8" s="123"/>
+      <c r="BV8" s="123"/>
+      <c r="BW8" s="124"/>
       <c r="BX8" s="94"/>
       <c r="BY8" s="92"/>
       <c r="BZ8" s="92"/>
@@ -2832,7 +2832,7 @@
       <c r="CK8" s="92"/>
       <c r="CL8" s="92"/>
       <c r="CM8" s="93"/>
-      <c r="CN8" s="127"/>
+      <c r="CN8" s="106"/>
       <c r="CP8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2867,7 +2867,9 @@
       <c r="S9" s="93"/>
       <c r="T9" s="94"/>
       <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
+      <c r="V9" s="92" t="s">
+        <v>32</v>
+      </c>
       <c r="W9" s="92"/>
       <c r="X9" s="92"/>
       <c r="Y9" s="92"/>
@@ -2913,14 +2915,14 @@
       <c r="BM9" s="92"/>
       <c r="BN9" s="92"/>
       <c r="BO9" s="93"/>
-      <c r="BP9" s="116"/>
-      <c r="BQ9" s="117"/>
-      <c r="BR9" s="117"/>
-      <c r="BS9" s="117"/>
-      <c r="BT9" s="117"/>
-      <c r="BU9" s="117"/>
-      <c r="BV9" s="117"/>
-      <c r="BW9" s="118"/>
+      <c r="BP9" s="122"/>
+      <c r="BQ9" s="123"/>
+      <c r="BR9" s="123"/>
+      <c r="BS9" s="123"/>
+      <c r="BT9" s="123"/>
+      <c r="BU9" s="123"/>
+      <c r="BV9" s="123"/>
+      <c r="BW9" s="124"/>
       <c r="BX9" s="94"/>
       <c r="BY9" s="92"/>
       <c r="BZ9" s="92"/>
@@ -2937,7 +2939,7 @@
       <c r="CK9" s="92"/>
       <c r="CL9" s="92"/>
       <c r="CM9" s="93"/>
-      <c r="CN9" s="127"/>
+      <c r="CN9" s="106"/>
     </row>
     <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="76" t="s">
@@ -3009,14 +3011,14 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="12"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="116"/>
-      <c r="BQ10" s="117"/>
-      <c r="BR10" s="117"/>
-      <c r="BS10" s="117"/>
-      <c r="BT10" s="117"/>
-      <c r="BU10" s="117"/>
-      <c r="BV10" s="117"/>
-      <c r="BW10" s="118"/>
+      <c r="BP10" s="122"/>
+      <c r="BQ10" s="123"/>
+      <c r="BR10" s="123"/>
+      <c r="BS10" s="123"/>
+      <c r="BT10" s="123"/>
+      <c r="BU10" s="123"/>
+      <c r="BV10" s="123"/>
+      <c r="BW10" s="124"/>
       <c r="BX10" s="11"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -3033,7 +3035,7 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
       <c r="CM10" s="13"/>
-      <c r="CN10" s="127"/>
+      <c r="CN10" s="106"/>
     </row>
     <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
@@ -3109,14 +3111,14 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="8"/>
-      <c r="BP11" s="116"/>
-      <c r="BQ11" s="117"/>
-      <c r="BR11" s="117"/>
-      <c r="BS11" s="117"/>
-      <c r="BT11" s="117"/>
-      <c r="BU11" s="117"/>
-      <c r="BV11" s="117"/>
-      <c r="BW11" s="118"/>
+      <c r="BP11" s="122"/>
+      <c r="BQ11" s="123"/>
+      <c r="BR11" s="123"/>
+      <c r="BS11" s="123"/>
+      <c r="BT11" s="123"/>
+      <c r="BU11" s="123"/>
+      <c r="BV11" s="123"/>
+      <c r="BW11" s="124"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7"/>
@@ -3133,7 +3135,7 @@
       <c r="CK11" s="7"/>
       <c r="CL11" s="7"/>
       <c r="CM11" s="8"/>
-      <c r="CN11" s="127"/>
+      <c r="CN11" s="106"/>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -3209,14 +3211,14 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="12"/>
       <c r="BO12" s="13"/>
-      <c r="BP12" s="116"/>
-      <c r="BQ12" s="117"/>
-      <c r="BR12" s="117"/>
-      <c r="BS12" s="117"/>
-      <c r="BT12" s="117"/>
-      <c r="BU12" s="117"/>
-      <c r="BV12" s="117"/>
-      <c r="BW12" s="118"/>
+      <c r="BP12" s="122"/>
+      <c r="BQ12" s="123"/>
+      <c r="BR12" s="123"/>
+      <c r="BS12" s="123"/>
+      <c r="BT12" s="123"/>
+      <c r="BU12" s="123"/>
+      <c r="BV12" s="123"/>
+      <c r="BW12" s="124"/>
       <c r="BX12" s="11"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
@@ -3233,14 +3235,14 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
       <c r="CM12" s="13"/>
-      <c r="CN12" s="127"/>
+      <c r="CN12" s="106"/>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
@@ -3319,14 +3321,14 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="13"/>
-      <c r="BP13" s="116"/>
-      <c r="BQ13" s="117"/>
-      <c r="BR13" s="117"/>
-      <c r="BS13" s="117"/>
-      <c r="BT13" s="117"/>
-      <c r="BU13" s="117"/>
-      <c r="BV13" s="117"/>
-      <c r="BW13" s="118"/>
+      <c r="BP13" s="122"/>
+      <c r="BQ13" s="123"/>
+      <c r="BR13" s="123"/>
+      <c r="BS13" s="123"/>
+      <c r="BT13" s="123"/>
+      <c r="BU13" s="123"/>
+      <c r="BV13" s="123"/>
+      <c r="BW13" s="124"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
@@ -3343,13 +3345,15 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
       <c r="CM13" s="13"/>
-      <c r="CN13" s="127"/>
+      <c r="CN13" s="106"/>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
@@ -3372,7 +3376,9 @@
       <c r="T14" s="11"/>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
+      <c r="W14" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12"/>
@@ -3417,14 +3423,14 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="12"/>
       <c r="BO14" s="13"/>
-      <c r="BP14" s="116"/>
-      <c r="BQ14" s="117"/>
-      <c r="BR14" s="117"/>
-      <c r="BS14" s="117"/>
-      <c r="BT14" s="117"/>
-      <c r="BU14" s="117"/>
-      <c r="BV14" s="117"/>
-      <c r="BW14" s="118"/>
+      <c r="BP14" s="122"/>
+      <c r="BQ14" s="123"/>
+      <c r="BR14" s="123"/>
+      <c r="BS14" s="123"/>
+      <c r="BT14" s="123"/>
+      <c r="BU14" s="123"/>
+      <c r="BV14" s="123"/>
+      <c r="BW14" s="124"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
@@ -3441,7 +3447,7 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
       <c r="CM14" s="13"/>
-      <c r="CN14" s="127"/>
+      <c r="CN14" s="106"/>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
@@ -3513,14 +3519,14 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="12"/>
       <c r="BO15" s="13"/>
-      <c r="BP15" s="116"/>
-      <c r="BQ15" s="117"/>
-      <c r="BR15" s="117"/>
-      <c r="BS15" s="117"/>
-      <c r="BT15" s="117"/>
-      <c r="BU15" s="117"/>
-      <c r="BV15" s="117"/>
-      <c r="BW15" s="118"/>
+      <c r="BP15" s="122"/>
+      <c r="BQ15" s="123"/>
+      <c r="BR15" s="123"/>
+      <c r="BS15" s="123"/>
+      <c r="BT15" s="123"/>
+      <c r="BU15" s="123"/>
+      <c r="BV15" s="123"/>
+      <c r="BW15" s="124"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
@@ -3537,13 +3543,15 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
       <c r="CM15" s="13"/>
-      <c r="CN15" s="127"/>
+      <c r="CN15" s="106"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12"/>
@@ -3613,14 +3621,14 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="12"/>
       <c r="BO16" s="13"/>
-      <c r="BP16" s="116"/>
-      <c r="BQ16" s="117"/>
-      <c r="BR16" s="117"/>
-      <c r="BS16" s="117"/>
-      <c r="BT16" s="117"/>
-      <c r="BU16" s="117"/>
-      <c r="BV16" s="117"/>
-      <c r="BW16" s="118"/>
+      <c r="BP16" s="122"/>
+      <c r="BQ16" s="123"/>
+      <c r="BR16" s="123"/>
+      <c r="BS16" s="123"/>
+      <c r="BT16" s="123"/>
+      <c r="BU16" s="123"/>
+      <c r="BV16" s="123"/>
+      <c r="BW16" s="124"/>
       <c r="BX16" s="11"/>
       <c r="BY16" s="12"/>
       <c r="BZ16" s="12"/>
@@ -3637,13 +3645,15 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
       <c r="CM16" s="13"/>
-      <c r="CN16" s="127"/>
+      <c r="CN16" s="106"/>
     </row>
     <row r="17" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
@@ -3661,9 +3671,15 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="45"/>
       <c r="S17" s="52"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="T17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="V17" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
@@ -3709,14 +3725,14 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="13"/>
-      <c r="BP17" s="116"/>
-      <c r="BQ17" s="117"/>
-      <c r="BR17" s="117"/>
-      <c r="BS17" s="117"/>
-      <c r="BT17" s="117"/>
-      <c r="BU17" s="117"/>
-      <c r="BV17" s="117"/>
-      <c r="BW17" s="118"/>
+      <c r="BP17" s="122"/>
+      <c r="BQ17" s="123"/>
+      <c r="BR17" s="123"/>
+      <c r="BS17" s="123"/>
+      <c r="BT17" s="123"/>
+      <c r="BU17" s="123"/>
+      <c r="BV17" s="123"/>
+      <c r="BW17" s="124"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
@@ -3733,7 +3749,7 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="13"/>
-      <c r="CN17" s="127"/>
+      <c r="CN17" s="106"/>
     </row>
     <row r="18" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
@@ -3805,14 +3821,14 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
       <c r="BO18" s="13"/>
-      <c r="BP18" s="116"/>
-      <c r="BQ18" s="117"/>
-      <c r="BR18" s="117"/>
-      <c r="BS18" s="117"/>
-      <c r="BT18" s="117"/>
-      <c r="BU18" s="117"/>
-      <c r="BV18" s="117"/>
-      <c r="BW18" s="118"/>
+      <c r="BP18" s="122"/>
+      <c r="BQ18" s="123"/>
+      <c r="BR18" s="123"/>
+      <c r="BS18" s="123"/>
+      <c r="BT18" s="123"/>
+      <c r="BU18" s="123"/>
+      <c r="BV18" s="123"/>
+      <c r="BW18" s="124"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
@@ -3829,13 +3845,15 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="13"/>
-      <c r="CN18" s="127"/>
+      <c r="CN18" s="106"/>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="15"/>
+      <c r="B19" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="12"/>
@@ -3857,8 +3875,12 @@
       <c r="U19" s="54"/>
       <c r="V19" s="54"/>
       <c r="W19" s="54"/>
-      <c r="X19" s="54"/>
-      <c r="Y19" s="54"/>
+      <c r="X19" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="54" t="s">
+        <v>32</v>
+      </c>
       <c r="Z19" s="12"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="11"/>
@@ -3901,14 +3923,14 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="12"/>
       <c r="BO19" s="13"/>
-      <c r="BP19" s="116"/>
-      <c r="BQ19" s="117"/>
-      <c r="BR19" s="117"/>
-      <c r="BS19" s="117"/>
-      <c r="BT19" s="117"/>
-      <c r="BU19" s="117"/>
-      <c r="BV19" s="117"/>
-      <c r="BW19" s="118"/>
+      <c r="BP19" s="122"/>
+      <c r="BQ19" s="123"/>
+      <c r="BR19" s="123"/>
+      <c r="BS19" s="123"/>
+      <c r="BT19" s="123"/>
+      <c r="BU19" s="123"/>
+      <c r="BV19" s="123"/>
+      <c r="BW19" s="124"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
@@ -3925,13 +3947,15 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="13"/>
-      <c r="CN19" s="127"/>
+      <c r="CN19" s="106"/>
     </row>
     <row r="20" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="15"/>
+      <c r="B20" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="12"/>
@@ -3955,8 +3979,12 @@
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="55"/>
+      <c r="Z20" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA20" s="55" t="s">
+        <v>32</v>
+      </c>
       <c r="AB20" s="53"/>
       <c r="AC20" s="54"/>
       <c r="AD20" s="54"/>
@@ -3997,14 +4025,14 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="12"/>
       <c r="BO20" s="13"/>
-      <c r="BP20" s="116"/>
-      <c r="BQ20" s="117"/>
-      <c r="BR20" s="117"/>
-      <c r="BS20" s="117"/>
-      <c r="BT20" s="117"/>
-      <c r="BU20" s="117"/>
-      <c r="BV20" s="117"/>
-      <c r="BW20" s="118"/>
+      <c r="BP20" s="122"/>
+      <c r="BQ20" s="123"/>
+      <c r="BR20" s="123"/>
+      <c r="BS20" s="123"/>
+      <c r="BT20" s="123"/>
+      <c r="BU20" s="123"/>
+      <c r="BV20" s="123"/>
+      <c r="BW20" s="124"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
@@ -4021,7 +4049,7 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
       <c r="CM20" s="13"/>
-      <c r="CN20" s="127"/>
+      <c r="CN20" s="106"/>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
@@ -4093,14 +4121,14 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="12"/>
       <c r="BO21" s="13"/>
-      <c r="BP21" s="116"/>
-      <c r="BQ21" s="117"/>
-      <c r="BR21" s="117"/>
-      <c r="BS21" s="117"/>
-      <c r="BT21" s="117"/>
-      <c r="BU21" s="117"/>
-      <c r="BV21" s="117"/>
-      <c r="BW21" s="118"/>
+      <c r="BP21" s="122"/>
+      <c r="BQ21" s="123"/>
+      <c r="BR21" s="123"/>
+      <c r="BS21" s="123"/>
+      <c r="BT21" s="123"/>
+      <c r="BU21" s="123"/>
+      <c r="BV21" s="123"/>
+      <c r="BW21" s="124"/>
       <c r="BX21" s="11"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
@@ -4117,7 +4145,7 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
       <c r="CM21" s="13"/>
-      <c r="CN21" s="127"/>
+      <c r="CN21" s="106"/>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
@@ -4189,14 +4217,14 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="12"/>
       <c r="BO22" s="13"/>
-      <c r="BP22" s="116"/>
-      <c r="BQ22" s="117"/>
-      <c r="BR22" s="117"/>
-      <c r="BS22" s="117"/>
-      <c r="BT22" s="117"/>
-      <c r="BU22" s="117"/>
-      <c r="BV22" s="117"/>
-      <c r="BW22" s="118"/>
+      <c r="BP22" s="122"/>
+      <c r="BQ22" s="123"/>
+      <c r="BR22" s="123"/>
+      <c r="BS22" s="123"/>
+      <c r="BT22" s="123"/>
+      <c r="BU22" s="123"/>
+      <c r="BV22" s="123"/>
+      <c r="BW22" s="124"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
@@ -4213,7 +4241,7 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
       <c r="CM22" s="13"/>
-      <c r="CN22" s="127"/>
+      <c r="CN22" s="106"/>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
@@ -4285,14 +4313,14 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12"/>
       <c r="BO23" s="13"/>
-      <c r="BP23" s="116"/>
-      <c r="BQ23" s="117"/>
-      <c r="BR23" s="117"/>
-      <c r="BS23" s="117"/>
-      <c r="BT23" s="117"/>
-      <c r="BU23" s="117"/>
-      <c r="BV23" s="117"/>
-      <c r="BW23" s="118"/>
+      <c r="BP23" s="122"/>
+      <c r="BQ23" s="123"/>
+      <c r="BR23" s="123"/>
+      <c r="BS23" s="123"/>
+      <c r="BT23" s="123"/>
+      <c r="BU23" s="123"/>
+      <c r="BV23" s="123"/>
+      <c r="BW23" s="124"/>
       <c r="BX23" s="11"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
@@ -4309,7 +4337,7 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
       <c r="CM23" s="13"/>
-      <c r="CN23" s="127"/>
+      <c r="CN23" s="106"/>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
@@ -4381,14 +4409,14 @@
       <c r="BM24" s="12"/>
       <c r="BN24" s="12"/>
       <c r="BO24" s="13"/>
-      <c r="BP24" s="116"/>
-      <c r="BQ24" s="117"/>
-      <c r="BR24" s="117"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="117"/>
-      <c r="BU24" s="117"/>
-      <c r="BV24" s="117"/>
-      <c r="BW24" s="118"/>
+      <c r="BP24" s="122"/>
+      <c r="BQ24" s="123"/>
+      <c r="BR24" s="123"/>
+      <c r="BS24" s="123"/>
+      <c r="BT24" s="123"/>
+      <c r="BU24" s="123"/>
+      <c r="BV24" s="123"/>
+      <c r="BW24" s="124"/>
       <c r="BX24" s="11"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
@@ -4405,7 +4433,7 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
       <c r="CM24" s="13"/>
-      <c r="CN24" s="127"/>
+      <c r="CN24" s="106"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
@@ -4477,14 +4505,14 @@
       <c r="BM25" s="12"/>
       <c r="BN25" s="12"/>
       <c r="BO25" s="13"/>
-      <c r="BP25" s="116"/>
-      <c r="BQ25" s="117"/>
-      <c r="BR25" s="117"/>
-      <c r="BS25" s="117"/>
-      <c r="BT25" s="117"/>
-      <c r="BU25" s="117"/>
-      <c r="BV25" s="117"/>
-      <c r="BW25" s="118"/>
+      <c r="BP25" s="122"/>
+      <c r="BQ25" s="123"/>
+      <c r="BR25" s="123"/>
+      <c r="BS25" s="123"/>
+      <c r="BT25" s="123"/>
+      <c r="BU25" s="123"/>
+      <c r="BV25" s="123"/>
+      <c r="BW25" s="124"/>
       <c r="BX25" s="11"/>
       <c r="BY25" s="12"/>
       <c r="BZ25" s="12"/>
@@ -4501,7 +4529,7 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
       <c r="CM25" s="13"/>
-      <c r="CN25" s="127"/>
+      <c r="CN25" s="106"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
@@ -4573,14 +4601,14 @@
       <c r="BM26" s="54"/>
       <c r="BN26" s="12"/>
       <c r="BO26" s="13"/>
-      <c r="BP26" s="116"/>
-      <c r="BQ26" s="117"/>
-      <c r="BR26" s="117"/>
-      <c r="BS26" s="117"/>
-      <c r="BT26" s="117"/>
-      <c r="BU26" s="117"/>
-      <c r="BV26" s="117"/>
-      <c r="BW26" s="118"/>
+      <c r="BP26" s="122"/>
+      <c r="BQ26" s="123"/>
+      <c r="BR26" s="123"/>
+      <c r="BS26" s="123"/>
+      <c r="BT26" s="123"/>
+      <c r="BU26" s="123"/>
+      <c r="BV26" s="123"/>
+      <c r="BW26" s="124"/>
       <c r="BX26" s="11"/>
       <c r="BY26" s="12"/>
       <c r="BZ26" s="12"/>
@@ -4597,7 +4625,7 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
       <c r="CM26" s="13"/>
-      <c r="CN26" s="127"/>
+      <c r="CN26" s="106"/>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
@@ -4669,14 +4697,14 @@
       <c r="BM27" s="12"/>
       <c r="BN27" s="12"/>
       <c r="BO27" s="13"/>
-      <c r="BP27" s="116"/>
-      <c r="BQ27" s="117"/>
-      <c r="BR27" s="117"/>
-      <c r="BS27" s="117"/>
-      <c r="BT27" s="117"/>
-      <c r="BU27" s="117"/>
-      <c r="BV27" s="117"/>
-      <c r="BW27" s="118"/>
+      <c r="BP27" s="122"/>
+      <c r="BQ27" s="123"/>
+      <c r="BR27" s="123"/>
+      <c r="BS27" s="123"/>
+      <c r="BT27" s="123"/>
+      <c r="BU27" s="123"/>
+      <c r="BV27" s="123"/>
+      <c r="BW27" s="124"/>
       <c r="BX27" s="11"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
@@ -4693,7 +4721,7 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
       <c r="CM27" s="13"/>
-      <c r="CN27" s="127"/>
+      <c r="CN27" s="106"/>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
@@ -4765,14 +4793,14 @@
       <c r="BM28" s="63"/>
       <c r="BN28" s="63"/>
       <c r="BO28" s="100"/>
-      <c r="BP28" s="116"/>
-      <c r="BQ28" s="117"/>
-      <c r="BR28" s="117"/>
-      <c r="BS28" s="117"/>
-      <c r="BT28" s="117"/>
-      <c r="BU28" s="117"/>
-      <c r="BV28" s="117"/>
-      <c r="BW28" s="118"/>
+      <c r="BP28" s="122"/>
+      <c r="BQ28" s="123"/>
+      <c r="BR28" s="123"/>
+      <c r="BS28" s="123"/>
+      <c r="BT28" s="123"/>
+      <c r="BU28" s="123"/>
+      <c r="BV28" s="123"/>
+      <c r="BW28" s="124"/>
       <c r="BX28" s="11"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
@@ -4789,7 +4817,7 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
       <c r="CM28" s="13"/>
-      <c r="CN28" s="127"/>
+      <c r="CN28" s="106"/>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A29" s="64" t="s">
@@ -4861,14 +4889,14 @@
       <c r="BM29" s="67"/>
       <c r="BN29" s="67"/>
       <c r="BO29" s="68"/>
-      <c r="BP29" s="116"/>
-      <c r="BQ29" s="117"/>
-      <c r="BR29" s="117"/>
-      <c r="BS29" s="117"/>
-      <c r="BT29" s="117"/>
-      <c r="BU29" s="117"/>
-      <c r="BV29" s="117"/>
-      <c r="BW29" s="118"/>
+      <c r="BP29" s="122"/>
+      <c r="BQ29" s="123"/>
+      <c r="BR29" s="123"/>
+      <c r="BS29" s="123"/>
+      <c r="BT29" s="123"/>
+      <c r="BU29" s="123"/>
+      <c r="BV29" s="123"/>
+      <c r="BW29" s="124"/>
       <c r="BX29" s="84"/>
       <c r="BY29" s="74"/>
       <c r="BZ29" s="74"/>
@@ -4885,7 +4913,7 @@
       <c r="CK29" s="67"/>
       <c r="CL29" s="67"/>
       <c r="CM29" s="68"/>
-      <c r="CN29" s="127"/>
+      <c r="CN29" s="106"/>
     </row>
     <row r="30" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
@@ -4918,7 +4946,9 @@
       <c r="P30" s="80"/>
       <c r="Q30" s="80"/>
       <c r="R30" s="30"/>
-      <c r="S30" s="31"/>
+      <c r="S30" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="T30" s="79"/>
       <c r="U30" s="80"/>
       <c r="V30" s="80"/>
@@ -4926,7 +4956,9 @@
       <c r="X30" s="80"/>
       <c r="Y30" s="80"/>
       <c r="Z30" s="30"/>
-      <c r="AA30" s="31"/>
+      <c r="AA30" s="31" t="s">
+        <v>32</v>
+      </c>
       <c r="AB30" s="79"/>
       <c r="AC30" s="80"/>
       <c r="AD30" s="80"/>
@@ -4967,14 +4999,14 @@
       <c r="BM30" s="80"/>
       <c r="BN30" s="30"/>
       <c r="BO30" s="31"/>
-      <c r="BP30" s="119"/>
-      <c r="BQ30" s="120"/>
-      <c r="BR30" s="120"/>
-      <c r="BS30" s="120"/>
-      <c r="BT30" s="120"/>
-      <c r="BU30" s="120"/>
-      <c r="BV30" s="120"/>
-      <c r="BW30" s="121"/>
+      <c r="BP30" s="125"/>
+      <c r="BQ30" s="126"/>
+      <c r="BR30" s="126"/>
+      <c r="BS30" s="126"/>
+      <c r="BT30" s="126"/>
+      <c r="BU30" s="126"/>
+      <c r="BV30" s="126"/>
+      <c r="BW30" s="127"/>
       <c r="BX30" s="79"/>
       <c r="BY30" s="80"/>
       <c r="BZ30" s="80"/>
@@ -4991,105 +5023,120 @@
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
       <c r="CM30" s="31"/>
-      <c r="CN30" s="127"/>
+      <c r="CN30" s="106"/>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="122"/>
-      <c r="AI31" s="122"/>
-      <c r="AJ31" s="122"/>
-      <c r="AK31" s="122"/>
-      <c r="AL31" s="122"/>
-      <c r="AM31" s="122"/>
-      <c r="AN31" s="122"/>
-      <c r="AO31" s="122"/>
-      <c r="AP31" s="122"/>
-      <c r="AQ31" s="122"/>
-      <c r="AR31" s="122"/>
-      <c r="AS31" s="122"/>
-      <c r="AT31" s="122"/>
-      <c r="AU31" s="122"/>
-      <c r="AV31" s="122"/>
-      <c r="AW31" s="122"/>
-      <c r="AX31" s="122"/>
-      <c r="AY31" s="122"/>
-      <c r="AZ31" s="122"/>
-      <c r="BA31" s="122"/>
-      <c r="BB31" s="122"/>
-      <c r="BC31" s="122"/>
-      <c r="BD31" s="122"/>
-      <c r="BE31" s="122"/>
-      <c r="BF31" s="122"/>
-      <c r="BG31" s="122"/>
-      <c r="BH31" s="122"/>
-      <c r="BI31" s="122"/>
-      <c r="BJ31" s="122"/>
-      <c r="BK31" s="122"/>
-      <c r="BL31" s="122"/>
-      <c r="BM31" s="122"/>
-      <c r="BN31" s="122"/>
-      <c r="BO31" s="122"/>
-      <c r="BP31" s="122"/>
-      <c r="BQ31" s="122"/>
-      <c r="BR31" s="122"/>
-      <c r="BS31" s="122"/>
-      <c r="BT31" s="122"/>
-      <c r="BU31" s="122"/>
-      <c r="BV31" s="122"/>
-      <c r="BW31" s="122"/>
-      <c r="BX31" s="122"/>
-      <c r="BY31" s="122"/>
-      <c r="BZ31" s="122"/>
-      <c r="CA31" s="122"/>
-      <c r="CB31" s="122"/>
-      <c r="CC31" s="122"/>
-      <c r="CD31" s="122"/>
-      <c r="CE31" s="122"/>
-      <c r="CF31" s="122"/>
-      <c r="CG31" s="122"/>
-      <c r="CH31" s="122"/>
-      <c r="CI31" s="122"/>
-      <c r="CJ31" s="122"/>
-      <c r="CK31" s="122"/>
-      <c r="CL31" s="122"/>
-      <c r="CM31" s="122"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="111"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
+      <c r="U31" s="111"/>
+      <c r="V31" s="111"/>
+      <c r="W31" s="111"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="111"/>
+      <c r="Z31" s="111"/>
+      <c r="AA31" s="111"/>
+      <c r="AB31" s="111"/>
+      <c r="AC31" s="111"/>
+      <c r="AD31" s="111"/>
+      <c r="AE31" s="111"/>
+      <c r="AF31" s="111"/>
+      <c r="AG31" s="111"/>
+      <c r="AH31" s="111"/>
+      <c r="AI31" s="111"/>
+      <c r="AJ31" s="111"/>
+      <c r="AK31" s="111"/>
+      <c r="AL31" s="111"/>
+      <c r="AM31" s="111"/>
+      <c r="AN31" s="111"/>
+      <c r="AO31" s="111"/>
+      <c r="AP31" s="111"/>
+      <c r="AQ31" s="111"/>
+      <c r="AR31" s="111"/>
+      <c r="AS31" s="111"/>
+      <c r="AT31" s="111"/>
+      <c r="AU31" s="111"/>
+      <c r="AV31" s="111"/>
+      <c r="AW31" s="111"/>
+      <c r="AX31" s="111"/>
+      <c r="AY31" s="111"/>
+      <c r="AZ31" s="111"/>
+      <c r="BA31" s="111"/>
+      <c r="BB31" s="111"/>
+      <c r="BC31" s="111"/>
+      <c r="BD31" s="111"/>
+      <c r="BE31" s="111"/>
+      <c r="BF31" s="111"/>
+      <c r="BG31" s="111"/>
+      <c r="BH31" s="111"/>
+      <c r="BI31" s="111"/>
+      <c r="BJ31" s="111"/>
+      <c r="BK31" s="111"/>
+      <c r="BL31" s="111"/>
+      <c r="BM31" s="111"/>
+      <c r="BN31" s="111"/>
+      <c r="BO31" s="111"/>
+      <c r="BP31" s="111"/>
+      <c r="BQ31" s="111"/>
+      <c r="BR31" s="111"/>
+      <c r="BS31" s="111"/>
+      <c r="BT31" s="111"/>
+      <c r="BU31" s="111"/>
+      <c r="BV31" s="111"/>
+      <c r="BW31" s="111"/>
+      <c r="BX31" s="111"/>
+      <c r="BY31" s="111"/>
+      <c r="BZ31" s="111"/>
+      <c r="CA31" s="111"/>
+      <c r="CB31" s="111"/>
+      <c r="CC31" s="111"/>
+      <c r="CD31" s="111"/>
+      <c r="CE31" s="111"/>
+      <c r="CF31" s="111"/>
+      <c r="CG31" s="111"/>
+      <c r="CH31" s="111"/>
+      <c r="CI31" s="111"/>
+      <c r="CJ31" s="111"/>
+      <c r="CK31" s="111"/>
+      <c r="CL31" s="111"/>
+      <c r="CM31" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="BP6:BW30"/>
+    <mergeCell ref="A31:CM31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:CM3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="CN4:CN30"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="CB4:CE4"/>
@@ -5106,21 +5153,6 @@
     <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="A31:CM31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:CM3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="BP6:BW30"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B30">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/docs/PHAM_Planning_2025_.xlsx
+++ b/docs/PHAM_Planning_2025_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="506" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC69A34-3868-4D31-B605-FCD959A29FDC}"/>
+  <xr:revisionPtr revIDLastSave="534" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9D7D9D-F471-4E97-8529-405D83590139}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
   <si>
     <t>Tâches</t>
   </si>
@@ -1295,92 +1295,92 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1450,12 +1450,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19841</xdr:colOff>
+      <xdr:colOff>19840</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>124238</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
@@ -1473,8 +1473,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848602" y="662609"/>
-          <a:ext cx="3781875" cy="4472608"/>
+          <a:off x="4848601" y="662609"/>
+          <a:ext cx="4908311" cy="4472608"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1893,7 +1893,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="V35" sqref="V35"/>
+      <selection pane="bottomRight" activeCell="AJ28" sqref="AJ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1910,207 +1910,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="106" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
     </row>
     <row r="2" spans="1:94" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="117">
+      <c r="B2" s="107">
         <v>151481</v>
       </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="114" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="114"/>
-      <c r="AI2" s="114"/>
-      <c r="AJ2" s="114"/>
-      <c r="AK2" s="114"/>
-      <c r="AL2" s="114"/>
-      <c r="AM2" s="114"/>
-      <c r="AN2" s="114"/>
-      <c r="AO2" s="114"/>
-      <c r="AP2" s="114"/>
-      <c r="AQ2" s="114"/>
-      <c r="AR2" s="114" t="s">
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="114"/>
-      <c r="AT2" s="114"/>
-      <c r="AU2" s="114"/>
-      <c r="AV2" s="114"/>
-      <c r="AW2" s="114"/>
-      <c r="AX2" s="114"/>
-      <c r="AY2" s="114"/>
-      <c r="AZ2" s="114"/>
-      <c r="BA2" s="114"/>
-      <c r="BB2" s="114"/>
-      <c r="BC2" s="114"/>
-      <c r="BD2" s="114"/>
-      <c r="BE2" s="114"/>
-      <c r="BF2" s="114"/>
-      <c r="BG2" s="114"/>
-      <c r="BH2" s="114"/>
-      <c r="BI2" s="114"/>
-      <c r="BJ2" s="114"/>
-      <c r="BK2" s="114"/>
-      <c r="BL2" s="114"/>
-      <c r="BM2" s="114"/>
-      <c r="BN2" s="114"/>
-      <c r="BO2" s="114"/>
-      <c r="BP2" s="114"/>
-      <c r="BQ2" s="114"/>
-      <c r="BR2" s="114"/>
-      <c r="BS2" s="114"/>
-      <c r="BT2" s="114"/>
-      <c r="BU2" s="114"/>
-      <c r="BV2" s="114"/>
-      <c r="BW2" s="114"/>
-      <c r="BX2" s="114"/>
-      <c r="BY2" s="114"/>
-      <c r="BZ2" s="114"/>
-      <c r="CA2" s="114"/>
-      <c r="CB2" s="114"/>
-      <c r="CC2" s="114"/>
-      <c r="CD2" s="114"/>
-      <c r="CE2" s="114"/>
-      <c r="CF2" s="114" t="s">
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="125"/>
+      <c r="AX2" s="125"/>
+      <c r="AY2" s="125"/>
+      <c r="AZ2" s="125"/>
+      <c r="BA2" s="125"/>
+      <c r="BB2" s="125"/>
+      <c r="BC2" s="125"/>
+      <c r="BD2" s="125"/>
+      <c r="BE2" s="125"/>
+      <c r="BF2" s="125"/>
+      <c r="BG2" s="125"/>
+      <c r="BH2" s="125"/>
+      <c r="BI2" s="125"/>
+      <c r="BJ2" s="125"/>
+      <c r="BK2" s="125"/>
+      <c r="BL2" s="125"/>
+      <c r="BM2" s="125"/>
+      <c r="BN2" s="125"/>
+      <c r="BO2" s="125"/>
+      <c r="BP2" s="125"/>
+      <c r="BQ2" s="125"/>
+      <c r="BR2" s="125"/>
+      <c r="BS2" s="125"/>
+      <c r="BT2" s="125"/>
+      <c r="BU2" s="125"/>
+      <c r="BV2" s="125"/>
+      <c r="BW2" s="125"/>
+      <c r="BX2" s="125"/>
+      <c r="BY2" s="125"/>
+      <c r="BZ2" s="125"/>
+      <c r="CA2" s="125"/>
+      <c r="CB2" s="125"/>
+      <c r="CC2" s="125"/>
+      <c r="CD2" s="125"/>
+      <c r="CE2" s="125"/>
+      <c r="CF2" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="114"/>
-      <c r="CH2" s="114"/>
-      <c r="CI2" s="114"/>
-      <c r="CJ2" s="114"/>
-      <c r="CK2" s="114"/>
-      <c r="CL2" s="114"/>
-      <c r="CM2" s="114"/>
+      <c r="CG2" s="125"/>
+      <c r="CH2" s="125"/>
+      <c r="CI2" s="125"/>
+      <c r="CJ2" s="125"/>
+      <c r="CK2" s="125"/>
+      <c r="CL2" s="125"/>
+      <c r="CM2" s="125"/>
     </row>
     <row r="3" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115"/>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115"/>
-      <c r="AJ3" s="115"/>
-      <c r="AK3" s="115"/>
-      <c r="AL3" s="115"/>
-      <c r="AM3" s="115"/>
-      <c r="AN3" s="115"/>
-      <c r="AO3" s="115"/>
-      <c r="AP3" s="115"/>
-      <c r="AQ3" s="115"/>
-      <c r="AR3" s="115"/>
-      <c r="AS3" s="115"/>
-      <c r="AT3" s="115"/>
-      <c r="AU3" s="115"/>
-      <c r="AV3" s="115"/>
-      <c r="AW3" s="115"/>
-      <c r="AX3" s="115"/>
-      <c r="AY3" s="115"/>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="115"/>
-      <c r="BB3" s="115"/>
-      <c r="BC3" s="115"/>
-      <c r="BD3" s="115"/>
-      <c r="BE3" s="115"/>
-      <c r="BF3" s="115"/>
-      <c r="BG3" s="115"/>
-      <c r="BH3" s="115"/>
-      <c r="BI3" s="115"/>
-      <c r="BJ3" s="115"/>
-      <c r="BK3" s="115"/>
-      <c r="BL3" s="115"/>
-      <c r="BM3" s="115"/>
-      <c r="BN3" s="115"/>
-      <c r="BO3" s="115"/>
-      <c r="BP3" s="115"/>
-      <c r="BQ3" s="115"/>
-      <c r="BR3" s="115"/>
-      <c r="BS3" s="115"/>
-      <c r="BT3" s="115"/>
-      <c r="BU3" s="115"/>
-      <c r="BV3" s="115"/>
-      <c r="BW3" s="115"/>
-      <c r="BX3" s="115"/>
-      <c r="BY3" s="115"/>
-      <c r="BZ3" s="115"/>
-      <c r="CA3" s="115"/>
-      <c r="CB3" s="115"/>
-      <c r="CC3" s="115"/>
-      <c r="CD3" s="115"/>
-      <c r="CE3" s="115"/>
-      <c r="CF3" s="115"/>
-      <c r="CG3" s="115"/>
-      <c r="CH3" s="115"/>
-      <c r="CI3" s="115"/>
-      <c r="CJ3" s="115"/>
-      <c r="CK3" s="115"/>
-      <c r="CL3" s="115"/>
-      <c r="CM3" s="115"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
+      <c r="AF3" s="126"/>
+      <c r="AG3" s="126"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="126"/>
+      <c r="AJ3" s="126"/>
+      <c r="AK3" s="126"/>
+      <c r="AL3" s="126"/>
+      <c r="AM3" s="126"/>
+      <c r="AN3" s="126"/>
+      <c r="AO3" s="126"/>
+      <c r="AP3" s="126"/>
+      <c r="AQ3" s="126"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="126"/>
+      <c r="AT3" s="126"/>
+      <c r="AU3" s="126"/>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
+      <c r="AZ3" s="126"/>
+      <c r="BA3" s="126"/>
+      <c r="BB3" s="126"/>
+      <c r="BC3" s="126"/>
+      <c r="BD3" s="126"/>
+      <c r="BE3" s="126"/>
+      <c r="BF3" s="126"/>
+      <c r="BG3" s="126"/>
+      <c r="BH3" s="126"/>
+      <c r="BI3" s="126"/>
+      <c r="BJ3" s="126"/>
+      <c r="BK3" s="126"/>
+      <c r="BL3" s="126"/>
+      <c r="BM3" s="126"/>
+      <c r="BN3" s="126"/>
+      <c r="BO3" s="126"/>
+      <c r="BP3" s="126"/>
+      <c r="BQ3" s="126"/>
+      <c r="BR3" s="126"/>
+      <c r="BS3" s="126"/>
+      <c r="BT3" s="126"/>
+      <c r="BU3" s="126"/>
+      <c r="BV3" s="126"/>
+      <c r="BW3" s="126"/>
+      <c r="BX3" s="126"/>
+      <c r="BY3" s="126"/>
+      <c r="BZ3" s="126"/>
+      <c r="CA3" s="126"/>
+      <c r="CB3" s="126"/>
+      <c r="CC3" s="126"/>
+      <c r="CD3" s="126"/>
+      <c r="CE3" s="126"/>
+      <c r="CF3" s="126"/>
+      <c r="CG3" s="126"/>
+      <c r="CH3" s="126"/>
+      <c r="CI3" s="126"/>
+      <c r="CJ3" s="126"/>
+      <c r="CK3" s="126"/>
+      <c r="CL3" s="126"/>
+      <c r="CM3" s="126"/>
     </row>
     <row r="4" spans="1:94" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="123" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2119,144 +2119,144 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="108"/>
-      <c r="H4" s="109">
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111">
         <v>45796</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="109"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="107" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="109">
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="111">
         <v>45797</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="107" t="s">
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="109">
+      <c r="U4" s="110"/>
+      <c r="V4" s="110"/>
+      <c r="W4" s="110"/>
+      <c r="X4" s="111">
         <v>45798</v>
       </c>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="107" t="s">
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="109">
+      <c r="AC4" s="110"/>
+      <c r="AD4" s="110"/>
+      <c r="AE4" s="110"/>
+      <c r="AF4" s="111">
         <v>45799</v>
       </c>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="107" t="s">
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="111"/>
+      <c r="AI4" s="112"/>
+      <c r="AJ4" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="108"/>
-      <c r="AM4" s="108"/>
-      <c r="AN4" s="109">
+      <c r="AK4" s="110"/>
+      <c r="AL4" s="110"/>
+      <c r="AM4" s="110"/>
+      <c r="AN4" s="111">
         <v>45800</v>
       </c>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="107" t="s">
+      <c r="AO4" s="111"/>
+      <c r="AP4" s="111"/>
+      <c r="AQ4" s="112"/>
+      <c r="AR4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="108"/>
-      <c r="AT4" s="108"/>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="109">
+      <c r="AS4" s="110"/>
+      <c r="AT4" s="110"/>
+      <c r="AU4" s="110"/>
+      <c r="AV4" s="111">
         <v>45803</v>
       </c>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="107" t="s">
+      <c r="AW4" s="111"/>
+      <c r="AX4" s="111"/>
+      <c r="AY4" s="112"/>
+      <c r="AZ4" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="108"/>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="109">
+      <c r="BA4" s="110"/>
+      <c r="BB4" s="110"/>
+      <c r="BC4" s="110"/>
+      <c r="BD4" s="111">
         <v>45804</v>
       </c>
-      <c r="BE4" s="109"/>
-      <c r="BF4" s="109"/>
-      <c r="BG4" s="110"/>
-      <c r="BH4" s="107" t="s">
+      <c r="BE4" s="111"/>
+      <c r="BF4" s="111"/>
+      <c r="BG4" s="112"/>
+      <c r="BH4" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="109">
+      <c r="BI4" s="110"/>
+      <c r="BJ4" s="110"/>
+      <c r="BK4" s="110"/>
+      <c r="BL4" s="111">
         <v>45805</v>
       </c>
-      <c r="BM4" s="109"/>
-      <c r="BN4" s="109"/>
-      <c r="BO4" s="110"/>
-      <c r="BP4" s="107" t="s">
+      <c r="BM4" s="111"/>
+      <c r="BN4" s="111"/>
+      <c r="BO4" s="112"/>
+      <c r="BP4" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="108"/>
-      <c r="BR4" s="108"/>
-      <c r="BS4" s="108"/>
-      <c r="BT4" s="109">
+      <c r="BQ4" s="110"/>
+      <c r="BR4" s="110"/>
+      <c r="BS4" s="110"/>
+      <c r="BT4" s="111">
         <v>45806</v>
       </c>
-      <c r="BU4" s="109"/>
-      <c r="BV4" s="109"/>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="107" t="s">
+      <c r="BU4" s="111"/>
+      <c r="BV4" s="111"/>
+      <c r="BW4" s="112"/>
+      <c r="BX4" s="109" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="108"/>
-      <c r="BZ4" s="108"/>
-      <c r="CA4" s="108"/>
-      <c r="CB4" s="109">
+      <c r="BY4" s="110"/>
+      <c r="BZ4" s="110"/>
+      <c r="CA4" s="110"/>
+      <c r="CB4" s="111">
         <v>45807</v>
       </c>
-      <c r="CC4" s="109"/>
-      <c r="CD4" s="109"/>
-      <c r="CE4" s="110"/>
-      <c r="CF4" s="107" t="s">
+      <c r="CC4" s="111"/>
+      <c r="CD4" s="111"/>
+      <c r="CE4" s="112"/>
+      <c r="CF4" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="108"/>
-      <c r="CH4" s="108"/>
-      <c r="CI4" s="108"/>
-      <c r="CJ4" s="109">
+      <c r="CG4" s="110"/>
+      <c r="CH4" s="110"/>
+      <c r="CI4" s="110"/>
+      <c r="CJ4" s="111">
         <v>45810</v>
       </c>
-      <c r="CK4" s="109"/>
-      <c r="CL4" s="109"/>
-      <c r="CM4" s="110"/>
-      <c r="CN4" s="106" t="s">
+      <c r="CK4" s="111"/>
+      <c r="CL4" s="111"/>
+      <c r="CM4" s="112"/>
+      <c r="CN4" s="127" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="113"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="CM5" s="6">
         <v>8</v>
       </c>
-      <c r="CN5" s="106"/>
+      <c r="CN5" s="127"/>
     </row>
     <row r="6" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
@@ -2599,16 +2599,16 @@
       <c r="BM6" s="88"/>
       <c r="BN6" s="88"/>
       <c r="BO6" s="89"/>
-      <c r="BP6" s="119" t="s">
+      <c r="BP6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="BQ6" s="120"/>
-      <c r="BR6" s="120"/>
-      <c r="BS6" s="120"/>
-      <c r="BT6" s="120"/>
-      <c r="BU6" s="120"/>
-      <c r="BV6" s="120"/>
-      <c r="BW6" s="121"/>
+      <c r="BQ6" s="114"/>
+      <c r="BR6" s="114"/>
+      <c r="BS6" s="114"/>
+      <c r="BT6" s="114"/>
+      <c r="BU6" s="114"/>
+      <c r="BV6" s="114"/>
+      <c r="BW6" s="115"/>
       <c r="BX6" s="87"/>
       <c r="BY6" s="88"/>
       <c r="BZ6" s="88"/>
@@ -2625,7 +2625,7 @@
       <c r="CK6" s="88"/>
       <c r="CL6" s="88"/>
       <c r="CM6" s="89"/>
-      <c r="CN6" s="106"/>
+      <c r="CN6" s="127"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="85" t="s">
@@ -2705,14 +2705,14 @@
       <c r="BM7" s="92"/>
       <c r="BN7" s="92"/>
       <c r="BO7" s="93"/>
-      <c r="BP7" s="122"/>
-      <c r="BQ7" s="123"/>
-      <c r="BR7" s="123"/>
-      <c r="BS7" s="123"/>
-      <c r="BT7" s="123"/>
-      <c r="BU7" s="123"/>
-      <c r="BV7" s="123"/>
-      <c r="BW7" s="124"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="117"/>
+      <c r="BR7" s="117"/>
+      <c r="BS7" s="117"/>
+      <c r="BT7" s="117"/>
+      <c r="BU7" s="117"/>
+      <c r="BV7" s="117"/>
+      <c r="BW7" s="118"/>
       <c r="BX7" s="94"/>
       <c r="BY7" s="92"/>
       <c r="BZ7" s="92"/>
@@ -2729,7 +2729,7 @@
       <c r="CK7" s="92"/>
       <c r="CL7" s="92"/>
       <c r="CM7" s="93"/>
-      <c r="CN7" s="106"/>
+      <c r="CN7" s="127"/>
       <c r="CP7" s="2" t="s">
         <v>33</v>
       </c>
@@ -2808,14 +2808,14 @@
       <c r="BM8" s="92"/>
       <c r="BN8" s="92"/>
       <c r="BO8" s="93"/>
-      <c r="BP8" s="122"/>
-      <c r="BQ8" s="123"/>
-      <c r="BR8" s="123"/>
-      <c r="BS8" s="123"/>
-      <c r="BT8" s="123"/>
-      <c r="BU8" s="123"/>
-      <c r="BV8" s="123"/>
-      <c r="BW8" s="124"/>
+      <c r="BP8" s="116"/>
+      <c r="BQ8" s="117"/>
+      <c r="BR8" s="117"/>
+      <c r="BS8" s="117"/>
+      <c r="BT8" s="117"/>
+      <c r="BU8" s="117"/>
+      <c r="BV8" s="117"/>
+      <c r="BW8" s="118"/>
       <c r="BX8" s="94"/>
       <c r="BY8" s="92"/>
       <c r="BZ8" s="92"/>
@@ -2832,7 +2832,7 @@
       <c r="CK8" s="92"/>
       <c r="CL8" s="92"/>
       <c r="CM8" s="93"/>
-      <c r="CN8" s="106"/>
+      <c r="CN8" s="127"/>
       <c r="CP8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2877,7 +2877,9 @@
       <c r="AA9" s="93"/>
       <c r="AB9" s="94"/>
       <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
+      <c r="AD9" s="92" t="s">
+        <v>32</v>
+      </c>
       <c r="AE9" s="92"/>
       <c r="AF9" s="92"/>
       <c r="AG9" s="92"/>
@@ -2915,14 +2917,14 @@
       <c r="BM9" s="92"/>
       <c r="BN9" s="92"/>
       <c r="BO9" s="93"/>
-      <c r="BP9" s="122"/>
-      <c r="BQ9" s="123"/>
-      <c r="BR9" s="123"/>
-      <c r="BS9" s="123"/>
-      <c r="BT9" s="123"/>
-      <c r="BU9" s="123"/>
-      <c r="BV9" s="123"/>
-      <c r="BW9" s="124"/>
+      <c r="BP9" s="116"/>
+      <c r="BQ9" s="117"/>
+      <c r="BR9" s="117"/>
+      <c r="BS9" s="117"/>
+      <c r="BT9" s="117"/>
+      <c r="BU9" s="117"/>
+      <c r="BV9" s="117"/>
+      <c r="BW9" s="118"/>
       <c r="BX9" s="94"/>
       <c r="BY9" s="92"/>
       <c r="BZ9" s="92"/>
@@ -2939,7 +2941,7 @@
       <c r="CK9" s="92"/>
       <c r="CL9" s="92"/>
       <c r="CM9" s="93"/>
-      <c r="CN9" s="106"/>
+      <c r="CN9" s="127"/>
     </row>
     <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="76" t="s">
@@ -3011,14 +3013,14 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="12"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="122"/>
-      <c r="BQ10" s="123"/>
-      <c r="BR10" s="123"/>
-      <c r="BS10" s="123"/>
-      <c r="BT10" s="123"/>
-      <c r="BU10" s="123"/>
-      <c r="BV10" s="123"/>
-      <c r="BW10" s="124"/>
+      <c r="BP10" s="116"/>
+      <c r="BQ10" s="117"/>
+      <c r="BR10" s="117"/>
+      <c r="BS10" s="117"/>
+      <c r="BT10" s="117"/>
+      <c r="BU10" s="117"/>
+      <c r="BV10" s="117"/>
+      <c r="BW10" s="118"/>
       <c r="BX10" s="11"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -3035,7 +3037,7 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
       <c r="CM10" s="13"/>
-      <c r="CN10" s="106"/>
+      <c r="CN10" s="127"/>
     </row>
     <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
@@ -3111,14 +3113,14 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="8"/>
-      <c r="BP11" s="122"/>
-      <c r="BQ11" s="123"/>
-      <c r="BR11" s="123"/>
-      <c r="BS11" s="123"/>
-      <c r="BT11" s="123"/>
-      <c r="BU11" s="123"/>
-      <c r="BV11" s="123"/>
-      <c r="BW11" s="124"/>
+      <c r="BP11" s="116"/>
+      <c r="BQ11" s="117"/>
+      <c r="BR11" s="117"/>
+      <c r="BS11" s="117"/>
+      <c r="BT11" s="117"/>
+      <c r="BU11" s="117"/>
+      <c r="BV11" s="117"/>
+      <c r="BW11" s="118"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7"/>
@@ -3135,7 +3137,7 @@
       <c r="CK11" s="7"/>
       <c r="CL11" s="7"/>
       <c r="CM11" s="8"/>
-      <c r="CN11" s="106"/>
+      <c r="CN11" s="127"/>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -3211,14 +3213,14 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="12"/>
       <c r="BO12" s="13"/>
-      <c r="BP12" s="122"/>
-      <c r="BQ12" s="123"/>
-      <c r="BR12" s="123"/>
-      <c r="BS12" s="123"/>
-      <c r="BT12" s="123"/>
-      <c r="BU12" s="123"/>
-      <c r="BV12" s="123"/>
-      <c r="BW12" s="124"/>
+      <c r="BP12" s="116"/>
+      <c r="BQ12" s="117"/>
+      <c r="BR12" s="117"/>
+      <c r="BS12" s="117"/>
+      <c r="BT12" s="117"/>
+      <c r="BU12" s="117"/>
+      <c r="BV12" s="117"/>
+      <c r="BW12" s="118"/>
       <c r="BX12" s="11"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
@@ -3235,7 +3237,7 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
       <c r="CM12" s="13"/>
-      <c r="CN12" s="106"/>
+      <c r="CN12" s="127"/>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
@@ -3321,14 +3323,14 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="13"/>
-      <c r="BP13" s="122"/>
-      <c r="BQ13" s="123"/>
-      <c r="BR13" s="123"/>
-      <c r="BS13" s="123"/>
-      <c r="BT13" s="123"/>
-      <c r="BU13" s="123"/>
-      <c r="BV13" s="123"/>
-      <c r="BW13" s="124"/>
+      <c r="BP13" s="116"/>
+      <c r="BQ13" s="117"/>
+      <c r="BR13" s="117"/>
+      <c r="BS13" s="117"/>
+      <c r="BT13" s="117"/>
+      <c r="BU13" s="117"/>
+      <c r="BV13" s="117"/>
+      <c r="BW13" s="118"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
@@ -3345,7 +3347,7 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
       <c r="CM13" s="13"/>
-      <c r="CN13" s="106"/>
+      <c r="CN13" s="127"/>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
@@ -3423,14 +3425,14 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="12"/>
       <c r="BO14" s="13"/>
-      <c r="BP14" s="122"/>
-      <c r="BQ14" s="123"/>
-      <c r="BR14" s="123"/>
-      <c r="BS14" s="123"/>
-      <c r="BT14" s="123"/>
-      <c r="BU14" s="123"/>
-      <c r="BV14" s="123"/>
-      <c r="BW14" s="124"/>
+      <c r="BP14" s="116"/>
+      <c r="BQ14" s="117"/>
+      <c r="BR14" s="117"/>
+      <c r="BS14" s="117"/>
+      <c r="BT14" s="117"/>
+      <c r="BU14" s="117"/>
+      <c r="BV14" s="117"/>
+      <c r="BW14" s="118"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
@@ -3447,7 +3449,7 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
       <c r="CM14" s="13"/>
-      <c r="CN14" s="106"/>
+      <c r="CN14" s="127"/>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
@@ -3519,14 +3521,14 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="12"/>
       <c r="BO15" s="13"/>
-      <c r="BP15" s="122"/>
-      <c r="BQ15" s="123"/>
-      <c r="BR15" s="123"/>
-      <c r="BS15" s="123"/>
-      <c r="BT15" s="123"/>
-      <c r="BU15" s="123"/>
-      <c r="BV15" s="123"/>
-      <c r="BW15" s="124"/>
+      <c r="BP15" s="116"/>
+      <c r="BQ15" s="117"/>
+      <c r="BR15" s="117"/>
+      <c r="BS15" s="117"/>
+      <c r="BT15" s="117"/>
+      <c r="BU15" s="117"/>
+      <c r="BV15" s="117"/>
+      <c r="BW15" s="118"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
@@ -3543,7 +3545,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
       <c r="CM15" s="13"/>
-      <c r="CN15" s="106"/>
+      <c r="CN15" s="127"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3621,14 +3623,14 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="12"/>
       <c r="BO16" s="13"/>
-      <c r="BP16" s="122"/>
-      <c r="BQ16" s="123"/>
-      <c r="BR16" s="123"/>
-      <c r="BS16" s="123"/>
-      <c r="BT16" s="123"/>
-      <c r="BU16" s="123"/>
-      <c r="BV16" s="123"/>
-      <c r="BW16" s="124"/>
+      <c r="BP16" s="116"/>
+      <c r="BQ16" s="117"/>
+      <c r="BR16" s="117"/>
+      <c r="BS16" s="117"/>
+      <c r="BT16" s="117"/>
+      <c r="BU16" s="117"/>
+      <c r="BV16" s="117"/>
+      <c r="BW16" s="118"/>
       <c r="BX16" s="11"/>
       <c r="BY16" s="12"/>
       <c r="BZ16" s="12"/>
@@ -3645,7 +3647,7 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
       <c r="CM16" s="13"/>
-      <c r="CN16" s="106"/>
+      <c r="CN16" s="127"/>
     </row>
     <row r="17" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
@@ -3725,14 +3727,14 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="13"/>
-      <c r="BP17" s="122"/>
-      <c r="BQ17" s="123"/>
-      <c r="BR17" s="123"/>
-      <c r="BS17" s="123"/>
-      <c r="BT17" s="123"/>
-      <c r="BU17" s="123"/>
-      <c r="BV17" s="123"/>
-      <c r="BW17" s="124"/>
+      <c r="BP17" s="116"/>
+      <c r="BQ17" s="117"/>
+      <c r="BR17" s="117"/>
+      <c r="BS17" s="117"/>
+      <c r="BT17" s="117"/>
+      <c r="BU17" s="117"/>
+      <c r="BV17" s="117"/>
+      <c r="BW17" s="118"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
@@ -3749,7 +3751,7 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="13"/>
-      <c r="CN17" s="106"/>
+      <c r="CN17" s="127"/>
     </row>
     <row r="18" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
@@ -3821,14 +3823,14 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
       <c r="BO18" s="13"/>
-      <c r="BP18" s="122"/>
-      <c r="BQ18" s="123"/>
-      <c r="BR18" s="123"/>
-      <c r="BS18" s="123"/>
-      <c r="BT18" s="123"/>
-      <c r="BU18" s="123"/>
-      <c r="BV18" s="123"/>
-      <c r="BW18" s="124"/>
+      <c r="BP18" s="116"/>
+      <c r="BQ18" s="117"/>
+      <c r="BR18" s="117"/>
+      <c r="BS18" s="117"/>
+      <c r="BT18" s="117"/>
+      <c r="BU18" s="117"/>
+      <c r="BV18" s="117"/>
+      <c r="BW18" s="118"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
@@ -3845,7 +3847,7 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="13"/>
-      <c r="CN18" s="106"/>
+      <c r="CN18" s="127"/>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
@@ -3923,14 +3925,14 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="12"/>
       <c r="BO19" s="13"/>
-      <c r="BP19" s="122"/>
-      <c r="BQ19" s="123"/>
-      <c r="BR19" s="123"/>
-      <c r="BS19" s="123"/>
-      <c r="BT19" s="123"/>
-      <c r="BU19" s="123"/>
-      <c r="BV19" s="123"/>
-      <c r="BW19" s="124"/>
+      <c r="BP19" s="116"/>
+      <c r="BQ19" s="117"/>
+      <c r="BR19" s="117"/>
+      <c r="BS19" s="117"/>
+      <c r="BT19" s="117"/>
+      <c r="BU19" s="117"/>
+      <c r="BV19" s="117"/>
+      <c r="BW19" s="118"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
@@ -3947,14 +3949,14 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="13"/>
-      <c r="CN19" s="106"/>
+      <c r="CN19" s="127"/>
     </row>
     <row r="20" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -3985,10 +3987,18 @@
       <c r="AA20" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="AB20" s="53"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="12"/>
+      <c r="AB20" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC20" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD20" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE20" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="AF20" s="61"/>
       <c r="AG20" s="61"/>
       <c r="AH20" s="61"/>
@@ -4025,14 +4035,14 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="12"/>
       <c r="BO20" s="13"/>
-      <c r="BP20" s="122"/>
-      <c r="BQ20" s="123"/>
-      <c r="BR20" s="123"/>
-      <c r="BS20" s="123"/>
-      <c r="BT20" s="123"/>
-      <c r="BU20" s="123"/>
-      <c r="BV20" s="123"/>
-      <c r="BW20" s="124"/>
+      <c r="BP20" s="116"/>
+      <c r="BQ20" s="117"/>
+      <c r="BR20" s="117"/>
+      <c r="BS20" s="117"/>
+      <c r="BT20" s="117"/>
+      <c r="BU20" s="117"/>
+      <c r="BV20" s="117"/>
+      <c r="BW20" s="118"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
@@ -4049,13 +4059,15 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
       <c r="CM20" s="13"/>
-      <c r="CN20" s="106"/>
+      <c r="CN20" s="127"/>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="15"/>
+      <c r="B21" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
@@ -4084,11 +4096,21 @@
       <c r="AB21" s="11"/>
       <c r="AC21" s="12"/>
       <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="54"/>
-      <c r="AG21" s="54"/>
-      <c r="AH21" s="54"/>
-      <c r="AI21" s="55"/>
+      <c r="AE21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF21" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG21" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH21" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI21" s="55" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ21" s="53"/>
       <c r="AK21" s="12"/>
       <c r="AL21" s="12"/>
@@ -4121,14 +4143,14 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="12"/>
       <c r="BO21" s="13"/>
-      <c r="BP21" s="122"/>
-      <c r="BQ21" s="123"/>
-      <c r="BR21" s="123"/>
-      <c r="BS21" s="123"/>
-      <c r="BT21" s="123"/>
-      <c r="BU21" s="123"/>
-      <c r="BV21" s="123"/>
-      <c r="BW21" s="124"/>
+      <c r="BP21" s="116"/>
+      <c r="BQ21" s="117"/>
+      <c r="BR21" s="117"/>
+      <c r="BS21" s="117"/>
+      <c r="BT21" s="117"/>
+      <c r="BU21" s="117"/>
+      <c r="BV21" s="117"/>
+      <c r="BW21" s="118"/>
       <c r="BX21" s="11"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
@@ -4145,7 +4167,7 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
       <c r="CM21" s="13"/>
-      <c r="CN21" s="106"/>
+      <c r="CN21" s="127"/>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
@@ -4217,14 +4239,14 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="12"/>
       <c r="BO22" s="13"/>
-      <c r="BP22" s="122"/>
-      <c r="BQ22" s="123"/>
-      <c r="BR22" s="123"/>
-      <c r="BS22" s="123"/>
-      <c r="BT22" s="123"/>
-      <c r="BU22" s="123"/>
-      <c r="BV22" s="123"/>
-      <c r="BW22" s="124"/>
+      <c r="BP22" s="116"/>
+      <c r="BQ22" s="117"/>
+      <c r="BR22" s="117"/>
+      <c r="BS22" s="117"/>
+      <c r="BT22" s="117"/>
+      <c r="BU22" s="117"/>
+      <c r="BV22" s="117"/>
+      <c r="BW22" s="118"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
@@ -4241,7 +4263,7 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
       <c r="CM22" s="13"/>
-      <c r="CN22" s="106"/>
+      <c r="CN22" s="127"/>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
@@ -4313,14 +4335,14 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12"/>
       <c r="BO23" s="13"/>
-      <c r="BP23" s="122"/>
-      <c r="BQ23" s="123"/>
-      <c r="BR23" s="123"/>
-      <c r="BS23" s="123"/>
-      <c r="BT23" s="123"/>
-      <c r="BU23" s="123"/>
-      <c r="BV23" s="123"/>
-      <c r="BW23" s="124"/>
+      <c r="BP23" s="116"/>
+      <c r="BQ23" s="117"/>
+      <c r="BR23" s="117"/>
+      <c r="BS23" s="117"/>
+      <c r="BT23" s="117"/>
+      <c r="BU23" s="117"/>
+      <c r="BV23" s="117"/>
+      <c r="BW23" s="118"/>
       <c r="BX23" s="11"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
@@ -4337,7 +4359,7 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
       <c r="CM23" s="13"/>
-      <c r="CN23" s="106"/>
+      <c r="CN23" s="127"/>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
@@ -4409,14 +4431,14 @@
       <c r="BM24" s="12"/>
       <c r="BN24" s="12"/>
       <c r="BO24" s="13"/>
-      <c r="BP24" s="122"/>
-      <c r="BQ24" s="123"/>
-      <c r="BR24" s="123"/>
-      <c r="BS24" s="123"/>
-      <c r="BT24" s="123"/>
-      <c r="BU24" s="123"/>
-      <c r="BV24" s="123"/>
-      <c r="BW24" s="124"/>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="117"/>
+      <c r="BR24" s="117"/>
+      <c r="BS24" s="117"/>
+      <c r="BT24" s="117"/>
+      <c r="BU24" s="117"/>
+      <c r="BV24" s="117"/>
+      <c r="BW24" s="118"/>
       <c r="BX24" s="11"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
@@ -4433,7 +4455,7 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
       <c r="CM24" s="13"/>
-      <c r="CN24" s="106"/>
+      <c r="CN24" s="127"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
@@ -4505,14 +4527,14 @@
       <c r="BM25" s="12"/>
       <c r="BN25" s="12"/>
       <c r="BO25" s="13"/>
-      <c r="BP25" s="122"/>
-      <c r="BQ25" s="123"/>
-      <c r="BR25" s="123"/>
-      <c r="BS25" s="123"/>
-      <c r="BT25" s="123"/>
-      <c r="BU25" s="123"/>
-      <c r="BV25" s="123"/>
-      <c r="BW25" s="124"/>
+      <c r="BP25" s="116"/>
+      <c r="BQ25" s="117"/>
+      <c r="BR25" s="117"/>
+      <c r="BS25" s="117"/>
+      <c r="BT25" s="117"/>
+      <c r="BU25" s="117"/>
+      <c r="BV25" s="117"/>
+      <c r="BW25" s="118"/>
       <c r="BX25" s="11"/>
       <c r="BY25" s="12"/>
       <c r="BZ25" s="12"/>
@@ -4529,7 +4551,7 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
       <c r="CM25" s="13"/>
-      <c r="CN25" s="106"/>
+      <c r="CN25" s="127"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
@@ -4601,14 +4623,14 @@
       <c r="BM26" s="54"/>
       <c r="BN26" s="12"/>
       <c r="BO26" s="13"/>
-      <c r="BP26" s="122"/>
-      <c r="BQ26" s="123"/>
-      <c r="BR26" s="123"/>
-      <c r="BS26" s="123"/>
-      <c r="BT26" s="123"/>
-      <c r="BU26" s="123"/>
-      <c r="BV26" s="123"/>
-      <c r="BW26" s="124"/>
+      <c r="BP26" s="116"/>
+      <c r="BQ26" s="117"/>
+      <c r="BR26" s="117"/>
+      <c r="BS26" s="117"/>
+      <c r="BT26" s="117"/>
+      <c r="BU26" s="117"/>
+      <c r="BV26" s="117"/>
+      <c r="BW26" s="118"/>
       <c r="BX26" s="11"/>
       <c r="BY26" s="12"/>
       <c r="BZ26" s="12"/>
@@ -4625,7 +4647,7 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
       <c r="CM26" s="13"/>
-      <c r="CN26" s="106"/>
+      <c r="CN26" s="127"/>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
@@ -4697,14 +4719,14 @@
       <c r="BM27" s="12"/>
       <c r="BN27" s="12"/>
       <c r="BO27" s="13"/>
-      <c r="BP27" s="122"/>
-      <c r="BQ27" s="123"/>
-      <c r="BR27" s="123"/>
-      <c r="BS27" s="123"/>
-      <c r="BT27" s="123"/>
-      <c r="BU27" s="123"/>
-      <c r="BV27" s="123"/>
-      <c r="BW27" s="124"/>
+      <c r="BP27" s="116"/>
+      <c r="BQ27" s="117"/>
+      <c r="BR27" s="117"/>
+      <c r="BS27" s="117"/>
+      <c r="BT27" s="117"/>
+      <c r="BU27" s="117"/>
+      <c r="BV27" s="117"/>
+      <c r="BW27" s="118"/>
       <c r="BX27" s="11"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
@@ -4721,7 +4743,7 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
       <c r="CM27" s="13"/>
-      <c r="CN27" s="106"/>
+      <c r="CN27" s="127"/>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
@@ -4750,17 +4772,29 @@
       <c r="V28" s="12"/>
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
+      <c r="Y28" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="Z28" s="12"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="98"/>
+      <c r="AC28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD28" s="98" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE28" s="98" t="s">
+        <v>32</v>
+      </c>
       <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="13"/>
+      <c r="AH28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI28" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="AJ28" s="11"/>
       <c r="AK28" s="12"/>
       <c r="AL28" s="12"/>
@@ -4793,14 +4827,14 @@
       <c r="BM28" s="63"/>
       <c r="BN28" s="63"/>
       <c r="BO28" s="100"/>
-      <c r="BP28" s="122"/>
-      <c r="BQ28" s="123"/>
-      <c r="BR28" s="123"/>
-      <c r="BS28" s="123"/>
-      <c r="BT28" s="123"/>
-      <c r="BU28" s="123"/>
-      <c r="BV28" s="123"/>
-      <c r="BW28" s="124"/>
+      <c r="BP28" s="116"/>
+      <c r="BQ28" s="117"/>
+      <c r="BR28" s="117"/>
+      <c r="BS28" s="117"/>
+      <c r="BT28" s="117"/>
+      <c r="BU28" s="117"/>
+      <c r="BV28" s="117"/>
+      <c r="BW28" s="118"/>
       <c r="BX28" s="11"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
@@ -4817,7 +4851,7 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
       <c r="CM28" s="13"/>
-      <c r="CN28" s="106"/>
+      <c r="CN28" s="127"/>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A29" s="64" t="s">
@@ -4889,14 +4923,14 @@
       <c r="BM29" s="67"/>
       <c r="BN29" s="67"/>
       <c r="BO29" s="68"/>
-      <c r="BP29" s="122"/>
-      <c r="BQ29" s="123"/>
-      <c r="BR29" s="123"/>
-      <c r="BS29" s="123"/>
-      <c r="BT29" s="123"/>
-      <c r="BU29" s="123"/>
-      <c r="BV29" s="123"/>
-      <c r="BW29" s="124"/>
+      <c r="BP29" s="116"/>
+      <c r="BQ29" s="117"/>
+      <c r="BR29" s="117"/>
+      <c r="BS29" s="117"/>
+      <c r="BT29" s="117"/>
+      <c r="BU29" s="117"/>
+      <c r="BV29" s="117"/>
+      <c r="BW29" s="118"/>
       <c r="BX29" s="84"/>
       <c r="BY29" s="74"/>
       <c r="BZ29" s="74"/>
@@ -4913,7 +4947,7 @@
       <c r="CK29" s="67"/>
       <c r="CL29" s="67"/>
       <c r="CM29" s="68"/>
-      <c r="CN29" s="106"/>
+      <c r="CN29" s="127"/>
     </row>
     <row r="30" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
@@ -4999,14 +5033,14 @@
       <c r="BM30" s="80"/>
       <c r="BN30" s="30"/>
       <c r="BO30" s="31"/>
-      <c r="BP30" s="125"/>
-      <c r="BQ30" s="126"/>
-      <c r="BR30" s="126"/>
-      <c r="BS30" s="126"/>
-      <c r="BT30" s="126"/>
-      <c r="BU30" s="126"/>
-      <c r="BV30" s="126"/>
-      <c r="BW30" s="127"/>
+      <c r="BP30" s="119"/>
+      <c r="BQ30" s="120"/>
+      <c r="BR30" s="120"/>
+      <c r="BS30" s="120"/>
+      <c r="BT30" s="120"/>
+      <c r="BU30" s="120"/>
+      <c r="BV30" s="120"/>
+      <c r="BW30" s="121"/>
       <c r="BX30" s="79"/>
       <c r="BY30" s="80"/>
       <c r="BZ30" s="80"/>
@@ -5023,120 +5057,105 @@
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
       <c r="CM30" s="31"/>
-      <c r="CN30" s="106"/>
+      <c r="CN30" s="127"/>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A31" s="111" t="s">
+      <c r="A31" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="111"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="111"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="111"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="111"/>
-      <c r="P31" s="111"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="111"/>
-      <c r="S31" s="111"/>
-      <c r="T31" s="111"/>
-      <c r="U31" s="111"/>
-      <c r="V31" s="111"/>
-      <c r="W31" s="111"/>
-      <c r="X31" s="111"/>
-      <c r="Y31" s="111"/>
-      <c r="Z31" s="111"/>
-      <c r="AA31" s="111"/>
-      <c r="AB31" s="111"/>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="111"/>
-      <c r="AE31" s="111"/>
-      <c r="AF31" s="111"/>
-      <c r="AG31" s="111"/>
-      <c r="AH31" s="111"/>
-      <c r="AI31" s="111"/>
-      <c r="AJ31" s="111"/>
-      <c r="AK31" s="111"/>
-      <c r="AL31" s="111"/>
-      <c r="AM31" s="111"/>
-      <c r="AN31" s="111"/>
-      <c r="AO31" s="111"/>
-      <c r="AP31" s="111"/>
-      <c r="AQ31" s="111"/>
-      <c r="AR31" s="111"/>
-      <c r="AS31" s="111"/>
-      <c r="AT31" s="111"/>
-      <c r="AU31" s="111"/>
-      <c r="AV31" s="111"/>
-      <c r="AW31" s="111"/>
-      <c r="AX31" s="111"/>
-      <c r="AY31" s="111"/>
-      <c r="AZ31" s="111"/>
-      <c r="BA31" s="111"/>
-      <c r="BB31" s="111"/>
-      <c r="BC31" s="111"/>
-      <c r="BD31" s="111"/>
-      <c r="BE31" s="111"/>
-      <c r="BF31" s="111"/>
-      <c r="BG31" s="111"/>
-      <c r="BH31" s="111"/>
-      <c r="BI31" s="111"/>
-      <c r="BJ31" s="111"/>
-      <c r="BK31" s="111"/>
-      <c r="BL31" s="111"/>
-      <c r="BM31" s="111"/>
-      <c r="BN31" s="111"/>
-      <c r="BO31" s="111"/>
-      <c r="BP31" s="111"/>
-      <c r="BQ31" s="111"/>
-      <c r="BR31" s="111"/>
-      <c r="BS31" s="111"/>
-      <c r="BT31" s="111"/>
-      <c r="BU31" s="111"/>
-      <c r="BV31" s="111"/>
-      <c r="BW31" s="111"/>
-      <c r="BX31" s="111"/>
-      <c r="BY31" s="111"/>
-      <c r="BZ31" s="111"/>
-      <c r="CA31" s="111"/>
-      <c r="CB31" s="111"/>
-      <c r="CC31" s="111"/>
-      <c r="CD31" s="111"/>
-      <c r="CE31" s="111"/>
-      <c r="CF31" s="111"/>
-      <c r="CG31" s="111"/>
-      <c r="CH31" s="111"/>
-      <c r="CI31" s="111"/>
-      <c r="CJ31" s="111"/>
-      <c r="CK31" s="111"/>
-      <c r="CL31" s="111"/>
-      <c r="CM31" s="111"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="122"/>
+      <c r="D31" s="122"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
+      <c r="W31" s="122"/>
+      <c r="X31" s="122"/>
+      <c r="Y31" s="122"/>
+      <c r="Z31" s="122"/>
+      <c r="AA31" s="122"/>
+      <c r="AB31" s="122"/>
+      <c r="AC31" s="122"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="122"/>
+      <c r="AH31" s="122"/>
+      <c r="AI31" s="122"/>
+      <c r="AJ31" s="122"/>
+      <c r="AK31" s="122"/>
+      <c r="AL31" s="122"/>
+      <c r="AM31" s="122"/>
+      <c r="AN31" s="122"/>
+      <c r="AO31" s="122"/>
+      <c r="AP31" s="122"/>
+      <c r="AQ31" s="122"/>
+      <c r="AR31" s="122"/>
+      <c r="AS31" s="122"/>
+      <c r="AT31" s="122"/>
+      <c r="AU31" s="122"/>
+      <c r="AV31" s="122"/>
+      <c r="AW31" s="122"/>
+      <c r="AX31" s="122"/>
+      <c r="AY31" s="122"/>
+      <c r="AZ31" s="122"/>
+      <c r="BA31" s="122"/>
+      <c r="BB31" s="122"/>
+      <c r="BC31" s="122"/>
+      <c r="BD31" s="122"/>
+      <c r="BE31" s="122"/>
+      <c r="BF31" s="122"/>
+      <c r="BG31" s="122"/>
+      <c r="BH31" s="122"/>
+      <c r="BI31" s="122"/>
+      <c r="BJ31" s="122"/>
+      <c r="BK31" s="122"/>
+      <c r="BL31" s="122"/>
+      <c r="BM31" s="122"/>
+      <c r="BN31" s="122"/>
+      <c r="BO31" s="122"/>
+      <c r="BP31" s="122"/>
+      <c r="BQ31" s="122"/>
+      <c r="BR31" s="122"/>
+      <c r="BS31" s="122"/>
+      <c r="BT31" s="122"/>
+      <c r="BU31" s="122"/>
+      <c r="BV31" s="122"/>
+      <c r="BW31" s="122"/>
+      <c r="BX31" s="122"/>
+      <c r="BY31" s="122"/>
+      <c r="BZ31" s="122"/>
+      <c r="CA31" s="122"/>
+      <c r="CB31" s="122"/>
+      <c r="CC31" s="122"/>
+      <c r="CD31" s="122"/>
+      <c r="CE31" s="122"/>
+      <c r="CF31" s="122"/>
+      <c r="CG31" s="122"/>
+      <c r="CH31" s="122"/>
+      <c r="CI31" s="122"/>
+      <c r="CJ31" s="122"/>
+      <c r="CK31" s="122"/>
+      <c r="CL31" s="122"/>
+      <c r="CM31" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="BP6:BW30"/>
-    <mergeCell ref="A31:CM31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:CM3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="CN4:CN30"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="CB4:CE4"/>
@@ -5153,6 +5172,21 @@
     <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A31:CM31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:CM3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="AB4:AE4"/>
+    <mergeCell ref="AF4:AI4"/>
+    <mergeCell ref="BP6:BW30"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B30">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/docs/PHAM_Planning_2025_.xlsx
+++ b/docs/PHAM_Planning_2025_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="534" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA9D7D9D-F471-4E97-8529-405D83590139}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAAD2A30-BE93-4CE6-9931-F8D5FF82D887}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>Tâches</t>
   </si>
@@ -364,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -885,12 +885,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1124,10 +1137,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1295,6 +1304,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1307,22 +1356,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1359,28 +1392,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1450,13 +1483,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19840</xdr:colOff>
+      <xdr:colOff>19839</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>124238</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
@@ -1473,8 +1506,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848601" y="662609"/>
-          <a:ext cx="4908311" cy="4472608"/>
+          <a:off x="4848600" y="662609"/>
+          <a:ext cx="6283226" cy="4472608"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1893,7 +1926,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AJ28" sqref="AJ28"/>
+      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1901,7 +1934,10 @@
     <col min="1" max="1" width="60.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.5703125" style="2" customWidth="1"/>
-    <col min="4" max="91" width="2.140625" style="1" customWidth="1"/>
+    <col min="4" max="36" width="2.140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="2.85546875" style="1" customWidth="1"/>
+    <col min="38" max="39" width="3.42578125" style="1" customWidth="1"/>
+    <col min="40" max="91" width="2.140625" style="1" customWidth="1"/>
     <col min="92" max="92" width="3.140625" style="2" customWidth="1"/>
     <col min="93" max="93" width="9.140625" style="2" customWidth="1"/>
     <col min="94" max="94" width="8.42578125" style="2" hidden="1" customWidth="1"/>
@@ -1910,207 +1946,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
     </row>
     <row r="2" spans="1:94" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="107">
+      <c r="B2" s="116">
         <v>151481</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="125" t="s">
+      <c r="C2" s="117"/>
+      <c r="D2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="125"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125" t="s">
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="113"/>
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="113"/>
+      <c r="AJ2" s="113"/>
+      <c r="AK2" s="113"/>
+      <c r="AL2" s="113"/>
+      <c r="AM2" s="113"/>
+      <c r="AN2" s="113"/>
+      <c r="AO2" s="113"/>
+      <c r="AP2" s="113"/>
+      <c r="AQ2" s="113"/>
+      <c r="AR2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="125"/>
-      <c r="AX2" s="125"/>
-      <c r="AY2" s="125"/>
-      <c r="AZ2" s="125"/>
-      <c r="BA2" s="125"/>
-      <c r="BB2" s="125"/>
-      <c r="BC2" s="125"/>
-      <c r="BD2" s="125"/>
-      <c r="BE2" s="125"/>
-      <c r="BF2" s="125"/>
-      <c r="BG2" s="125"/>
-      <c r="BH2" s="125"/>
-      <c r="BI2" s="125"/>
-      <c r="BJ2" s="125"/>
-      <c r="BK2" s="125"/>
-      <c r="BL2" s="125"/>
-      <c r="BM2" s="125"/>
-      <c r="BN2" s="125"/>
-      <c r="BO2" s="125"/>
-      <c r="BP2" s="125"/>
-      <c r="BQ2" s="125"/>
-      <c r="BR2" s="125"/>
-      <c r="BS2" s="125"/>
-      <c r="BT2" s="125"/>
-      <c r="BU2" s="125"/>
-      <c r="BV2" s="125"/>
-      <c r="BW2" s="125"/>
-      <c r="BX2" s="125"/>
-      <c r="BY2" s="125"/>
-      <c r="BZ2" s="125"/>
-      <c r="CA2" s="125"/>
-      <c r="CB2" s="125"/>
-      <c r="CC2" s="125"/>
-      <c r="CD2" s="125"/>
-      <c r="CE2" s="125"/>
-      <c r="CF2" s="125" t="s">
+      <c r="AS2" s="113"/>
+      <c r="AT2" s="113"/>
+      <c r="AU2" s="113"/>
+      <c r="AV2" s="113"/>
+      <c r="AW2" s="113"/>
+      <c r="AX2" s="113"/>
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="113"/>
+      <c r="BA2" s="113"/>
+      <c r="BB2" s="113"/>
+      <c r="BC2" s="113"/>
+      <c r="BD2" s="113"/>
+      <c r="BE2" s="113"/>
+      <c r="BF2" s="113"/>
+      <c r="BG2" s="113"/>
+      <c r="BH2" s="113"/>
+      <c r="BI2" s="113"/>
+      <c r="BJ2" s="113"/>
+      <c r="BK2" s="113"/>
+      <c r="BL2" s="113"/>
+      <c r="BM2" s="113"/>
+      <c r="BN2" s="113"/>
+      <c r="BO2" s="113"/>
+      <c r="BP2" s="113"/>
+      <c r="BQ2" s="113"/>
+      <c r="BR2" s="113"/>
+      <c r="BS2" s="113"/>
+      <c r="BT2" s="113"/>
+      <c r="BU2" s="113"/>
+      <c r="BV2" s="113"/>
+      <c r="BW2" s="113"/>
+      <c r="BX2" s="113"/>
+      <c r="BY2" s="113"/>
+      <c r="BZ2" s="113"/>
+      <c r="CA2" s="113"/>
+      <c r="CB2" s="113"/>
+      <c r="CC2" s="113"/>
+      <c r="CD2" s="113"/>
+      <c r="CE2" s="113"/>
+      <c r="CF2" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="125"/>
-      <c r="CH2" s="125"/>
-      <c r="CI2" s="125"/>
-      <c r="CJ2" s="125"/>
-      <c r="CK2" s="125"/>
-      <c r="CL2" s="125"/>
-      <c r="CM2" s="125"/>
+      <c r="CG2" s="113"/>
+      <c r="CH2" s="113"/>
+      <c r="CI2" s="113"/>
+      <c r="CJ2" s="113"/>
+      <c r="CK2" s="113"/>
+      <c r="CL2" s="113"/>
+      <c r="CM2" s="113"/>
     </row>
     <row r="3" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
-      <c r="T3" s="126"/>
-      <c r="U3" s="126"/>
-      <c r="V3" s="126"/>
-      <c r="W3" s="126"/>
-      <c r="X3" s="126"/>
-      <c r="Y3" s="126"/>
-      <c r="Z3" s="126"/>
-      <c r="AA3" s="126"/>
-      <c r="AB3" s="126"/>
-      <c r="AC3" s="126"/>
-      <c r="AD3" s="126"/>
-      <c r="AE3" s="126"/>
-      <c r="AF3" s="126"/>
-      <c r="AG3" s="126"/>
-      <c r="AH3" s="126"/>
-      <c r="AI3" s="126"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="126"/>
-      <c r="AN3" s="126"/>
-      <c r="AO3" s="126"/>
-      <c r="AP3" s="126"/>
-      <c r="AQ3" s="126"/>
-      <c r="AR3" s="126"/>
-      <c r="AS3" s="126"/>
-      <c r="AT3" s="126"/>
-      <c r="AU3" s="126"/>
-      <c r="AV3" s="126"/>
-      <c r="AW3" s="126"/>
-      <c r="AX3" s="126"/>
-      <c r="AY3" s="126"/>
-      <c r="AZ3" s="126"/>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="126"/>
-      <c r="BC3" s="126"/>
-      <c r="BD3" s="126"/>
-      <c r="BE3" s="126"/>
-      <c r="BF3" s="126"/>
-      <c r="BG3" s="126"/>
-      <c r="BH3" s="126"/>
-      <c r="BI3" s="126"/>
-      <c r="BJ3" s="126"/>
-      <c r="BK3" s="126"/>
-      <c r="BL3" s="126"/>
-      <c r="BM3" s="126"/>
-      <c r="BN3" s="126"/>
-      <c r="BO3" s="126"/>
-      <c r="BP3" s="126"/>
-      <c r="BQ3" s="126"/>
-      <c r="BR3" s="126"/>
-      <c r="BS3" s="126"/>
-      <c r="BT3" s="126"/>
-      <c r="BU3" s="126"/>
-      <c r="BV3" s="126"/>
-      <c r="BW3" s="126"/>
-      <c r="BX3" s="126"/>
-      <c r="BY3" s="126"/>
-      <c r="BZ3" s="126"/>
-      <c r="CA3" s="126"/>
-      <c r="CB3" s="126"/>
-      <c r="CC3" s="126"/>
-      <c r="CD3" s="126"/>
-      <c r="CE3" s="126"/>
-      <c r="CF3" s="126"/>
-      <c r="CG3" s="126"/>
-      <c r="CH3" s="126"/>
-      <c r="CI3" s="126"/>
-      <c r="CJ3" s="126"/>
-      <c r="CK3" s="126"/>
-      <c r="CL3" s="126"/>
-      <c r="CM3" s="126"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="114"/>
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="114"/>
+      <c r="AY3" s="114"/>
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="114"/>
+      <c r="BF3" s="114"/>
+      <c r="BG3" s="114"/>
+      <c r="BH3" s="114"/>
+      <c r="BI3" s="114"/>
+      <c r="BJ3" s="114"/>
+      <c r="BK3" s="114"/>
+      <c r="BL3" s="114"/>
+      <c r="BM3" s="114"/>
+      <c r="BN3" s="114"/>
+      <c r="BO3" s="114"/>
+      <c r="BP3" s="114"/>
+      <c r="BQ3" s="114"/>
+      <c r="BR3" s="114"/>
+      <c r="BS3" s="114"/>
+      <c r="BT3" s="114"/>
+      <c r="BU3" s="114"/>
+      <c r="BV3" s="114"/>
+      <c r="BW3" s="114"/>
+      <c r="BX3" s="114"/>
+      <c r="BY3" s="114"/>
+      <c r="BZ3" s="114"/>
+      <c r="CA3" s="114"/>
+      <c r="CB3" s="114"/>
+      <c r="CC3" s="114"/>
+      <c r="CD3" s="114"/>
+      <c r="CE3" s="114"/>
+      <c r="CF3" s="114"/>
+      <c r="CG3" s="114"/>
+      <c r="CH3" s="114"/>
+      <c r="CI3" s="114"/>
+      <c r="CJ3" s="114"/>
+      <c r="CK3" s="114"/>
+      <c r="CL3" s="114"/>
+      <c r="CM3" s="114"/>
     </row>
     <row r="4" spans="1:94" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="123" t="s">
+      <c r="A4" s="111" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2119,144 +2155,144 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111">
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="108">
         <v>45796</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="112"/>
-      <c r="L4" s="109" t="s">
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="111">
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="107"/>
+      <c r="P4" s="108">
         <v>45797</v>
       </c>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
-      <c r="S4" s="112"/>
-      <c r="T4" s="109" t="s">
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="111">
+      <c r="U4" s="107"/>
+      <c r="V4" s="107"/>
+      <c r="W4" s="107"/>
+      <c r="X4" s="108">
         <v>45798</v>
       </c>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="111"/>
-      <c r="AA4" s="112"/>
-      <c r="AB4" s="109" t="s">
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="111">
+      <c r="AC4" s="107"/>
+      <c r="AD4" s="107"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="108">
         <v>45799</v>
       </c>
-      <c r="AG4" s="111"/>
-      <c r="AH4" s="111"/>
-      <c r="AI4" s="112"/>
-      <c r="AJ4" s="109" t="s">
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="109"/>
+      <c r="AL4" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="111">
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="108">
         <v>45800</v>
       </c>
-      <c r="AO4" s="111"/>
-      <c r="AP4" s="111"/>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="109" t="s">
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="111">
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="108">
         <v>45803</v>
       </c>
-      <c r="AW4" s="111"/>
-      <c r="AX4" s="111"/>
-      <c r="AY4" s="112"/>
-      <c r="AZ4" s="109" t="s">
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="109"/>
+      <c r="AZ4" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="111">
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="108">
         <v>45804</v>
       </c>
-      <c r="BE4" s="111"/>
-      <c r="BF4" s="111"/>
-      <c r="BG4" s="112"/>
-      <c r="BH4" s="109" t="s">
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="108"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="111">
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="108">
         <v>45805</v>
       </c>
-      <c r="BM4" s="111"/>
-      <c r="BN4" s="111"/>
-      <c r="BO4" s="112"/>
-      <c r="BP4" s="109" t="s">
+      <c r="BM4" s="108"/>
+      <c r="BN4" s="108"/>
+      <c r="BO4" s="109"/>
+      <c r="BP4" s="106" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="111">
+      <c r="BQ4" s="107"/>
+      <c r="BR4" s="107"/>
+      <c r="BS4" s="107"/>
+      <c r="BT4" s="108">
         <v>45806</v>
       </c>
-      <c r="BU4" s="111"/>
-      <c r="BV4" s="111"/>
-      <c r="BW4" s="112"/>
-      <c r="BX4" s="109" t="s">
+      <c r="BU4" s="108"/>
+      <c r="BV4" s="108"/>
+      <c r="BW4" s="109"/>
+      <c r="BX4" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="111">
+      <c r="BY4" s="107"/>
+      <c r="BZ4" s="107"/>
+      <c r="CA4" s="107"/>
+      <c r="CB4" s="108">
         <v>45807</v>
       </c>
-      <c r="CC4" s="111"/>
-      <c r="CD4" s="111"/>
-      <c r="CE4" s="112"/>
-      <c r="CF4" s="109" t="s">
+      <c r="CC4" s="108"/>
+      <c r="CD4" s="108"/>
+      <c r="CE4" s="109"/>
+      <c r="CF4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="110"/>
-      <c r="CH4" s="110"/>
-      <c r="CI4" s="110"/>
-      <c r="CJ4" s="111">
+      <c r="CG4" s="107"/>
+      <c r="CH4" s="107"/>
+      <c r="CI4" s="107"/>
+      <c r="CJ4" s="108">
         <v>45810</v>
       </c>
-      <c r="CK4" s="111"/>
-      <c r="CL4" s="111"/>
-      <c r="CM4" s="112"/>
-      <c r="CN4" s="127" t="s">
+      <c r="CK4" s="108"/>
+      <c r="CL4" s="108"/>
+      <c r="CM4" s="109"/>
+      <c r="CN4" s="105" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
+      <c r="A5" s="112"/>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2356,32 +2392,32 @@
       <c r="AH5" s="5">
         <v>7</v>
       </c>
-      <c r="AI5" s="6">
+      <c r="AI5" s="5">
         <v>8</v>
       </c>
-      <c r="AJ5" s="4">
+      <c r="AJ5" s="127">
+        <v>9</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>10</v>
+      </c>
+      <c r="AL5" s="127">
         <v>1</v>
       </c>
-      <c r="AK5" s="5">
+      <c r="AM5" s="5">
         <v>2</v>
       </c>
-      <c r="AL5" s="5">
+      <c r="AN5" s="5">
         <v>3</v>
       </c>
-      <c r="AM5" s="5">
+      <c r="AO5" s="5">
         <v>4</v>
       </c>
-      <c r="AN5" s="5">
+      <c r="AP5" s="5">
         <v>5</v>
       </c>
-      <c r="AO5" s="5">
+      <c r="AQ5" s="6">
         <v>6</v>
-      </c>
-      <c r="AP5" s="5">
-        <v>7</v>
-      </c>
-      <c r="AQ5" s="6">
-        <v>8</v>
       </c>
       <c r="AR5" s="4">
         <v>1</v>
@@ -2527,424 +2563,428 @@
       <c r="CM5" s="6">
         <v>8</v>
       </c>
-      <c r="CN5" s="127"/>
+      <c r="CN5" s="105"/>
     </row>
     <row r="6" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="86" t="s">
+      <c r="A6" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="88"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="88"/>
-      <c r="Q6" s="88"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="89"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="88"/>
-      <c r="V6" s="88"/>
-      <c r="W6" s="88"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="88"/>
-      <c r="Z6" s="88"/>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="88"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="88"/>
-      <c r="AF6" s="88"/>
-      <c r="AG6" s="88"/>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="87"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="128"/>
       <c r="AK6" s="88"/>
-      <c r="AL6" s="88"/>
-      <c r="AM6" s="88"/>
-      <c r="AN6" s="88"/>
-      <c r="AO6" s="88"/>
-      <c r="AP6" s="88"/>
-      <c r="AQ6" s="89"/>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="88"/>
-      <c r="AT6" s="88"/>
-      <c r="AU6" s="88"/>
-      <c r="AV6" s="88"/>
-      <c r="AW6" s="88"/>
-      <c r="AX6" s="88"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="87"/>
-      <c r="BA6" s="88"/>
-      <c r="BB6" s="88"/>
-      <c r="BC6" s="88"/>
-      <c r="BD6" s="88"/>
-      <c r="BE6" s="88"/>
-      <c r="BF6" s="88"/>
-      <c r="BG6" s="89"/>
-      <c r="BH6" s="87"/>
-      <c r="BI6" s="88"/>
-      <c r="BJ6" s="88"/>
-      <c r="BK6" s="88"/>
-      <c r="BL6" s="88"/>
-      <c r="BM6" s="88"/>
-      <c r="BN6" s="88"/>
-      <c r="BO6" s="89"/>
-      <c r="BP6" s="113" t="s">
+      <c r="AL6" s="128"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="87"/>
+      <c r="AW6" s="87"/>
+      <c r="AX6" s="87"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="86"/>
+      <c r="BA6" s="87"/>
+      <c r="BB6" s="87"/>
+      <c r="BC6" s="87"/>
+      <c r="BD6" s="87"/>
+      <c r="BE6" s="87"/>
+      <c r="BF6" s="87"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="86"/>
+      <c r="BI6" s="87"/>
+      <c r="BJ6" s="87"/>
+      <c r="BK6" s="87"/>
+      <c r="BL6" s="87"/>
+      <c r="BM6" s="87"/>
+      <c r="BN6" s="87"/>
+      <c r="BO6" s="88"/>
+      <c r="BP6" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="BQ6" s="114"/>
-      <c r="BR6" s="114"/>
-      <c r="BS6" s="114"/>
-      <c r="BT6" s="114"/>
-      <c r="BU6" s="114"/>
-      <c r="BV6" s="114"/>
-      <c r="BW6" s="115"/>
-      <c r="BX6" s="87"/>
-      <c r="BY6" s="88"/>
-      <c r="BZ6" s="88"/>
-      <c r="CA6" s="88"/>
-      <c r="CB6" s="88"/>
-      <c r="CC6" s="88"/>
-      <c r="CD6" s="88"/>
-      <c r="CE6" s="89"/>
-      <c r="CF6" s="87"/>
-      <c r="CG6" s="88"/>
-      <c r="CH6" s="88"/>
-      <c r="CI6" s="88"/>
-      <c r="CJ6" s="88"/>
-      <c r="CK6" s="88"/>
-      <c r="CL6" s="88"/>
-      <c r="CM6" s="89"/>
-      <c r="CN6" s="127"/>
+      <c r="BQ6" s="119"/>
+      <c r="BR6" s="119"/>
+      <c r="BS6" s="119"/>
+      <c r="BT6" s="119"/>
+      <c r="BU6" s="119"/>
+      <c r="BV6" s="119"/>
+      <c r="BW6" s="120"/>
+      <c r="BX6" s="86"/>
+      <c r="BY6" s="87"/>
+      <c r="BZ6" s="87"/>
+      <c r="CA6" s="87"/>
+      <c r="CB6" s="87"/>
+      <c r="CC6" s="87"/>
+      <c r="CD6" s="87"/>
+      <c r="CE6" s="88"/>
+      <c r="CF6" s="86"/>
+      <c r="CG6" s="87"/>
+      <c r="CH6" s="87"/>
+      <c r="CI6" s="87"/>
+      <c r="CJ6" s="87"/>
+      <c r="CK6" s="87"/>
+      <c r="CL6" s="87"/>
+      <c r="CM6" s="88"/>
+      <c r="CN6" s="105"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="84" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="90" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="92"/>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="92"/>
-      <c r="V7" s="92"/>
-      <c r="W7" s="92"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="92"/>
-      <c r="AD7" s="92"/>
-      <c r="AE7" s="92"/>
-      <c r="AF7" s="92"/>
-      <c r="AG7" s="92"/>
-      <c r="AH7" s="92"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="94"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="91"/>
+      <c r="Q7" s="91"/>
+      <c r="R7" s="91"/>
+      <c r="S7" s="92"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="91"/>
+      <c r="AJ7" s="129"/>
       <c r="AK7" s="92"/>
-      <c r="AL7" s="92"/>
-      <c r="AM7" s="92"/>
-      <c r="AN7" s="92"/>
-      <c r="AO7" s="92"/>
-      <c r="AP7" s="92"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="94"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="92"/>
-      <c r="AW7" s="92"/>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="94"/>
-      <c r="BA7" s="92"/>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="92"/>
-      <c r="BD7" s="92"/>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="92"/>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="94"/>
-      <c r="BI7" s="92"/>
-      <c r="BJ7" s="92"/>
-      <c r="BK7" s="92"/>
-      <c r="BL7" s="92"/>
-      <c r="BM7" s="92"/>
-      <c r="BN7" s="92"/>
-      <c r="BO7" s="93"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="117"/>
-      <c r="BR7" s="117"/>
-      <c r="BS7" s="117"/>
-      <c r="BT7" s="117"/>
-      <c r="BU7" s="117"/>
-      <c r="BV7" s="117"/>
-      <c r="BW7" s="118"/>
-      <c r="BX7" s="94"/>
-      <c r="BY7" s="92"/>
-      <c r="BZ7" s="92"/>
-      <c r="CA7" s="92"/>
-      <c r="CB7" s="92"/>
-      <c r="CC7" s="92"/>
-      <c r="CD7" s="92"/>
-      <c r="CE7" s="93"/>
-      <c r="CF7" s="94"/>
-      <c r="CG7" s="92"/>
-      <c r="CH7" s="92"/>
-      <c r="CI7" s="92"/>
-      <c r="CJ7" s="92"/>
-      <c r="CK7" s="92"/>
-      <c r="CL7" s="92"/>
-      <c r="CM7" s="93"/>
-      <c r="CN7" s="127"/>
+      <c r="AL7" s="129"/>
+      <c r="AM7" s="91"/>
+      <c r="AN7" s="91"/>
+      <c r="AO7" s="91"/>
+      <c r="AP7" s="91"/>
+      <c r="AQ7" s="92"/>
+      <c r="AR7" s="93"/>
+      <c r="AS7" s="91"/>
+      <c r="AT7" s="91"/>
+      <c r="AU7" s="91"/>
+      <c r="AV7" s="91"/>
+      <c r="AW7" s="91"/>
+      <c r="AX7" s="91"/>
+      <c r="AY7" s="92"/>
+      <c r="AZ7" s="93"/>
+      <c r="BA7" s="91"/>
+      <c r="BB7" s="91"/>
+      <c r="BC7" s="91"/>
+      <c r="BD7" s="91"/>
+      <c r="BE7" s="91"/>
+      <c r="BF7" s="91"/>
+      <c r="BG7" s="92"/>
+      <c r="BH7" s="93"/>
+      <c r="BI7" s="91"/>
+      <c r="BJ7" s="91"/>
+      <c r="BK7" s="91"/>
+      <c r="BL7" s="91"/>
+      <c r="BM7" s="91"/>
+      <c r="BN7" s="91"/>
+      <c r="BO7" s="92"/>
+      <c r="BP7" s="121"/>
+      <c r="BQ7" s="122"/>
+      <c r="BR7" s="122"/>
+      <c r="BS7" s="122"/>
+      <c r="BT7" s="122"/>
+      <c r="BU7" s="122"/>
+      <c r="BV7" s="122"/>
+      <c r="BW7" s="123"/>
+      <c r="BX7" s="93"/>
+      <c r="BY7" s="91"/>
+      <c r="BZ7" s="91"/>
+      <c r="CA7" s="91"/>
+      <c r="CB7" s="91"/>
+      <c r="CC7" s="91"/>
+      <c r="CD7" s="91"/>
+      <c r="CE7" s="92"/>
+      <c r="CF7" s="93"/>
+      <c r="CG7" s="91"/>
+      <c r="CH7" s="91"/>
+      <c r="CI7" s="91"/>
+      <c r="CJ7" s="91"/>
+      <c r="CK7" s="91"/>
+      <c r="CL7" s="91"/>
+      <c r="CM7" s="92"/>
+      <c r="CN7" s="105"/>
       <c r="CP7" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="84" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="92"/>
-      <c r="K8" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="94"/>
-      <c r="M8" s="92"/>
-      <c r="N8" s="92"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="93"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="92"/>
-      <c r="W8" s="92"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="93"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="92"/>
-      <c r="AD8" s="92"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="92"/>
-      <c r="AG8" s="92"/>
-      <c r="AH8" s="92"/>
-      <c r="AI8" s="93"/>
-      <c r="AJ8" s="94"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="93"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="92"/>
+      <c r="T8" s="93"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="92"/>
+      <c r="AB8" s="93"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="129"/>
       <c r="AK8" s="92"/>
-      <c r="AL8" s="92"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="92"/>
-      <c r="AO8" s="92"/>
-      <c r="AP8" s="92"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="94"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
-      <c r="AW8" s="92"/>
-      <c r="AX8" s="92"/>
-      <c r="AY8" s="93"/>
-      <c r="AZ8" s="94"/>
-      <c r="BA8" s="92"/>
-      <c r="BB8" s="92"/>
-      <c r="BC8" s="92"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="92"/>
-      <c r="BF8" s="92"/>
-      <c r="BG8" s="93"/>
-      <c r="BH8" s="94"/>
-      <c r="BI8" s="92"/>
-      <c r="BJ8" s="92"/>
-      <c r="BK8" s="92"/>
-      <c r="BL8" s="92"/>
-      <c r="BM8" s="92"/>
-      <c r="BN8" s="92"/>
-      <c r="BO8" s="93"/>
-      <c r="BP8" s="116"/>
-      <c r="BQ8" s="117"/>
-      <c r="BR8" s="117"/>
-      <c r="BS8" s="117"/>
-      <c r="BT8" s="117"/>
-      <c r="BU8" s="117"/>
-      <c r="BV8" s="117"/>
-      <c r="BW8" s="118"/>
-      <c r="BX8" s="94"/>
-      <c r="BY8" s="92"/>
-      <c r="BZ8" s="92"/>
-      <c r="CA8" s="92"/>
-      <c r="CB8" s="92"/>
-      <c r="CC8" s="92"/>
-      <c r="CD8" s="92"/>
-      <c r="CE8" s="93"/>
-      <c r="CF8" s="94"/>
-      <c r="CG8" s="92"/>
-      <c r="CH8" s="92"/>
-      <c r="CI8" s="92"/>
-      <c r="CJ8" s="92"/>
-      <c r="CK8" s="92"/>
-      <c r="CL8" s="92"/>
-      <c r="CM8" s="93"/>
-      <c r="CN8" s="127"/>
+      <c r="AL8" s="129"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="91"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="92"/>
+      <c r="AR8" s="93"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="92"/>
+      <c r="AZ8" s="93"/>
+      <c r="BA8" s="91"/>
+      <c r="BB8" s="91"/>
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="90"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="91"/>
+      <c r="BG8" s="92"/>
+      <c r="BH8" s="93"/>
+      <c r="BI8" s="91"/>
+      <c r="BJ8" s="91"/>
+      <c r="BK8" s="91"/>
+      <c r="BL8" s="91"/>
+      <c r="BM8" s="91"/>
+      <c r="BN8" s="91"/>
+      <c r="BO8" s="92"/>
+      <c r="BP8" s="121"/>
+      <c r="BQ8" s="122"/>
+      <c r="BR8" s="122"/>
+      <c r="BS8" s="122"/>
+      <c r="BT8" s="122"/>
+      <c r="BU8" s="122"/>
+      <c r="BV8" s="122"/>
+      <c r="BW8" s="123"/>
+      <c r="BX8" s="93"/>
+      <c r="BY8" s="91"/>
+      <c r="BZ8" s="91"/>
+      <c r="CA8" s="91"/>
+      <c r="CB8" s="91"/>
+      <c r="CC8" s="91"/>
+      <c r="CD8" s="91"/>
+      <c r="CE8" s="92"/>
+      <c r="CF8" s="93"/>
+      <c r="CG8" s="91"/>
+      <c r="CH8" s="91"/>
+      <c r="CI8" s="91"/>
+      <c r="CJ8" s="91"/>
+      <c r="CK8" s="91"/>
+      <c r="CL8" s="91"/>
+      <c r="CM8" s="92"/>
+      <c r="CN8" s="105"/>
       <c r="CP8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="84" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE9" s="92"/>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="94"/>
-      <c r="AK9" s="92"/>
-      <c r="AL9" s="92"/>
-      <c r="AM9" s="92"/>
-      <c r="AN9" s="92"/>
-      <c r="AO9" s="92"/>
-      <c r="AP9" s="92"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="94"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92"/>
-      <c r="AV9" s="92"/>
-      <c r="AW9" s="92"/>
-      <c r="AX9" s="92"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="94"/>
-      <c r="BA9" s="92"/>
-      <c r="BB9" s="92"/>
-      <c r="BC9" s="92"/>
-      <c r="BD9" s="92"/>
-      <c r="BE9" s="92"/>
-      <c r="BF9" s="92"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="94"/>
-      <c r="BI9" s="92"/>
-      <c r="BJ9" s="92"/>
-      <c r="BK9" s="92"/>
-      <c r="BL9" s="92"/>
-      <c r="BM9" s="92"/>
-      <c r="BN9" s="92"/>
-      <c r="BO9" s="93"/>
-      <c r="BP9" s="116"/>
-      <c r="BQ9" s="117"/>
-      <c r="BR9" s="117"/>
-      <c r="BS9" s="117"/>
-      <c r="BT9" s="117"/>
-      <c r="BU9" s="117"/>
-      <c r="BV9" s="117"/>
-      <c r="BW9" s="118"/>
-      <c r="BX9" s="94"/>
-      <c r="BY9" s="92"/>
-      <c r="BZ9" s="92"/>
-      <c r="CA9" s="92"/>
-      <c r="CB9" s="92"/>
-      <c r="CC9" s="92"/>
-      <c r="CD9" s="92"/>
-      <c r="CE9" s="93"/>
-      <c r="CF9" s="94"/>
-      <c r="CG9" s="92"/>
-      <c r="CH9" s="92"/>
-      <c r="CI9" s="92"/>
-      <c r="CJ9" s="92"/>
-      <c r="CK9" s="92"/>
-      <c r="CL9" s="92"/>
-      <c r="CM9" s="93"/>
-      <c r="CN9" s="127"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="93"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="W9" s="91"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="129"/>
+      <c r="AK9" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL9" s="129"/>
+      <c r="AM9" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AP9" s="91"/>
+      <c r="AQ9" s="92"/>
+      <c r="AR9" s="93"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="92"/>
+      <c r="AZ9" s="93"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="91"/>
+      <c r="BC9" s="91"/>
+      <c r="BD9" s="91"/>
+      <c r="BE9" s="91"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="92"/>
+      <c r="BH9" s="93"/>
+      <c r="BI9" s="91"/>
+      <c r="BJ9" s="91"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="91"/>
+      <c r="BM9" s="91"/>
+      <c r="BN9" s="91"/>
+      <c r="BO9" s="92"/>
+      <c r="BP9" s="121"/>
+      <c r="BQ9" s="122"/>
+      <c r="BR9" s="122"/>
+      <c r="BS9" s="122"/>
+      <c r="BT9" s="122"/>
+      <c r="BU9" s="122"/>
+      <c r="BV9" s="122"/>
+      <c r="BW9" s="123"/>
+      <c r="BX9" s="93"/>
+      <c r="BY9" s="91"/>
+      <c r="BZ9" s="91"/>
+      <c r="CA9" s="91"/>
+      <c r="CB9" s="91"/>
+      <c r="CC9" s="91"/>
+      <c r="CD9" s="91"/>
+      <c r="CE9" s="92"/>
+      <c r="CF9" s="93"/>
+      <c r="CG9" s="91"/>
+      <c r="CH9" s="91"/>
+      <c r="CI9" s="91"/>
+      <c r="CJ9" s="91"/>
+      <c r="CK9" s="91"/>
+      <c r="CL9" s="91"/>
+      <c r="CM9" s="92"/>
+      <c r="CN9" s="105"/>
     </row>
     <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="75" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="15"/>
@@ -2980,10 +3020,10 @@
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
       <c r="AH10" s="12"/>
-      <c r="AI10" s="13"/>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
+      <c r="AI10" s="12"/>
+      <c r="AJ10" s="24"/>
+      <c r="AK10" s="13"/>
+      <c r="AL10" s="24"/>
       <c r="AM10" s="12"/>
       <c r="AN10" s="12"/>
       <c r="AO10" s="12"/>
@@ -3013,14 +3053,14 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="12"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="116"/>
-      <c r="BQ10" s="117"/>
-      <c r="BR10" s="117"/>
-      <c r="BS10" s="117"/>
-      <c r="BT10" s="117"/>
-      <c r="BU10" s="117"/>
-      <c r="BV10" s="117"/>
-      <c r="BW10" s="118"/>
+      <c r="BP10" s="121"/>
+      <c r="BQ10" s="122"/>
+      <c r="BR10" s="122"/>
+      <c r="BS10" s="122"/>
+      <c r="BT10" s="122"/>
+      <c r="BU10" s="122"/>
+      <c r="BV10" s="122"/>
+      <c r="BW10" s="123"/>
       <c r="BX10" s="11"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -3037,7 +3077,7 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
       <c r="CM10" s="13"/>
-      <c r="CN10" s="127"/>
+      <c r="CN10" s="105"/>
     </row>
     <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
@@ -3049,7 +3089,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="99" t="s">
+      <c r="F11" s="98" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="51"/>
@@ -3080,10 +3120,10 @@
       <c r="AF11" s="7"/>
       <c r="AG11" s="7"/>
       <c r="AH11" s="7"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="7"/>
-      <c r="AL11" s="7"/>
+      <c r="AI11" s="7"/>
+      <c r="AJ11" s="23"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="23"/>
       <c r="AM11" s="7"/>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7"/>
@@ -3113,14 +3153,14 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="8"/>
-      <c r="BP11" s="116"/>
-      <c r="BQ11" s="117"/>
-      <c r="BR11" s="117"/>
-      <c r="BS11" s="117"/>
-      <c r="BT11" s="117"/>
-      <c r="BU11" s="117"/>
-      <c r="BV11" s="117"/>
-      <c r="BW11" s="118"/>
+      <c r="BP11" s="121"/>
+      <c r="BQ11" s="122"/>
+      <c r="BR11" s="122"/>
+      <c r="BS11" s="122"/>
+      <c r="BT11" s="122"/>
+      <c r="BU11" s="122"/>
+      <c r="BV11" s="122"/>
+      <c r="BW11" s="123"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7"/>
@@ -3137,7 +3177,7 @@
       <c r="CK11" s="7"/>
       <c r="CL11" s="7"/>
       <c r="CM11" s="8"/>
-      <c r="CN11" s="127"/>
+      <c r="CN11" s="105"/>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -3150,7 +3190,7 @@
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="100" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="43"/>
@@ -3180,10 +3220,10 @@
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
       <c r="AH12" s="12"/>
-      <c r="AI12" s="13"/>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="24"/>
+      <c r="AK12" s="13"/>
+      <c r="AL12" s="24"/>
       <c r="AM12" s="12"/>
       <c r="AN12" s="12"/>
       <c r="AO12" s="12"/>
@@ -3213,14 +3253,14 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="12"/>
       <c r="BO12" s="13"/>
-      <c r="BP12" s="116"/>
-      <c r="BQ12" s="117"/>
-      <c r="BR12" s="117"/>
-      <c r="BS12" s="117"/>
-      <c r="BT12" s="117"/>
-      <c r="BU12" s="117"/>
-      <c r="BV12" s="117"/>
-      <c r="BW12" s="118"/>
+      <c r="BP12" s="121"/>
+      <c r="BQ12" s="122"/>
+      <c r="BR12" s="122"/>
+      <c r="BS12" s="122"/>
+      <c r="BT12" s="122"/>
+      <c r="BU12" s="122"/>
+      <c r="BV12" s="122"/>
+      <c r="BW12" s="123"/>
       <c r="BX12" s="11"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
@@ -3237,7 +3277,7 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
       <c r="CM12" s="13"/>
-      <c r="CN12" s="127"/>
+      <c r="CN12" s="105"/>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
@@ -3251,7 +3291,7 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="100" t="s">
         <v>32</v>
       </c>
       <c r="I13" s="12"/>
@@ -3290,10 +3330,10 @@
       <c r="AF13" s="12"/>
       <c r="AG13" s="12"/>
       <c r="AH13" s="12"/>
-      <c r="AI13" s="13"/>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="13"/>
+      <c r="AL13" s="24"/>
       <c r="AM13" s="12"/>
       <c r="AN13" s="12"/>
       <c r="AO13" s="12"/>
@@ -3323,14 +3363,14 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="13"/>
-      <c r="BP13" s="116"/>
-      <c r="BQ13" s="117"/>
-      <c r="BR13" s="117"/>
-      <c r="BS13" s="117"/>
-      <c r="BT13" s="117"/>
-      <c r="BU13" s="117"/>
-      <c r="BV13" s="117"/>
-      <c r="BW13" s="118"/>
+      <c r="BP13" s="121"/>
+      <c r="BQ13" s="122"/>
+      <c r="BR13" s="122"/>
+      <c r="BS13" s="122"/>
+      <c r="BT13" s="122"/>
+      <c r="BU13" s="122"/>
+      <c r="BV13" s="122"/>
+      <c r="BW13" s="123"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
@@ -3347,7 +3387,7 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
       <c r="CM13" s="13"/>
-      <c r="CN13" s="127"/>
+      <c r="CN13" s="105"/>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
@@ -3392,10 +3432,10 @@
       <c r="AF14" s="12"/>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="24"/>
+      <c r="AK14" s="13"/>
+      <c r="AL14" s="24"/>
       <c r="AM14" s="12"/>
       <c r="AN14" s="12"/>
       <c r="AO14" s="12"/>
@@ -3425,14 +3465,14 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="12"/>
       <c r="BO14" s="13"/>
-      <c r="BP14" s="116"/>
-      <c r="BQ14" s="117"/>
-      <c r="BR14" s="117"/>
-      <c r="BS14" s="117"/>
-      <c r="BT14" s="117"/>
-      <c r="BU14" s="117"/>
-      <c r="BV14" s="117"/>
-      <c r="BW14" s="118"/>
+      <c r="BP14" s="121"/>
+      <c r="BQ14" s="122"/>
+      <c r="BR14" s="122"/>
+      <c r="BS14" s="122"/>
+      <c r="BT14" s="122"/>
+      <c r="BU14" s="122"/>
+      <c r="BV14" s="122"/>
+      <c r="BW14" s="123"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
@@ -3449,7 +3489,7 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
       <c r="CM14" s="13"/>
-      <c r="CN14" s="127"/>
+      <c r="CN14" s="105"/>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
@@ -3488,10 +3528,10 @@
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
-      <c r="AI15" s="13"/>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
+      <c r="AI15" s="12"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="13"/>
+      <c r="AL15" s="24"/>
       <c r="AM15" s="12"/>
       <c r="AN15" s="12"/>
       <c r="AO15" s="12"/>
@@ -3521,14 +3561,14 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="12"/>
       <c r="BO15" s="13"/>
-      <c r="BP15" s="116"/>
-      <c r="BQ15" s="117"/>
-      <c r="BR15" s="117"/>
-      <c r="BS15" s="117"/>
-      <c r="BT15" s="117"/>
-      <c r="BU15" s="117"/>
-      <c r="BV15" s="117"/>
-      <c r="BW15" s="118"/>
+      <c r="BP15" s="121"/>
+      <c r="BQ15" s="122"/>
+      <c r="BR15" s="122"/>
+      <c r="BS15" s="122"/>
+      <c r="BT15" s="122"/>
+      <c r="BU15" s="122"/>
+      <c r="BV15" s="122"/>
+      <c r="BW15" s="123"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
@@ -3545,7 +3585,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
       <c r="CM15" s="13"/>
-      <c r="CN15" s="127"/>
+      <c r="CN15" s="105"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3590,10 +3630,10 @@
       <c r="AF16" s="12"/>
       <c r="AG16" s="12"/>
       <c r="AH16" s="12"/>
-      <c r="AI16" s="13"/>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
+      <c r="AI16" s="12"/>
+      <c r="AJ16" s="24"/>
+      <c r="AK16" s="13"/>
+      <c r="AL16" s="24"/>
       <c r="AM16" s="12"/>
       <c r="AN16" s="12"/>
       <c r="AO16" s="12"/>
@@ -3623,14 +3663,14 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="12"/>
       <c r="BO16" s="13"/>
-      <c r="BP16" s="116"/>
-      <c r="BQ16" s="117"/>
-      <c r="BR16" s="117"/>
-      <c r="BS16" s="117"/>
-      <c r="BT16" s="117"/>
-      <c r="BU16" s="117"/>
-      <c r="BV16" s="117"/>
-      <c r="BW16" s="118"/>
+      <c r="BP16" s="121"/>
+      <c r="BQ16" s="122"/>
+      <c r="BR16" s="122"/>
+      <c r="BS16" s="122"/>
+      <c r="BT16" s="122"/>
+      <c r="BU16" s="122"/>
+      <c r="BV16" s="122"/>
+      <c r="BW16" s="123"/>
       <c r="BX16" s="11"/>
       <c r="BY16" s="12"/>
       <c r="BZ16" s="12"/>
@@ -3647,7 +3687,7 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
       <c r="CM16" s="13"/>
-      <c r="CN16" s="127"/>
+      <c r="CN16" s="105"/>
     </row>
     <row r="17" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
@@ -3694,10 +3734,10 @@
       <c r="AF17" s="12"/>
       <c r="AG17" s="12"/>
       <c r="AH17" s="12"/>
-      <c r="AI17" s="13"/>
-      <c r="AJ17" s="11"/>
-      <c r="AK17" s="12"/>
-      <c r="AL17" s="12"/>
+      <c r="AI17" s="12"/>
+      <c r="AJ17" s="24"/>
+      <c r="AK17" s="13"/>
+      <c r="AL17" s="24"/>
       <c r="AM17" s="12"/>
       <c r="AN17" s="12"/>
       <c r="AO17" s="12"/>
@@ -3727,14 +3767,14 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="13"/>
-      <c r="BP17" s="116"/>
-      <c r="BQ17" s="117"/>
-      <c r="BR17" s="117"/>
-      <c r="BS17" s="117"/>
-      <c r="BT17" s="117"/>
-      <c r="BU17" s="117"/>
-      <c r="BV17" s="117"/>
-      <c r="BW17" s="118"/>
+      <c r="BP17" s="121"/>
+      <c r="BQ17" s="122"/>
+      <c r="BR17" s="122"/>
+      <c r="BS17" s="122"/>
+      <c r="BT17" s="122"/>
+      <c r="BU17" s="122"/>
+      <c r="BV17" s="122"/>
+      <c r="BW17" s="123"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
@@ -3751,7 +3791,7 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="13"/>
-      <c r="CN17" s="127"/>
+      <c r="CN17" s="105"/>
     </row>
     <row r="18" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
@@ -3790,10 +3830,10 @@
       <c r="AF18" s="12"/>
       <c r="AG18" s="12"/>
       <c r="AH18" s="12"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="12"/>
-      <c r="AL18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="13"/>
+      <c r="AL18" s="24"/>
       <c r="AM18" s="12"/>
       <c r="AN18" s="12"/>
       <c r="AO18" s="12"/>
@@ -3823,14 +3863,14 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
       <c r="BO18" s="13"/>
-      <c r="BP18" s="116"/>
-      <c r="BQ18" s="117"/>
-      <c r="BR18" s="117"/>
-      <c r="BS18" s="117"/>
-      <c r="BT18" s="117"/>
-      <c r="BU18" s="117"/>
-      <c r="BV18" s="117"/>
-      <c r="BW18" s="118"/>
+      <c r="BP18" s="121"/>
+      <c r="BQ18" s="122"/>
+      <c r="BR18" s="122"/>
+      <c r="BS18" s="122"/>
+      <c r="BT18" s="122"/>
+      <c r="BU18" s="122"/>
+      <c r="BV18" s="122"/>
+      <c r="BW18" s="123"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
@@ -3847,7 +3887,7 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="13"/>
-      <c r="CN18" s="127"/>
+      <c r="CN18" s="105"/>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
@@ -3892,10 +3932,10 @@
       <c r="AF19" s="61"/>
       <c r="AG19" s="61"/>
       <c r="AH19" s="61"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="12"/>
-      <c r="AL19" s="12"/>
+      <c r="AI19" s="61"/>
+      <c r="AJ19" s="24"/>
+      <c r="AK19" s="13"/>
+      <c r="AL19" s="24"/>
       <c r="AM19" s="12"/>
       <c r="AN19" s="12"/>
       <c r="AO19" s="12"/>
@@ -3925,14 +3965,14 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="12"/>
       <c r="BO19" s="13"/>
-      <c r="BP19" s="116"/>
-      <c r="BQ19" s="117"/>
-      <c r="BR19" s="117"/>
-      <c r="BS19" s="117"/>
-      <c r="BT19" s="117"/>
-      <c r="BU19" s="117"/>
-      <c r="BV19" s="117"/>
-      <c r="BW19" s="118"/>
+      <c r="BP19" s="121"/>
+      <c r="BQ19" s="122"/>
+      <c r="BR19" s="122"/>
+      <c r="BS19" s="122"/>
+      <c r="BT19" s="122"/>
+      <c r="BU19" s="122"/>
+      <c r="BV19" s="122"/>
+      <c r="BW19" s="123"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
@@ -3949,7 +3989,7 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="13"/>
-      <c r="CN19" s="127"/>
+      <c r="CN19" s="105"/>
     </row>
     <row r="20" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
@@ -4002,10 +4042,10 @@
       <c r="AF20" s="61"/>
       <c r="AG20" s="61"/>
       <c r="AH20" s="61"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="12"/>
-      <c r="AL20" s="12"/>
+      <c r="AI20" s="61"/>
+      <c r="AJ20" s="24"/>
+      <c r="AK20" s="13"/>
+      <c r="AL20" s="24"/>
       <c r="AM20" s="12"/>
       <c r="AN20" s="12"/>
       <c r="AO20" s="12"/>
@@ -4035,14 +4075,14 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="12"/>
       <c r="BO20" s="13"/>
-      <c r="BP20" s="116"/>
-      <c r="BQ20" s="117"/>
-      <c r="BR20" s="117"/>
-      <c r="BS20" s="117"/>
-      <c r="BT20" s="117"/>
-      <c r="BU20" s="117"/>
-      <c r="BV20" s="117"/>
-      <c r="BW20" s="118"/>
+      <c r="BP20" s="121"/>
+      <c r="BQ20" s="122"/>
+      <c r="BR20" s="122"/>
+      <c r="BS20" s="122"/>
+      <c r="BT20" s="122"/>
+      <c r="BU20" s="122"/>
+      <c r="BV20" s="122"/>
+      <c r="BW20" s="123"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
@@ -4059,14 +4099,14 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
       <c r="CM20" s="13"/>
-      <c r="CN20" s="127"/>
+      <c r="CN20" s="105"/>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
@@ -4108,12 +4148,10 @@
       <c r="AH21" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AI21" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ21" s="53"/>
-      <c r="AK21" s="12"/>
-      <c r="AL21" s="12"/>
+      <c r="AI21" s="54"/>
+      <c r="AJ21" s="60"/>
+      <c r="AK21" s="13"/>
+      <c r="AL21" s="24"/>
       <c r="AM21" s="12"/>
       <c r="AN21" s="12"/>
       <c r="AO21" s="12"/>
@@ -4143,14 +4181,14 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="12"/>
       <c r="BO21" s="13"/>
-      <c r="BP21" s="116"/>
-      <c r="BQ21" s="117"/>
-      <c r="BR21" s="117"/>
-      <c r="BS21" s="117"/>
-      <c r="BT21" s="117"/>
-      <c r="BU21" s="117"/>
-      <c r="BV21" s="117"/>
-      <c r="BW21" s="118"/>
+      <c r="BP21" s="121"/>
+      <c r="BQ21" s="122"/>
+      <c r="BR21" s="122"/>
+      <c r="BS21" s="122"/>
+      <c r="BT21" s="122"/>
+      <c r="BU21" s="122"/>
+      <c r="BV21" s="122"/>
+      <c r="BW21" s="123"/>
       <c r="BX21" s="11"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
@@ -4167,13 +4205,15 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
       <c r="CM21" s="13"/>
-      <c r="CN21" s="127"/>
+      <c r="CN21" s="105"/>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="15"/>
+      <c r="B22" s="15" t="s">
+        <v>34</v>
+      </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="12"/>
@@ -4206,13 +4246,27 @@
       <c r="AF22" s="12"/>
       <c r="AG22" s="12"/>
       <c r="AH22" s="12"/>
-      <c r="AI22" s="13"/>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="54"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="54"/>
-      <c r="AN22" s="54"/>
-      <c r="AO22" s="12"/>
+      <c r="AI22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK22" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL22" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM22" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN22" s="131" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO22" s="100" t="s">
+        <v>32</v>
+      </c>
       <c r="AP22" s="12"/>
       <c r="AQ22" s="22"/>
       <c r="AR22" s="26"/>
@@ -4239,14 +4293,14 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="12"/>
       <c r="BO22" s="13"/>
-      <c r="BP22" s="116"/>
-      <c r="BQ22" s="117"/>
-      <c r="BR22" s="117"/>
-      <c r="BS22" s="117"/>
-      <c r="BT22" s="117"/>
-      <c r="BU22" s="117"/>
-      <c r="BV22" s="117"/>
-      <c r="BW22" s="118"/>
+      <c r="BP22" s="121"/>
+      <c r="BQ22" s="122"/>
+      <c r="BR22" s="122"/>
+      <c r="BS22" s="122"/>
+      <c r="BT22" s="122"/>
+      <c r="BU22" s="122"/>
+      <c r="BV22" s="122"/>
+      <c r="BW22" s="123"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
@@ -4263,13 +4317,15 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
       <c r="CM22" s="13"/>
-      <c r="CN22" s="127"/>
+      <c r="CN22" s="105"/>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="15"/>
+      <c r="B23" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="12"/>
@@ -4302,15 +4358,19 @@
       <c r="AF23" s="12"/>
       <c r="AG23" s="12"/>
       <c r="AH23" s="12"/>
-      <c r="AI23" s="13"/>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
+      <c r="AI23" s="12"/>
+      <c r="AJ23" s="24"/>
+      <c r="AK23" s="13"/>
+      <c r="AL23" s="24"/>
       <c r="AM23" s="12"/>
       <c r="AN23" s="12"/>
       <c r="AO23" s="12"/>
-      <c r="AP23" s="54"/>
-      <c r="AQ23" s="56"/>
+      <c r="AP23" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ23" s="56" t="s">
+        <v>32</v>
+      </c>
       <c r="AR23" s="57"/>
       <c r="AS23" s="58"/>
       <c r="AT23" s="58"/>
@@ -4335,14 +4395,14 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12"/>
       <c r="BO23" s="13"/>
-      <c r="BP23" s="116"/>
-      <c r="BQ23" s="117"/>
-      <c r="BR23" s="117"/>
-      <c r="BS23" s="117"/>
-      <c r="BT23" s="117"/>
-      <c r="BU23" s="117"/>
-      <c r="BV23" s="117"/>
-      <c r="BW23" s="118"/>
+      <c r="BP23" s="121"/>
+      <c r="BQ23" s="122"/>
+      <c r="BR23" s="122"/>
+      <c r="BS23" s="122"/>
+      <c r="BT23" s="122"/>
+      <c r="BU23" s="122"/>
+      <c r="BV23" s="122"/>
+      <c r="BW23" s="123"/>
       <c r="BX23" s="11"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
@@ -4359,7 +4419,7 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
       <c r="CM23" s="13"/>
-      <c r="CN23" s="127"/>
+      <c r="CN23" s="105"/>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
@@ -4398,10 +4458,10 @@
       <c r="AF24" s="12"/>
       <c r="AG24" s="12"/>
       <c r="AH24" s="12"/>
-      <c r="AI24" s="13"/>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="12"/>
-      <c r="AL24" s="12"/>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="24"/>
+      <c r="AK24" s="13"/>
+      <c r="AL24" s="24"/>
       <c r="AM24" s="12"/>
       <c r="AN24" s="12"/>
       <c r="AO24" s="12"/>
@@ -4431,14 +4491,14 @@
       <c r="BM24" s="12"/>
       <c r="BN24" s="12"/>
       <c r="BO24" s="13"/>
-      <c r="BP24" s="116"/>
-      <c r="BQ24" s="117"/>
-      <c r="BR24" s="117"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="117"/>
-      <c r="BU24" s="117"/>
-      <c r="BV24" s="117"/>
-      <c r="BW24" s="118"/>
+      <c r="BP24" s="121"/>
+      <c r="BQ24" s="122"/>
+      <c r="BR24" s="122"/>
+      <c r="BS24" s="122"/>
+      <c r="BT24" s="122"/>
+      <c r="BU24" s="122"/>
+      <c r="BV24" s="122"/>
+      <c r="BW24" s="123"/>
       <c r="BX24" s="11"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
@@ -4455,7 +4515,7 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
       <c r="CM24" s="13"/>
-      <c r="CN24" s="127"/>
+      <c r="CN24" s="105"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
@@ -4494,10 +4554,10 @@
       <c r="AF25" s="12"/>
       <c r="AG25" s="12"/>
       <c r="AH25" s="12"/>
-      <c r="AI25" s="13"/>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="12"/>
-      <c r="AL25" s="12"/>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="24"/>
+      <c r="AK25" s="13"/>
+      <c r="AL25" s="24"/>
       <c r="AM25" s="12"/>
       <c r="AN25" s="12"/>
       <c r="AO25" s="12"/>
@@ -4527,14 +4587,14 @@
       <c r="BM25" s="12"/>
       <c r="BN25" s="12"/>
       <c r="BO25" s="13"/>
-      <c r="BP25" s="116"/>
-      <c r="BQ25" s="117"/>
-      <c r="BR25" s="117"/>
-      <c r="BS25" s="117"/>
-      <c r="BT25" s="117"/>
-      <c r="BU25" s="117"/>
-      <c r="BV25" s="117"/>
-      <c r="BW25" s="118"/>
+      <c r="BP25" s="121"/>
+      <c r="BQ25" s="122"/>
+      <c r="BR25" s="122"/>
+      <c r="BS25" s="122"/>
+      <c r="BT25" s="122"/>
+      <c r="BU25" s="122"/>
+      <c r="BV25" s="122"/>
+      <c r="BW25" s="123"/>
       <c r="BX25" s="11"/>
       <c r="BY25" s="12"/>
       <c r="BZ25" s="12"/>
@@ -4551,7 +4611,7 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
       <c r="CM25" s="13"/>
-      <c r="CN25" s="127"/>
+      <c r="CN25" s="105"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
@@ -4590,10 +4650,10 @@
       <c r="AF26" s="12"/>
       <c r="AG26" s="12"/>
       <c r="AH26" s="12"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="12"/>
-      <c r="AL26" s="12"/>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="24"/>
+      <c r="AK26" s="13"/>
+      <c r="AL26" s="24"/>
       <c r="AM26" s="12"/>
       <c r="AN26" s="12"/>
       <c r="AO26" s="12"/>
@@ -4623,14 +4683,14 @@
       <c r="BM26" s="54"/>
       <c r="BN26" s="12"/>
       <c r="BO26" s="13"/>
-      <c r="BP26" s="116"/>
-      <c r="BQ26" s="117"/>
-      <c r="BR26" s="117"/>
-      <c r="BS26" s="117"/>
-      <c r="BT26" s="117"/>
-      <c r="BU26" s="117"/>
-      <c r="BV26" s="117"/>
-      <c r="BW26" s="118"/>
+      <c r="BP26" s="121"/>
+      <c r="BQ26" s="122"/>
+      <c r="BR26" s="122"/>
+      <c r="BS26" s="122"/>
+      <c r="BT26" s="122"/>
+      <c r="BU26" s="122"/>
+      <c r="BV26" s="122"/>
+      <c r="BW26" s="123"/>
       <c r="BX26" s="11"/>
       <c r="BY26" s="12"/>
       <c r="BZ26" s="12"/>
@@ -4647,7 +4707,7 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
       <c r="CM26" s="13"/>
-      <c r="CN26" s="127"/>
+      <c r="CN26" s="105"/>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
@@ -4686,10 +4746,10 @@
       <c r="AF27" s="12"/>
       <c r="AG27" s="12"/>
       <c r="AH27" s="12"/>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="12"/>
-      <c r="AL27" s="12"/>
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="13"/>
+      <c r="AL27" s="24"/>
       <c r="AM27" s="12"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="12"/>
@@ -4719,14 +4779,14 @@
       <c r="BM27" s="12"/>
       <c r="BN27" s="12"/>
       <c r="BO27" s="13"/>
-      <c r="BP27" s="116"/>
-      <c r="BQ27" s="117"/>
-      <c r="BR27" s="117"/>
-      <c r="BS27" s="117"/>
-      <c r="BT27" s="117"/>
-      <c r="BU27" s="117"/>
-      <c r="BV27" s="117"/>
-      <c r="BW27" s="118"/>
+      <c r="BP27" s="121"/>
+      <c r="BQ27" s="122"/>
+      <c r="BR27" s="122"/>
+      <c r="BS27" s="122"/>
+      <c r="BT27" s="122"/>
+      <c r="BU27" s="122"/>
+      <c r="BV27" s="122"/>
+      <c r="BW27" s="123"/>
       <c r="BX27" s="11"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
@@ -4743,7 +4803,7 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
       <c r="CM27" s="13"/>
-      <c r="CN27" s="127"/>
+      <c r="CN27" s="105"/>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
@@ -4781,10 +4841,10 @@
       <c r="AC28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AD28" s="98" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE28" s="98" t="s">
+      <c r="AD28" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE28" s="97" t="s">
         <v>32</v>
       </c>
       <c r="AF28" s="12"/>
@@ -4792,15 +4852,19 @@
       <c r="AH28" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="AI28" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
+      <c r="AI28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ28" s="24"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="24"/>
       <c r="AM28" s="12"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
+      <c r="AN28" s="132" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO28" s="132" t="s">
+        <v>32</v>
+      </c>
       <c r="AP28" s="12"/>
       <c r="AQ28" s="22"/>
       <c r="AR28" s="26"/>
@@ -4812,8 +4876,8 @@
       <c r="AX28" s="25"/>
       <c r="AY28" s="27"/>
       <c r="AZ28" s="24"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
+      <c r="BA28" s="62"/>
+      <c r="BB28" s="62"/>
       <c r="BC28" s="12"/>
       <c r="BD28" s="12"/>
       <c r="BE28" s="12"/>
@@ -4824,17 +4888,17 @@
       <c r="BJ28" s="12"/>
       <c r="BK28" s="12"/>
       <c r="BL28" s="12"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="63"/>
-      <c r="BO28" s="100"/>
-      <c r="BP28" s="116"/>
-      <c r="BQ28" s="117"/>
-      <c r="BR28" s="117"/>
-      <c r="BS28" s="117"/>
-      <c r="BT28" s="117"/>
-      <c r="BU28" s="117"/>
-      <c r="BV28" s="117"/>
-      <c r="BW28" s="118"/>
+      <c r="BM28" s="62"/>
+      <c r="BN28" s="62"/>
+      <c r="BO28" s="99"/>
+      <c r="BP28" s="121"/>
+      <c r="BQ28" s="122"/>
+      <c r="BR28" s="122"/>
+      <c r="BS28" s="122"/>
+      <c r="BT28" s="122"/>
+      <c r="BU28" s="122"/>
+      <c r="BV28" s="122"/>
+      <c r="BW28" s="123"/>
       <c r="BX28" s="11"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
@@ -4851,103 +4915,103 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
       <c r="CM28" s="13"/>
-      <c r="CN28" s="127"/>
+      <c r="CN28" s="105"/>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="65"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="10"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="67"/>
-      <c r="W29" s="67"/>
-      <c r="X29" s="67"/>
-      <c r="Y29" s="67"/>
-      <c r="Z29" s="67"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="67"/>
-      <c r="AG29" s="67"/>
-      <c r="AH29" s="67"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="66"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="66"/>
+      <c r="AD29" s="66"/>
+      <c r="AE29" s="66"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="72"/>
       <c r="AK29" s="67"/>
-      <c r="AL29" s="67"/>
-      <c r="AM29" s="67"/>
-      <c r="AN29" s="67"/>
-      <c r="AO29" s="67"/>
-      <c r="AP29" s="67"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="70"/>
-      <c r="AS29" s="71"/>
-      <c r="AT29" s="71"/>
-      <c r="AU29" s="71"/>
-      <c r="AV29" s="71"/>
-      <c r="AW29" s="71"/>
-      <c r="AX29" s="71"/>
-      <c r="AY29" s="72"/>
-      <c r="AZ29" s="73"/>
-      <c r="BA29" s="67"/>
-      <c r="BB29" s="67"/>
-      <c r="BC29" s="67"/>
-      <c r="BD29" s="67"/>
-      <c r="BE29" s="67"/>
-      <c r="BF29" s="67"/>
-      <c r="BG29" s="68"/>
-      <c r="BH29" s="66"/>
-      <c r="BI29" s="67"/>
-      <c r="BJ29" s="67"/>
-      <c r="BK29" s="67"/>
-      <c r="BL29" s="67"/>
-      <c r="BM29" s="67"/>
-      <c r="BN29" s="67"/>
-      <c r="BO29" s="68"/>
-      <c r="BP29" s="116"/>
-      <c r="BQ29" s="117"/>
-      <c r="BR29" s="117"/>
-      <c r="BS29" s="117"/>
-      <c r="BT29" s="117"/>
-      <c r="BU29" s="117"/>
-      <c r="BV29" s="117"/>
-      <c r="BW29" s="118"/>
-      <c r="BX29" s="84"/>
-      <c r="BY29" s="74"/>
-      <c r="BZ29" s="74"/>
-      <c r="CA29" s="74"/>
-      <c r="CB29" s="74"/>
-      <c r="CC29" s="74"/>
-      <c r="CD29" s="74"/>
-      <c r="CE29" s="75"/>
-      <c r="CF29" s="73"/>
-      <c r="CG29" s="67"/>
-      <c r="CH29" s="67"/>
-      <c r="CI29" s="67"/>
-      <c r="CJ29" s="67"/>
-      <c r="CK29" s="67"/>
-      <c r="CL29" s="67"/>
-      <c r="CM29" s="68"/>
-      <c r="CN29" s="127"/>
+      <c r="AL29" s="72"/>
+      <c r="AM29" s="66"/>
+      <c r="AN29" s="66"/>
+      <c r="AO29" s="66"/>
+      <c r="AP29" s="66"/>
+      <c r="AQ29" s="68"/>
+      <c r="AR29" s="69"/>
+      <c r="AS29" s="70"/>
+      <c r="AT29" s="70"/>
+      <c r="AU29" s="70"/>
+      <c r="AV29" s="70"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="71"/>
+      <c r="AZ29" s="72"/>
+      <c r="BA29" s="66"/>
+      <c r="BB29" s="66"/>
+      <c r="BC29" s="66"/>
+      <c r="BD29" s="66"/>
+      <c r="BE29" s="66"/>
+      <c r="BF29" s="66"/>
+      <c r="BG29" s="67"/>
+      <c r="BH29" s="65"/>
+      <c r="BI29" s="66"/>
+      <c r="BJ29" s="66"/>
+      <c r="BK29" s="66"/>
+      <c r="BL29" s="66"/>
+      <c r="BM29" s="66"/>
+      <c r="BN29" s="66"/>
+      <c r="BO29" s="67"/>
+      <c r="BP29" s="121"/>
+      <c r="BQ29" s="122"/>
+      <c r="BR29" s="122"/>
+      <c r="BS29" s="122"/>
+      <c r="BT29" s="122"/>
+      <c r="BU29" s="122"/>
+      <c r="BV29" s="122"/>
+      <c r="BW29" s="123"/>
+      <c r="BX29" s="83"/>
+      <c r="BY29" s="73"/>
+      <c r="BZ29" s="73"/>
+      <c r="CA29" s="73"/>
+      <c r="CB29" s="73"/>
+      <c r="CC29" s="73"/>
+      <c r="CD29" s="73"/>
+      <c r="CE29" s="74"/>
+      <c r="CF29" s="72"/>
+      <c r="CG29" s="66"/>
+      <c r="CH29" s="66"/>
+      <c r="CI29" s="66"/>
+      <c r="CJ29" s="66"/>
+      <c r="CK29" s="66"/>
+      <c r="CL29" s="66"/>
+      <c r="CM29" s="67"/>
+      <c r="CN29" s="105"/>
     </row>
     <row r="30" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
@@ -4957,96 +5021,100 @@
         <v>33</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="105" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="79"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="80"/>
-      <c r="Q30" s="80"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="104" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="78"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
       <c r="R30" s="30"/>
       <c r="S30" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="T30" s="79"/>
-      <c r="U30" s="80"/>
-      <c r="V30" s="80"/>
-      <c r="W30" s="80"/>
-      <c r="X30" s="80"/>
-      <c r="Y30" s="80"/>
+      <c r="T30" s="78"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
       <c r="Z30" s="30"/>
       <c r="AA30" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="80"/>
-      <c r="AD30" s="80"/>
-      <c r="AE30" s="80"/>
-      <c r="AF30" s="80"/>
-      <c r="AG30" s="80"/>
+      <c r="AB30" s="78"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
       <c r="AH30" s="30"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="80"/>
-      <c r="AL30" s="80"/>
-      <c r="AM30" s="80"/>
-      <c r="AN30" s="80"/>
-      <c r="AO30" s="80"/>
-      <c r="AP30" s="30"/>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="81"/>
-      <c r="AS30" s="82"/>
-      <c r="AT30" s="82"/>
-      <c r="AU30" s="82"/>
-      <c r="AV30" s="82"/>
-      <c r="AW30" s="82"/>
+      <c r="AI30" s="30"/>
+      <c r="AJ30" s="82"/>
+      <c r="AK30" s="130"/>
+      <c r="AL30" s="82"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="79"/>
+      <c r="AP30" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ30" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR30" s="80"/>
+      <c r="AS30" s="81"/>
+      <c r="AT30" s="81"/>
+      <c r="AU30" s="81"/>
+      <c r="AV30" s="81"/>
+      <c r="AW30" s="81"/>
       <c r="AX30" s="33"/>
       <c r="AY30" s="34"/>
-      <c r="AZ30" s="83"/>
-      <c r="BA30" s="80"/>
-      <c r="BB30" s="80"/>
-      <c r="BC30" s="80"/>
-      <c r="BD30" s="80"/>
-      <c r="BE30" s="80"/>
+      <c r="AZ30" s="82"/>
+      <c r="BA30" s="79"/>
+      <c r="BB30" s="79"/>
+      <c r="BC30" s="79"/>
+      <c r="BD30" s="79"/>
+      <c r="BE30" s="79"/>
       <c r="BF30" s="30"/>
       <c r="BG30" s="31"/>
-      <c r="BH30" s="79"/>
-      <c r="BI30" s="80"/>
-      <c r="BJ30" s="80"/>
-      <c r="BK30" s="80"/>
-      <c r="BL30" s="80"/>
-      <c r="BM30" s="80"/>
+      <c r="BH30" s="78"/>
+      <c r="BI30" s="79"/>
+      <c r="BJ30" s="79"/>
+      <c r="BK30" s="79"/>
+      <c r="BL30" s="79"/>
+      <c r="BM30" s="79"/>
       <c r="BN30" s="30"/>
       <c r="BO30" s="31"/>
-      <c r="BP30" s="119"/>
-      <c r="BQ30" s="120"/>
-      <c r="BR30" s="120"/>
-      <c r="BS30" s="120"/>
-      <c r="BT30" s="120"/>
-      <c r="BU30" s="120"/>
-      <c r="BV30" s="120"/>
-      <c r="BW30" s="121"/>
-      <c r="BX30" s="79"/>
-      <c r="BY30" s="80"/>
-      <c r="BZ30" s="80"/>
-      <c r="CA30" s="80"/>
-      <c r="CB30" s="80"/>
-      <c r="CC30" s="80"/>
+      <c r="BP30" s="124"/>
+      <c r="BQ30" s="125"/>
+      <c r="BR30" s="125"/>
+      <c r="BS30" s="125"/>
+      <c r="BT30" s="125"/>
+      <c r="BU30" s="125"/>
+      <c r="BV30" s="125"/>
+      <c r="BW30" s="126"/>
+      <c r="BX30" s="78"/>
+      <c r="BY30" s="79"/>
+      <c r="BZ30" s="79"/>
+      <c r="CA30" s="79"/>
+      <c r="CB30" s="79"/>
+      <c r="CC30" s="79"/>
       <c r="CD30" s="30"/>
       <c r="CE30" s="31"/>
       <c r="CF30" s="29"/>
@@ -5057,105 +5125,120 @@
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
       <c r="CM30" s="31"/>
-      <c r="CN30" s="127"/>
+      <c r="CN30" s="105"/>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A31" s="122" t="s">
+      <c r="A31" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="122"/>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="122"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="122"/>
-      <c r="P31" s="122"/>
-      <c r="Q31" s="122"/>
-      <c r="R31" s="122"/>
-      <c r="S31" s="122"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="122"/>
-      <c r="V31" s="122"/>
-      <c r="W31" s="122"/>
-      <c r="X31" s="122"/>
-      <c r="Y31" s="122"/>
-      <c r="Z31" s="122"/>
-      <c r="AA31" s="122"/>
-      <c r="AB31" s="122"/>
-      <c r="AC31" s="122"/>
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="122"/>
-      <c r="AI31" s="122"/>
-      <c r="AJ31" s="122"/>
-      <c r="AK31" s="122"/>
-      <c r="AL31" s="122"/>
-      <c r="AM31" s="122"/>
-      <c r="AN31" s="122"/>
-      <c r="AO31" s="122"/>
-      <c r="AP31" s="122"/>
-      <c r="AQ31" s="122"/>
-      <c r="AR31" s="122"/>
-      <c r="AS31" s="122"/>
-      <c r="AT31" s="122"/>
-      <c r="AU31" s="122"/>
-      <c r="AV31" s="122"/>
-      <c r="AW31" s="122"/>
-      <c r="AX31" s="122"/>
-      <c r="AY31" s="122"/>
-      <c r="AZ31" s="122"/>
-      <c r="BA31" s="122"/>
-      <c r="BB31" s="122"/>
-      <c r="BC31" s="122"/>
-      <c r="BD31" s="122"/>
-      <c r="BE31" s="122"/>
-      <c r="BF31" s="122"/>
-      <c r="BG31" s="122"/>
-      <c r="BH31" s="122"/>
-      <c r="BI31" s="122"/>
-      <c r="BJ31" s="122"/>
-      <c r="BK31" s="122"/>
-      <c r="BL31" s="122"/>
-      <c r="BM31" s="122"/>
-      <c r="BN31" s="122"/>
-      <c r="BO31" s="122"/>
-      <c r="BP31" s="122"/>
-      <c r="BQ31" s="122"/>
-      <c r="BR31" s="122"/>
-      <c r="BS31" s="122"/>
-      <c r="BT31" s="122"/>
-      <c r="BU31" s="122"/>
-      <c r="BV31" s="122"/>
-      <c r="BW31" s="122"/>
-      <c r="BX31" s="122"/>
-      <c r="BY31" s="122"/>
-      <c r="BZ31" s="122"/>
-      <c r="CA31" s="122"/>
-      <c r="CB31" s="122"/>
-      <c r="CC31" s="122"/>
-      <c r="CD31" s="122"/>
-      <c r="CE31" s="122"/>
-      <c r="CF31" s="122"/>
-      <c r="CG31" s="122"/>
-      <c r="CH31" s="122"/>
-      <c r="CI31" s="122"/>
-      <c r="CJ31" s="122"/>
-      <c r="CK31" s="122"/>
-      <c r="CL31" s="122"/>
-      <c r="CM31" s="122"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="110"/>
+      <c r="M31" s="110"/>
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="110"/>
+      <c r="U31" s="110"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="110"/>
+      <c r="X31" s="110"/>
+      <c r="Y31" s="110"/>
+      <c r="Z31" s="110"/>
+      <c r="AA31" s="110"/>
+      <c r="AB31" s="110"/>
+      <c r="AC31" s="110"/>
+      <c r="AD31" s="110"/>
+      <c r="AE31" s="110"/>
+      <c r="AF31" s="110"/>
+      <c r="AG31" s="110"/>
+      <c r="AH31" s="110"/>
+      <c r="AI31" s="110"/>
+      <c r="AJ31" s="110"/>
+      <c r="AK31" s="110"/>
+      <c r="AL31" s="110"/>
+      <c r="AM31" s="110"/>
+      <c r="AN31" s="110"/>
+      <c r="AO31" s="110"/>
+      <c r="AP31" s="110"/>
+      <c r="AQ31" s="110"/>
+      <c r="AR31" s="110"/>
+      <c r="AS31" s="110"/>
+      <c r="AT31" s="110"/>
+      <c r="AU31" s="110"/>
+      <c r="AV31" s="110"/>
+      <c r="AW31" s="110"/>
+      <c r="AX31" s="110"/>
+      <c r="AY31" s="110"/>
+      <c r="AZ31" s="110"/>
+      <c r="BA31" s="110"/>
+      <c r="BB31" s="110"/>
+      <c r="BC31" s="110"/>
+      <c r="BD31" s="110"/>
+      <c r="BE31" s="110"/>
+      <c r="BF31" s="110"/>
+      <c r="BG31" s="110"/>
+      <c r="BH31" s="110"/>
+      <c r="BI31" s="110"/>
+      <c r="BJ31" s="110"/>
+      <c r="BK31" s="110"/>
+      <c r="BL31" s="110"/>
+      <c r="BM31" s="110"/>
+      <c r="BN31" s="110"/>
+      <c r="BO31" s="110"/>
+      <c r="BP31" s="110"/>
+      <c r="BQ31" s="110"/>
+      <c r="BR31" s="110"/>
+      <c r="BS31" s="110"/>
+      <c r="BT31" s="110"/>
+      <c r="BU31" s="110"/>
+      <c r="BV31" s="110"/>
+      <c r="BW31" s="110"/>
+      <c r="BX31" s="110"/>
+      <c r="BY31" s="110"/>
+      <c r="BZ31" s="110"/>
+      <c r="CA31" s="110"/>
+      <c r="CB31" s="110"/>
+      <c r="CC31" s="110"/>
+      <c r="CD31" s="110"/>
+      <c r="CE31" s="110"/>
+      <c r="CF31" s="110"/>
+      <c r="CG31" s="110"/>
+      <c r="CH31" s="110"/>
+      <c r="CI31" s="110"/>
+      <c r="CJ31" s="110"/>
+      <c r="CK31" s="110"/>
+      <c r="CL31" s="110"/>
+      <c r="CM31" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="BP6:BW30"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="A31:CM31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:CM3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="CN4:CN30"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="CB4:CE4"/>
@@ -5172,21 +5255,6 @@
     <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="A31:CM31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:CM3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="AB4:AE4"/>
-    <mergeCell ref="AF4:AI4"/>
-    <mergeCell ref="BP6:BW30"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B30">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/docs/PHAM_Planning_2025_.xlsx
+++ b/docs/PHAM_Planning_2025_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="654" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAAD2A30-BE93-4CE6-9931-F8D5FF82D887}"/>
+  <xr:revisionPtr revIDLastSave="682" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0675F083-202D-4CD9-9FA2-E55871A642D5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="44">
   <si>
     <t>Tâches</t>
   </si>
@@ -903,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1304,116 +1304,120 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1483,12 +1487,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19839</xdr:colOff>
+      <xdr:colOff>19837</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>43</xdr:col>
+      <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
@@ -1506,8 +1510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848600" y="662609"/>
-          <a:ext cx="6283226" cy="4472608"/>
+          <a:off x="4848598" y="662609"/>
+          <a:ext cx="7409663" cy="4472608"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1926,7 +1930,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="BA17" sqref="BA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1946,207 +1950,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
     </row>
     <row r="2" spans="1:94" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="116">
+      <c r="B2" s="112">
         <v>151481</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="113" t="s">
+      <c r="C2" s="113"/>
+      <c r="D2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="113"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="113"/>
-      <c r="AA2" s="113"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="113"/>
-      <c r="AM2" s="113"/>
-      <c r="AN2" s="113"/>
-      <c r="AO2" s="113"/>
-      <c r="AP2" s="113"/>
-      <c r="AQ2" s="113"/>
-      <c r="AR2" s="113" t="s">
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="130"/>
+      <c r="T2" s="130"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
+      <c r="AA2" s="130"/>
+      <c r="AB2" s="130"/>
+      <c r="AC2" s="130"/>
+      <c r="AD2" s="130"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="130"/>
+      <c r="AG2" s="130"/>
+      <c r="AH2" s="130"/>
+      <c r="AI2" s="130"/>
+      <c r="AJ2" s="130"/>
+      <c r="AK2" s="130"/>
+      <c r="AL2" s="130"/>
+      <c r="AM2" s="130"/>
+      <c r="AN2" s="130"/>
+      <c r="AO2" s="130"/>
+      <c r="AP2" s="130"/>
+      <c r="AQ2" s="130"/>
+      <c r="AR2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="113"/>
-      <c r="AT2" s="113"/>
-      <c r="AU2" s="113"/>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="113"/>
-      <c r="BB2" s="113"/>
-      <c r="BC2" s="113"/>
-      <c r="BD2" s="113"/>
-      <c r="BE2" s="113"/>
-      <c r="BF2" s="113"/>
-      <c r="BG2" s="113"/>
-      <c r="BH2" s="113"/>
-      <c r="BI2" s="113"/>
-      <c r="BJ2" s="113"/>
-      <c r="BK2" s="113"/>
-      <c r="BL2" s="113"/>
-      <c r="BM2" s="113"/>
-      <c r="BN2" s="113"/>
-      <c r="BO2" s="113"/>
-      <c r="BP2" s="113"/>
-      <c r="BQ2" s="113"/>
-      <c r="BR2" s="113"/>
-      <c r="BS2" s="113"/>
-      <c r="BT2" s="113"/>
-      <c r="BU2" s="113"/>
-      <c r="BV2" s="113"/>
-      <c r="BW2" s="113"/>
-      <c r="BX2" s="113"/>
-      <c r="BY2" s="113"/>
-      <c r="BZ2" s="113"/>
-      <c r="CA2" s="113"/>
-      <c r="CB2" s="113"/>
-      <c r="CC2" s="113"/>
-      <c r="CD2" s="113"/>
-      <c r="CE2" s="113"/>
-      <c r="CF2" s="113" t="s">
+      <c r="AS2" s="130"/>
+      <c r="AT2" s="130"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="130"/>
+      <c r="AW2" s="130"/>
+      <c r="AX2" s="130"/>
+      <c r="AY2" s="130"/>
+      <c r="AZ2" s="130"/>
+      <c r="BA2" s="130"/>
+      <c r="BB2" s="130"/>
+      <c r="BC2" s="130"/>
+      <c r="BD2" s="130"/>
+      <c r="BE2" s="130"/>
+      <c r="BF2" s="130"/>
+      <c r="BG2" s="130"/>
+      <c r="BH2" s="130"/>
+      <c r="BI2" s="130"/>
+      <c r="BJ2" s="130"/>
+      <c r="BK2" s="130"/>
+      <c r="BL2" s="130"/>
+      <c r="BM2" s="130"/>
+      <c r="BN2" s="130"/>
+      <c r="BO2" s="130"/>
+      <c r="BP2" s="130"/>
+      <c r="BQ2" s="130"/>
+      <c r="BR2" s="130"/>
+      <c r="BS2" s="130"/>
+      <c r="BT2" s="130"/>
+      <c r="BU2" s="130"/>
+      <c r="BV2" s="130"/>
+      <c r="BW2" s="130"/>
+      <c r="BX2" s="130"/>
+      <c r="BY2" s="130"/>
+      <c r="BZ2" s="130"/>
+      <c r="CA2" s="130"/>
+      <c r="CB2" s="130"/>
+      <c r="CC2" s="130"/>
+      <c r="CD2" s="130"/>
+      <c r="CE2" s="130"/>
+      <c r="CF2" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="113"/>
-      <c r="CH2" s="113"/>
-      <c r="CI2" s="113"/>
-      <c r="CJ2" s="113"/>
-      <c r="CK2" s="113"/>
-      <c r="CL2" s="113"/>
-      <c r="CM2" s="113"/>
+      <c r="CG2" s="130"/>
+      <c r="CH2" s="130"/>
+      <c r="CI2" s="130"/>
+      <c r="CJ2" s="130"/>
+      <c r="CK2" s="130"/>
+      <c r="CL2" s="130"/>
+      <c r="CM2" s="130"/>
     </row>
     <row r="3" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114"/>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="114"/>
-      <c r="AV3" s="114"/>
-      <c r="AW3" s="114"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="114"/>
-      <c r="BA3" s="114"/>
-      <c r="BB3" s="114"/>
-      <c r="BC3" s="114"/>
-      <c r="BD3" s="114"/>
-      <c r="BE3" s="114"/>
-      <c r="BF3" s="114"/>
-      <c r="BG3" s="114"/>
-      <c r="BH3" s="114"/>
-      <c r="BI3" s="114"/>
-      <c r="BJ3" s="114"/>
-      <c r="BK3" s="114"/>
-      <c r="BL3" s="114"/>
-      <c r="BM3" s="114"/>
-      <c r="BN3" s="114"/>
-      <c r="BO3" s="114"/>
-      <c r="BP3" s="114"/>
-      <c r="BQ3" s="114"/>
-      <c r="BR3" s="114"/>
-      <c r="BS3" s="114"/>
-      <c r="BT3" s="114"/>
-      <c r="BU3" s="114"/>
-      <c r="BV3" s="114"/>
-      <c r="BW3" s="114"/>
-      <c r="BX3" s="114"/>
-      <c r="BY3" s="114"/>
-      <c r="BZ3" s="114"/>
-      <c r="CA3" s="114"/>
-      <c r="CB3" s="114"/>
-      <c r="CC3" s="114"/>
-      <c r="CD3" s="114"/>
-      <c r="CE3" s="114"/>
-      <c r="CF3" s="114"/>
-      <c r="CG3" s="114"/>
-      <c r="CH3" s="114"/>
-      <c r="CI3" s="114"/>
-      <c r="CJ3" s="114"/>
-      <c r="CK3" s="114"/>
-      <c r="CL3" s="114"/>
-      <c r="CM3" s="114"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="131"/>
+      <c r="T3" s="131"/>
+      <c r="U3" s="131"/>
+      <c r="V3" s="131"/>
+      <c r="W3" s="131"/>
+      <c r="X3" s="131"/>
+      <c r="Y3" s="131"/>
+      <c r="Z3" s="131"/>
+      <c r="AA3" s="131"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="131"/>
+      <c r="AD3" s="131"/>
+      <c r="AE3" s="131"/>
+      <c r="AF3" s="131"/>
+      <c r="AG3" s="131"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="131"/>
+      <c r="AJ3" s="131"/>
+      <c r="AK3" s="131"/>
+      <c r="AL3" s="131"/>
+      <c r="AM3" s="131"/>
+      <c r="AN3" s="131"/>
+      <c r="AO3" s="131"/>
+      <c r="AP3" s="131"/>
+      <c r="AQ3" s="131"/>
+      <c r="AR3" s="131"/>
+      <c r="AS3" s="131"/>
+      <c r="AT3" s="131"/>
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="131"/>
+      <c r="AX3" s="131"/>
+      <c r="AY3" s="131"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="131"/>
+      <c r="BB3" s="131"/>
+      <c r="BC3" s="131"/>
+      <c r="BD3" s="131"/>
+      <c r="BE3" s="131"/>
+      <c r="BF3" s="131"/>
+      <c r="BG3" s="131"/>
+      <c r="BH3" s="131"/>
+      <c r="BI3" s="131"/>
+      <c r="BJ3" s="131"/>
+      <c r="BK3" s="131"/>
+      <c r="BL3" s="131"/>
+      <c r="BM3" s="131"/>
+      <c r="BN3" s="131"/>
+      <c r="BO3" s="131"/>
+      <c r="BP3" s="131"/>
+      <c r="BQ3" s="131"/>
+      <c r="BR3" s="131"/>
+      <c r="BS3" s="131"/>
+      <c r="BT3" s="131"/>
+      <c r="BU3" s="131"/>
+      <c r="BV3" s="131"/>
+      <c r="BW3" s="131"/>
+      <c r="BX3" s="131"/>
+      <c r="BY3" s="131"/>
+      <c r="BZ3" s="131"/>
+      <c r="CA3" s="131"/>
+      <c r="CB3" s="131"/>
+      <c r="CC3" s="131"/>
+      <c r="CD3" s="131"/>
+      <c r="CE3" s="131"/>
+      <c r="CF3" s="131"/>
+      <c r="CG3" s="131"/>
+      <c r="CH3" s="131"/>
+      <c r="CI3" s="131"/>
+      <c r="CJ3" s="131"/>
+      <c r="CK3" s="131"/>
+      <c r="CL3" s="131"/>
+      <c r="CM3" s="131"/>
     </row>
     <row r="4" spans="1:94" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="128" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2155,144 +2159,144 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="108">
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="124"/>
+      <c r="H4" s="125">
         <v>45796</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="106" t="s">
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="126"/>
+      <c r="L4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="107"/>
-      <c r="N4" s="107"/>
-      <c r="O4" s="107"/>
-      <c r="P4" s="108">
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="125">
         <v>45797</v>
       </c>
-      <c r="Q4" s="108"/>
-      <c r="R4" s="108"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="106" t="s">
+      <c r="Q4" s="125"/>
+      <c r="R4" s="125"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="108">
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="125">
         <v>45798</v>
       </c>
-      <c r="Y4" s="108"/>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="106" t="s">
+      <c r="Y4" s="125"/>
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="126"/>
+      <c r="AB4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="107"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="107"/>
-      <c r="AF4" s="107"/>
-      <c r="AG4" s="108">
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
+      <c r="AG4" s="125">
         <v>45799</v>
       </c>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="109"/>
-      <c r="AL4" s="106" t="s">
+      <c r="AH4" s="125"/>
+      <c r="AI4" s="125"/>
+      <c r="AJ4" s="125"/>
+      <c r="AK4" s="126"/>
+      <c r="AL4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="107"/>
-      <c r="AN4" s="108">
+      <c r="AM4" s="124"/>
+      <c r="AN4" s="125">
         <v>45800</v>
       </c>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="106" t="s">
+      <c r="AO4" s="125"/>
+      <c r="AP4" s="125"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="107"/>
-      <c r="AT4" s="107"/>
-      <c r="AU4" s="107"/>
-      <c r="AV4" s="108">
+      <c r="AS4" s="124"/>
+      <c r="AT4" s="124"/>
+      <c r="AU4" s="124"/>
+      <c r="AV4" s="125">
         <v>45803</v>
       </c>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="109"/>
-      <c r="AZ4" s="106" t="s">
+      <c r="AW4" s="125"/>
+      <c r="AX4" s="125"/>
+      <c r="AY4" s="126"/>
+      <c r="AZ4" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="107"/>
-      <c r="BB4" s="107"/>
-      <c r="BC4" s="107"/>
-      <c r="BD4" s="108">
+      <c r="BA4" s="124"/>
+      <c r="BB4" s="124"/>
+      <c r="BC4" s="124"/>
+      <c r="BD4" s="125">
         <v>45804</v>
       </c>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="108"/>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="106" t="s">
+      <c r="BE4" s="125"/>
+      <c r="BF4" s="125"/>
+      <c r="BG4" s="126"/>
+      <c r="BH4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="107"/>
-      <c r="BJ4" s="107"/>
-      <c r="BK4" s="107"/>
-      <c r="BL4" s="108">
+      <c r="BI4" s="124"/>
+      <c r="BJ4" s="124"/>
+      <c r="BK4" s="124"/>
+      <c r="BL4" s="125">
         <v>45805</v>
       </c>
-      <c r="BM4" s="108"/>
-      <c r="BN4" s="108"/>
-      <c r="BO4" s="109"/>
-      <c r="BP4" s="106" t="s">
+      <c r="BM4" s="125"/>
+      <c r="BN4" s="125"/>
+      <c r="BO4" s="126"/>
+      <c r="BP4" s="123" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="107"/>
-      <c r="BR4" s="107"/>
-      <c r="BS4" s="107"/>
-      <c r="BT4" s="108">
+      <c r="BQ4" s="124"/>
+      <c r="BR4" s="124"/>
+      <c r="BS4" s="124"/>
+      <c r="BT4" s="125">
         <v>45806</v>
       </c>
-      <c r="BU4" s="108"/>
-      <c r="BV4" s="108"/>
-      <c r="BW4" s="109"/>
-      <c r="BX4" s="106" t="s">
+      <c r="BU4" s="125"/>
+      <c r="BV4" s="125"/>
+      <c r="BW4" s="126"/>
+      <c r="BX4" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="107"/>
-      <c r="BZ4" s="107"/>
-      <c r="CA4" s="107"/>
-      <c r="CB4" s="108">
+      <c r="BY4" s="124"/>
+      <c r="BZ4" s="124"/>
+      <c r="CA4" s="124"/>
+      <c r="CB4" s="125">
         <v>45807</v>
       </c>
-      <c r="CC4" s="108"/>
-      <c r="CD4" s="108"/>
-      <c r="CE4" s="109"/>
-      <c r="CF4" s="106" t="s">
+      <c r="CC4" s="125"/>
+      <c r="CD4" s="125"/>
+      <c r="CE4" s="126"/>
+      <c r="CF4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="107"/>
-      <c r="CH4" s="107"/>
-      <c r="CI4" s="107"/>
-      <c r="CJ4" s="108">
+      <c r="CG4" s="124"/>
+      <c r="CH4" s="124"/>
+      <c r="CI4" s="124"/>
+      <c r="CJ4" s="125">
         <v>45810</v>
       </c>
-      <c r="CK4" s="108"/>
-      <c r="CL4" s="108"/>
-      <c r="CM4" s="109"/>
-      <c r="CN4" s="105" t="s">
+      <c r="CK4" s="125"/>
+      <c r="CL4" s="125"/>
+      <c r="CM4" s="126"/>
+      <c r="CN4" s="132" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="112"/>
+      <c r="A5" s="129"/>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2395,13 +2399,13 @@
       <c r="AI5" s="5">
         <v>8</v>
       </c>
-      <c r="AJ5" s="127">
+      <c r="AJ5" s="105">
         <v>9</v>
       </c>
       <c r="AK5" s="6">
         <v>10</v>
       </c>
-      <c r="AL5" s="127">
+      <c r="AL5" s="105">
         <v>1</v>
       </c>
       <c r="AM5" s="5">
@@ -2563,7 +2567,7 @@
       <c r="CM5" s="6">
         <v>8</v>
       </c>
-      <c r="CN5" s="105"/>
+      <c r="CN5" s="132"/>
     </row>
     <row r="6" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="85" t="s">
@@ -2603,9 +2607,9 @@
       <c r="AG6" s="87"/>
       <c r="AH6" s="87"/>
       <c r="AI6" s="87"/>
-      <c r="AJ6" s="128"/>
+      <c r="AJ6" s="106"/>
       <c r="AK6" s="88"/>
-      <c r="AL6" s="128"/>
+      <c r="AL6" s="106"/>
       <c r="AM6" s="87"/>
       <c r="AN6" s="87"/>
       <c r="AO6" s="87"/>
@@ -2635,16 +2639,16 @@
       <c r="BM6" s="87"/>
       <c r="BN6" s="87"/>
       <c r="BO6" s="88"/>
-      <c r="BP6" s="118" t="s">
+      <c r="BP6" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="BQ6" s="119"/>
-      <c r="BR6" s="119"/>
-      <c r="BS6" s="119"/>
-      <c r="BT6" s="119"/>
-      <c r="BU6" s="119"/>
-      <c r="BV6" s="119"/>
-      <c r="BW6" s="120"/>
+      <c r="BQ6" s="115"/>
+      <c r="BR6" s="115"/>
+      <c r="BS6" s="115"/>
+      <c r="BT6" s="115"/>
+      <c r="BU6" s="115"/>
+      <c r="BV6" s="115"/>
+      <c r="BW6" s="116"/>
       <c r="BX6" s="86"/>
       <c r="BY6" s="87"/>
       <c r="BZ6" s="87"/>
@@ -2661,7 +2665,7 @@
       <c r="CK6" s="87"/>
       <c r="CL6" s="87"/>
       <c r="CM6" s="88"/>
-      <c r="CN6" s="105"/>
+      <c r="CN6" s="132"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="84" t="s">
@@ -2709,9 +2713,9 @@
       <c r="AG7" s="91"/>
       <c r="AH7" s="91"/>
       <c r="AI7" s="91"/>
-      <c r="AJ7" s="129"/>
+      <c r="AJ7" s="107"/>
       <c r="AK7" s="92"/>
-      <c r="AL7" s="129"/>
+      <c r="AL7" s="107"/>
       <c r="AM7" s="91"/>
       <c r="AN7" s="91"/>
       <c r="AO7" s="91"/>
@@ -2741,14 +2745,14 @@
       <c r="BM7" s="91"/>
       <c r="BN7" s="91"/>
       <c r="BO7" s="92"/>
-      <c r="BP7" s="121"/>
-      <c r="BQ7" s="122"/>
-      <c r="BR7" s="122"/>
-      <c r="BS7" s="122"/>
-      <c r="BT7" s="122"/>
-      <c r="BU7" s="122"/>
-      <c r="BV7" s="122"/>
-      <c r="BW7" s="123"/>
+      <c r="BP7" s="117"/>
+      <c r="BQ7" s="118"/>
+      <c r="BR7" s="118"/>
+      <c r="BS7" s="118"/>
+      <c r="BT7" s="118"/>
+      <c r="BU7" s="118"/>
+      <c r="BV7" s="118"/>
+      <c r="BW7" s="119"/>
       <c r="BX7" s="93"/>
       <c r="BY7" s="91"/>
       <c r="BZ7" s="91"/>
@@ -2765,7 +2769,7 @@
       <c r="CK7" s="91"/>
       <c r="CL7" s="91"/>
       <c r="CM7" s="92"/>
-      <c r="CN7" s="105"/>
+      <c r="CN7" s="132"/>
       <c r="CP7" s="2" t="s">
         <v>33</v>
       </c>
@@ -2812,9 +2816,9 @@
       <c r="AG8" s="91"/>
       <c r="AH8" s="91"/>
       <c r="AI8" s="91"/>
-      <c r="AJ8" s="129"/>
+      <c r="AJ8" s="107"/>
       <c r="AK8" s="92"/>
-      <c r="AL8" s="129"/>
+      <c r="AL8" s="107"/>
       <c r="AM8" s="91"/>
       <c r="AN8" s="91"/>
       <c r="AO8" s="91"/>
@@ -2831,8 +2835,8 @@
       <c r="AZ8" s="93"/>
       <c r="BA8" s="91"/>
       <c r="BB8" s="91"/>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="90"/>
+      <c r="BC8" s="90"/>
+      <c r="BD8" s="133"/>
       <c r="BE8" s="91"/>
       <c r="BF8" s="91"/>
       <c r="BG8" s="92"/>
@@ -2844,14 +2848,14 @@
       <c r="BM8" s="91"/>
       <c r="BN8" s="91"/>
       <c r="BO8" s="92"/>
-      <c r="BP8" s="121"/>
-      <c r="BQ8" s="122"/>
-      <c r="BR8" s="122"/>
-      <c r="BS8" s="122"/>
-      <c r="BT8" s="122"/>
-      <c r="BU8" s="122"/>
-      <c r="BV8" s="122"/>
-      <c r="BW8" s="123"/>
+      <c r="BP8" s="117"/>
+      <c r="BQ8" s="118"/>
+      <c r="BR8" s="118"/>
+      <c r="BS8" s="118"/>
+      <c r="BT8" s="118"/>
+      <c r="BU8" s="118"/>
+      <c r="BV8" s="118"/>
+      <c r="BW8" s="119"/>
       <c r="BX8" s="93"/>
       <c r="BY8" s="91"/>
       <c r="BZ8" s="91"/>
@@ -2868,7 +2872,7 @@
       <c r="CK8" s="91"/>
       <c r="CL8" s="91"/>
       <c r="CM8" s="92"/>
-      <c r="CN8" s="105"/>
+      <c r="CN8" s="132"/>
       <c r="CP8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2921,11 +2925,11 @@
       <c r="AG9" s="91"/>
       <c r="AH9" s="91"/>
       <c r="AI9" s="91"/>
-      <c r="AJ9" s="129"/>
+      <c r="AJ9" s="107"/>
       <c r="AK9" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="AL9" s="129"/>
+      <c r="AL9" s="107"/>
       <c r="AM9" s="95" t="s">
         <v>32</v>
       </c>
@@ -2935,7 +2939,9 @@
       <c r="AQ9" s="92"/>
       <c r="AR9" s="93"/>
       <c r="AS9" s="91"/>
-      <c r="AT9" s="91"/>
+      <c r="AT9" s="91" t="s">
+        <v>32</v>
+      </c>
       <c r="AU9" s="91"/>
       <c r="AV9" s="91"/>
       <c r="AW9" s="91"/>
@@ -2957,14 +2963,14 @@
       <c r="BM9" s="91"/>
       <c r="BN9" s="91"/>
       <c r="BO9" s="92"/>
-      <c r="BP9" s="121"/>
-      <c r="BQ9" s="122"/>
-      <c r="BR9" s="122"/>
-      <c r="BS9" s="122"/>
-      <c r="BT9" s="122"/>
-      <c r="BU9" s="122"/>
-      <c r="BV9" s="122"/>
-      <c r="BW9" s="123"/>
+      <c r="BP9" s="117"/>
+      <c r="BQ9" s="118"/>
+      <c r="BR9" s="118"/>
+      <c r="BS9" s="118"/>
+      <c r="BT9" s="118"/>
+      <c r="BU9" s="118"/>
+      <c r="BV9" s="118"/>
+      <c r="BW9" s="119"/>
       <c r="BX9" s="93"/>
       <c r="BY9" s="91"/>
       <c r="BZ9" s="91"/>
@@ -2981,7 +2987,7 @@
       <c r="CK9" s="91"/>
       <c r="CL9" s="91"/>
       <c r="CM9" s="92"/>
-      <c r="CN9" s="105"/>
+      <c r="CN9" s="132"/>
     </row>
     <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
@@ -3053,14 +3059,14 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="12"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="121"/>
-      <c r="BQ10" s="122"/>
-      <c r="BR10" s="122"/>
-      <c r="BS10" s="122"/>
-      <c r="BT10" s="122"/>
-      <c r="BU10" s="122"/>
-      <c r="BV10" s="122"/>
-      <c r="BW10" s="123"/>
+      <c r="BP10" s="117"/>
+      <c r="BQ10" s="118"/>
+      <c r="BR10" s="118"/>
+      <c r="BS10" s="118"/>
+      <c r="BT10" s="118"/>
+      <c r="BU10" s="118"/>
+      <c r="BV10" s="118"/>
+      <c r="BW10" s="119"/>
       <c r="BX10" s="11"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -3077,7 +3083,7 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
       <c r="CM10" s="13"/>
-      <c r="CN10" s="105"/>
+      <c r="CN10" s="132"/>
     </row>
     <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
@@ -3153,14 +3159,14 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="8"/>
-      <c r="BP11" s="121"/>
-      <c r="BQ11" s="122"/>
-      <c r="BR11" s="122"/>
-      <c r="BS11" s="122"/>
-      <c r="BT11" s="122"/>
-      <c r="BU11" s="122"/>
-      <c r="BV11" s="122"/>
-      <c r="BW11" s="123"/>
+      <c r="BP11" s="117"/>
+      <c r="BQ11" s="118"/>
+      <c r="BR11" s="118"/>
+      <c r="BS11" s="118"/>
+      <c r="BT11" s="118"/>
+      <c r="BU11" s="118"/>
+      <c r="BV11" s="118"/>
+      <c r="BW11" s="119"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7"/>
@@ -3177,7 +3183,7 @@
       <c r="CK11" s="7"/>
       <c r="CL11" s="7"/>
       <c r="CM11" s="8"/>
-      <c r="CN11" s="105"/>
+      <c r="CN11" s="132"/>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -3253,14 +3259,14 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="12"/>
       <c r="BO12" s="13"/>
-      <c r="BP12" s="121"/>
-      <c r="BQ12" s="122"/>
-      <c r="BR12" s="122"/>
-      <c r="BS12" s="122"/>
-      <c r="BT12" s="122"/>
-      <c r="BU12" s="122"/>
-      <c r="BV12" s="122"/>
-      <c r="BW12" s="123"/>
+      <c r="BP12" s="117"/>
+      <c r="BQ12" s="118"/>
+      <c r="BR12" s="118"/>
+      <c r="BS12" s="118"/>
+      <c r="BT12" s="118"/>
+      <c r="BU12" s="118"/>
+      <c r="BV12" s="118"/>
+      <c r="BW12" s="119"/>
       <c r="BX12" s="11"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
@@ -3277,7 +3283,7 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
       <c r="CM12" s="13"/>
-      <c r="CN12" s="105"/>
+      <c r="CN12" s="132"/>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
@@ -3363,14 +3369,14 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="13"/>
-      <c r="BP13" s="121"/>
-      <c r="BQ13" s="122"/>
-      <c r="BR13" s="122"/>
-      <c r="BS13" s="122"/>
-      <c r="BT13" s="122"/>
-      <c r="BU13" s="122"/>
-      <c r="BV13" s="122"/>
-      <c r="BW13" s="123"/>
+      <c r="BP13" s="117"/>
+      <c r="BQ13" s="118"/>
+      <c r="BR13" s="118"/>
+      <c r="BS13" s="118"/>
+      <c r="BT13" s="118"/>
+      <c r="BU13" s="118"/>
+      <c r="BV13" s="118"/>
+      <c r="BW13" s="119"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
@@ -3387,7 +3393,7 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
       <c r="CM13" s="13"/>
-      <c r="CN13" s="105"/>
+      <c r="CN13" s="132"/>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
@@ -3465,14 +3471,14 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="12"/>
       <c r="BO14" s="13"/>
-      <c r="BP14" s="121"/>
-      <c r="BQ14" s="122"/>
-      <c r="BR14" s="122"/>
-      <c r="BS14" s="122"/>
-      <c r="BT14" s="122"/>
-      <c r="BU14" s="122"/>
-      <c r="BV14" s="122"/>
-      <c r="BW14" s="123"/>
+      <c r="BP14" s="117"/>
+      <c r="BQ14" s="118"/>
+      <c r="BR14" s="118"/>
+      <c r="BS14" s="118"/>
+      <c r="BT14" s="118"/>
+      <c r="BU14" s="118"/>
+      <c r="BV14" s="118"/>
+      <c r="BW14" s="119"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
@@ -3489,7 +3495,7 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
       <c r="CM14" s="13"/>
-      <c r="CN14" s="105"/>
+      <c r="CN14" s="132"/>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
@@ -3561,14 +3567,14 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="12"/>
       <c r="BO15" s="13"/>
-      <c r="BP15" s="121"/>
-      <c r="BQ15" s="122"/>
-      <c r="BR15" s="122"/>
-      <c r="BS15" s="122"/>
-      <c r="BT15" s="122"/>
-      <c r="BU15" s="122"/>
-      <c r="BV15" s="122"/>
-      <c r="BW15" s="123"/>
+      <c r="BP15" s="117"/>
+      <c r="BQ15" s="118"/>
+      <c r="BR15" s="118"/>
+      <c r="BS15" s="118"/>
+      <c r="BT15" s="118"/>
+      <c r="BU15" s="118"/>
+      <c r="BV15" s="118"/>
+      <c r="BW15" s="119"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
@@ -3585,7 +3591,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
       <c r="CM15" s="13"/>
-      <c r="CN15" s="105"/>
+      <c r="CN15" s="132"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3663,14 +3669,14 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="12"/>
       <c r="BO16" s="13"/>
-      <c r="BP16" s="121"/>
-      <c r="BQ16" s="122"/>
-      <c r="BR16" s="122"/>
-      <c r="BS16" s="122"/>
-      <c r="BT16" s="122"/>
-      <c r="BU16" s="122"/>
-      <c r="BV16" s="122"/>
-      <c r="BW16" s="123"/>
+      <c r="BP16" s="117"/>
+      <c r="BQ16" s="118"/>
+      <c r="BR16" s="118"/>
+      <c r="BS16" s="118"/>
+      <c r="BT16" s="118"/>
+      <c r="BU16" s="118"/>
+      <c r="BV16" s="118"/>
+      <c r="BW16" s="119"/>
       <c r="BX16" s="11"/>
       <c r="BY16" s="12"/>
       <c r="BZ16" s="12"/>
@@ -3687,7 +3693,7 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
       <c r="CM16" s="13"/>
-      <c r="CN16" s="105"/>
+      <c r="CN16" s="132"/>
     </row>
     <row r="17" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
@@ -3767,14 +3773,14 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="13"/>
-      <c r="BP17" s="121"/>
-      <c r="BQ17" s="122"/>
-      <c r="BR17" s="122"/>
-      <c r="BS17" s="122"/>
-      <c r="BT17" s="122"/>
-      <c r="BU17" s="122"/>
-      <c r="BV17" s="122"/>
-      <c r="BW17" s="123"/>
+      <c r="BP17" s="117"/>
+      <c r="BQ17" s="118"/>
+      <c r="BR17" s="118"/>
+      <c r="BS17" s="118"/>
+      <c r="BT17" s="118"/>
+      <c r="BU17" s="118"/>
+      <c r="BV17" s="118"/>
+      <c r="BW17" s="119"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
@@ -3791,7 +3797,7 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="13"/>
-      <c r="CN17" s="105"/>
+      <c r="CN17" s="132"/>
     </row>
     <row r="18" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
@@ -3863,14 +3869,14 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
       <c r="BO18" s="13"/>
-      <c r="BP18" s="121"/>
-      <c r="BQ18" s="122"/>
-      <c r="BR18" s="122"/>
-      <c r="BS18" s="122"/>
-      <c r="BT18" s="122"/>
-      <c r="BU18" s="122"/>
-      <c r="BV18" s="122"/>
-      <c r="BW18" s="123"/>
+      <c r="BP18" s="117"/>
+      <c r="BQ18" s="118"/>
+      <c r="BR18" s="118"/>
+      <c r="BS18" s="118"/>
+      <c r="BT18" s="118"/>
+      <c r="BU18" s="118"/>
+      <c r="BV18" s="118"/>
+      <c r="BW18" s="119"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
@@ -3887,7 +3893,7 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="13"/>
-      <c r="CN18" s="105"/>
+      <c r="CN18" s="132"/>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
@@ -3965,14 +3971,14 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="12"/>
       <c r="BO19" s="13"/>
-      <c r="BP19" s="121"/>
-      <c r="BQ19" s="122"/>
-      <c r="BR19" s="122"/>
-      <c r="BS19" s="122"/>
-      <c r="BT19" s="122"/>
-      <c r="BU19" s="122"/>
-      <c r="BV19" s="122"/>
-      <c r="BW19" s="123"/>
+      <c r="BP19" s="117"/>
+      <c r="BQ19" s="118"/>
+      <c r="BR19" s="118"/>
+      <c r="BS19" s="118"/>
+      <c r="BT19" s="118"/>
+      <c r="BU19" s="118"/>
+      <c r="BV19" s="118"/>
+      <c r="BW19" s="119"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
@@ -3989,7 +3995,7 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="13"/>
-      <c r="CN19" s="105"/>
+      <c r="CN19" s="132"/>
     </row>
     <row r="20" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
@@ -4075,14 +4081,14 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="12"/>
       <c r="BO20" s="13"/>
-      <c r="BP20" s="121"/>
-      <c r="BQ20" s="122"/>
-      <c r="BR20" s="122"/>
-      <c r="BS20" s="122"/>
-      <c r="BT20" s="122"/>
-      <c r="BU20" s="122"/>
-      <c r="BV20" s="122"/>
-      <c r="BW20" s="123"/>
+      <c r="BP20" s="117"/>
+      <c r="BQ20" s="118"/>
+      <c r="BR20" s="118"/>
+      <c r="BS20" s="118"/>
+      <c r="BT20" s="118"/>
+      <c r="BU20" s="118"/>
+      <c r="BV20" s="118"/>
+      <c r="BW20" s="119"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
@@ -4099,7 +4105,7 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
       <c r="CM20" s="13"/>
-      <c r="CN20" s="105"/>
+      <c r="CN20" s="132"/>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
@@ -4181,14 +4187,14 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="12"/>
       <c r="BO21" s="13"/>
-      <c r="BP21" s="121"/>
-      <c r="BQ21" s="122"/>
-      <c r="BR21" s="122"/>
-      <c r="BS21" s="122"/>
-      <c r="BT21" s="122"/>
-      <c r="BU21" s="122"/>
-      <c r="BV21" s="122"/>
-      <c r="BW21" s="123"/>
+      <c r="BP21" s="117"/>
+      <c r="BQ21" s="118"/>
+      <c r="BR21" s="118"/>
+      <c r="BS21" s="118"/>
+      <c r="BT21" s="118"/>
+      <c r="BU21" s="118"/>
+      <c r="BV21" s="118"/>
+      <c r="BW21" s="119"/>
       <c r="BX21" s="11"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
@@ -4205,7 +4211,7 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
       <c r="CM21" s="13"/>
-      <c r="CN21" s="105"/>
+      <c r="CN21" s="132"/>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
@@ -4258,10 +4264,10 @@
       <c r="AL22" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="AM22" s="131" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN22" s="131" t="s">
+      <c r="AM22" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN22" s="109" t="s">
         <v>32</v>
       </c>
       <c r="AO22" s="100" t="s">
@@ -4293,14 +4299,14 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="12"/>
       <c r="BO22" s="13"/>
-      <c r="BP22" s="121"/>
-      <c r="BQ22" s="122"/>
-      <c r="BR22" s="122"/>
-      <c r="BS22" s="122"/>
-      <c r="BT22" s="122"/>
-      <c r="BU22" s="122"/>
-      <c r="BV22" s="122"/>
-      <c r="BW22" s="123"/>
+      <c r="BP22" s="117"/>
+      <c r="BQ22" s="118"/>
+      <c r="BR22" s="118"/>
+      <c r="BS22" s="118"/>
+      <c r="BT22" s="118"/>
+      <c r="BU22" s="118"/>
+      <c r="BV22" s="118"/>
+      <c r="BW22" s="119"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
@@ -4317,7 +4323,7 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
       <c r="CM22" s="13"/>
-      <c r="CN22" s="105"/>
+      <c r="CN22" s="132"/>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
@@ -4371,10 +4377,18 @@
       <c r="AQ23" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
+      <c r="AR23" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS23" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="AT23" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU23" s="58" t="s">
+        <v>32</v>
+      </c>
       <c r="AV23" s="25"/>
       <c r="AW23" s="25"/>
       <c r="AX23" s="25"/>
@@ -4395,14 +4409,14 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12"/>
       <c r="BO23" s="13"/>
-      <c r="BP23" s="121"/>
-      <c r="BQ23" s="122"/>
-      <c r="BR23" s="122"/>
-      <c r="BS23" s="122"/>
-      <c r="BT23" s="122"/>
-      <c r="BU23" s="122"/>
-      <c r="BV23" s="122"/>
-      <c r="BW23" s="123"/>
+      <c r="BP23" s="117"/>
+      <c r="BQ23" s="118"/>
+      <c r="BR23" s="118"/>
+      <c r="BS23" s="118"/>
+      <c r="BT23" s="118"/>
+      <c r="BU23" s="118"/>
+      <c r="BV23" s="118"/>
+      <c r="BW23" s="119"/>
       <c r="BX23" s="11"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
@@ -4419,13 +4433,15 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
       <c r="CM23" s="13"/>
-      <c r="CN23" s="105"/>
+      <c r="CN23" s="132"/>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="15"/>
+      <c r="B24" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
@@ -4470,11 +4486,21 @@
       <c r="AR24" s="26"/>
       <c r="AS24" s="25"/>
       <c r="AT24" s="25"/>
-      <c r="AU24" s="25"/>
-      <c r="AV24" s="58"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="58"/>
-      <c r="AY24" s="59"/>
+      <c r="AU24" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV24" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW24" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="AX24" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY24" s="59" t="s">
+        <v>32</v>
+      </c>
       <c r="AZ24" s="60"/>
       <c r="BA24" s="54"/>
       <c r="BB24" s="12"/>
@@ -4491,14 +4517,14 @@
       <c r="BM24" s="12"/>
       <c r="BN24" s="12"/>
       <c r="BO24" s="13"/>
-      <c r="BP24" s="121"/>
-      <c r="BQ24" s="122"/>
-      <c r="BR24" s="122"/>
-      <c r="BS24" s="122"/>
-      <c r="BT24" s="122"/>
-      <c r="BU24" s="122"/>
-      <c r="BV24" s="122"/>
-      <c r="BW24" s="123"/>
+      <c r="BP24" s="117"/>
+      <c r="BQ24" s="118"/>
+      <c r="BR24" s="118"/>
+      <c r="BS24" s="118"/>
+      <c r="BT24" s="118"/>
+      <c r="BU24" s="118"/>
+      <c r="BV24" s="118"/>
+      <c r="BW24" s="119"/>
       <c r="BX24" s="11"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
@@ -4515,7 +4541,7 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
       <c r="CM24" s="13"/>
-      <c r="CN24" s="105"/>
+      <c r="CN24" s="132"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
@@ -4587,14 +4613,14 @@
       <c r="BM25" s="12"/>
       <c r="BN25" s="12"/>
       <c r="BO25" s="13"/>
-      <c r="BP25" s="121"/>
-      <c r="BQ25" s="122"/>
-      <c r="BR25" s="122"/>
-      <c r="BS25" s="122"/>
-      <c r="BT25" s="122"/>
-      <c r="BU25" s="122"/>
-      <c r="BV25" s="122"/>
-      <c r="BW25" s="123"/>
+      <c r="BP25" s="117"/>
+      <c r="BQ25" s="118"/>
+      <c r="BR25" s="118"/>
+      <c r="BS25" s="118"/>
+      <c r="BT25" s="118"/>
+      <c r="BU25" s="118"/>
+      <c r="BV25" s="118"/>
+      <c r="BW25" s="119"/>
       <c r="BX25" s="11"/>
       <c r="BY25" s="12"/>
       <c r="BZ25" s="12"/>
@@ -4611,7 +4637,7 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
       <c r="CM25" s="13"/>
-      <c r="CN25" s="105"/>
+      <c r="CN25" s="132"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
@@ -4683,14 +4709,14 @@
       <c r="BM26" s="54"/>
       <c r="BN26" s="12"/>
       <c r="BO26" s="13"/>
-      <c r="BP26" s="121"/>
-      <c r="BQ26" s="122"/>
-      <c r="BR26" s="122"/>
-      <c r="BS26" s="122"/>
-      <c r="BT26" s="122"/>
-      <c r="BU26" s="122"/>
-      <c r="BV26" s="122"/>
-      <c r="BW26" s="123"/>
+      <c r="BP26" s="117"/>
+      <c r="BQ26" s="118"/>
+      <c r="BR26" s="118"/>
+      <c r="BS26" s="118"/>
+      <c r="BT26" s="118"/>
+      <c r="BU26" s="118"/>
+      <c r="BV26" s="118"/>
+      <c r="BW26" s="119"/>
       <c r="BX26" s="11"/>
       <c r="BY26" s="12"/>
       <c r="BZ26" s="12"/>
@@ -4707,7 +4733,7 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
       <c r="CM26" s="13"/>
-      <c r="CN26" s="105"/>
+      <c r="CN26" s="132"/>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
@@ -4779,14 +4805,14 @@
       <c r="BM27" s="12"/>
       <c r="BN27" s="12"/>
       <c r="BO27" s="13"/>
-      <c r="BP27" s="121"/>
-      <c r="BQ27" s="122"/>
-      <c r="BR27" s="122"/>
-      <c r="BS27" s="122"/>
-      <c r="BT27" s="122"/>
-      <c r="BU27" s="122"/>
-      <c r="BV27" s="122"/>
-      <c r="BW27" s="123"/>
+      <c r="BP27" s="117"/>
+      <c r="BQ27" s="118"/>
+      <c r="BR27" s="118"/>
+      <c r="BS27" s="118"/>
+      <c r="BT27" s="118"/>
+      <c r="BU27" s="118"/>
+      <c r="BV27" s="118"/>
+      <c r="BW27" s="119"/>
       <c r="BX27" s="11"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
@@ -4803,7 +4829,7 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
       <c r="CM27" s="13"/>
-      <c r="CN27" s="105"/>
+      <c r="CN27" s="132"/>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
@@ -4859,10 +4885,10 @@
       <c r="AK28" s="13"/>
       <c r="AL28" s="24"/>
       <c r="AM28" s="12"/>
-      <c r="AN28" s="132" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO28" s="132" t="s">
+      <c r="AN28" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO28" s="110" t="s">
         <v>32</v>
       </c>
       <c r="AP28" s="12"/>
@@ -4891,14 +4917,14 @@
       <c r="BM28" s="62"/>
       <c r="BN28" s="62"/>
       <c r="BO28" s="99"/>
-      <c r="BP28" s="121"/>
-      <c r="BQ28" s="122"/>
-      <c r="BR28" s="122"/>
-      <c r="BS28" s="122"/>
-      <c r="BT28" s="122"/>
-      <c r="BU28" s="122"/>
-      <c r="BV28" s="122"/>
-      <c r="BW28" s="123"/>
+      <c r="BP28" s="117"/>
+      <c r="BQ28" s="118"/>
+      <c r="BR28" s="118"/>
+      <c r="BS28" s="118"/>
+      <c r="BT28" s="118"/>
+      <c r="BU28" s="118"/>
+      <c r="BV28" s="118"/>
+      <c r="BW28" s="119"/>
       <c r="BX28" s="11"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
@@ -4915,7 +4941,7 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
       <c r="CM28" s="13"/>
-      <c r="CN28" s="105"/>
+      <c r="CN28" s="132"/>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
@@ -4987,14 +5013,14 @@
       <c r="BM29" s="66"/>
       <c r="BN29" s="66"/>
       <c r="BO29" s="67"/>
-      <c r="BP29" s="121"/>
-      <c r="BQ29" s="122"/>
-      <c r="BR29" s="122"/>
-      <c r="BS29" s="122"/>
-      <c r="BT29" s="122"/>
-      <c r="BU29" s="122"/>
-      <c r="BV29" s="122"/>
-      <c r="BW29" s="123"/>
+      <c r="BP29" s="117"/>
+      <c r="BQ29" s="118"/>
+      <c r="BR29" s="118"/>
+      <c r="BS29" s="118"/>
+      <c r="BT29" s="118"/>
+      <c r="BU29" s="118"/>
+      <c r="BV29" s="118"/>
+      <c r="BW29" s="119"/>
       <c r="BX29" s="83"/>
       <c r="BY29" s="73"/>
       <c r="BZ29" s="73"/>
@@ -5011,7 +5037,7 @@
       <c r="CK29" s="66"/>
       <c r="CL29" s="66"/>
       <c r="CM29" s="67"/>
-      <c r="CN29" s="105"/>
+      <c r="CN29" s="132"/>
     </row>
     <row r="30" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
@@ -5066,7 +5092,7 @@
       <c r="AH30" s="30"/>
       <c r="AI30" s="30"/>
       <c r="AJ30" s="82"/>
-      <c r="AK30" s="130"/>
+      <c r="AK30" s="108"/>
       <c r="AL30" s="82"/>
       <c r="AM30" s="79"/>
       <c r="AN30" s="79"/>
@@ -5101,14 +5127,14 @@
       <c r="BM30" s="79"/>
       <c r="BN30" s="30"/>
       <c r="BO30" s="31"/>
-      <c r="BP30" s="124"/>
-      <c r="BQ30" s="125"/>
-      <c r="BR30" s="125"/>
-      <c r="BS30" s="125"/>
-      <c r="BT30" s="125"/>
-      <c r="BU30" s="125"/>
-      <c r="BV30" s="125"/>
-      <c r="BW30" s="126"/>
+      <c r="BP30" s="120"/>
+      <c r="BQ30" s="121"/>
+      <c r="BR30" s="121"/>
+      <c r="BS30" s="121"/>
+      <c r="BT30" s="121"/>
+      <c r="BU30" s="121"/>
+      <c r="BV30" s="121"/>
+      <c r="BW30" s="122"/>
       <c r="BX30" s="78"/>
       <c r="BY30" s="79"/>
       <c r="BZ30" s="79"/>
@@ -5125,120 +5151,105 @@
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
       <c r="CM30" s="31"/>
-      <c r="CN30" s="105"/>
+      <c r="CN30" s="132"/>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="110"/>
-      <c r="O31" s="110"/>
-      <c r="P31" s="110"/>
-      <c r="Q31" s="110"/>
-      <c r="R31" s="110"/>
-      <c r="S31" s="110"/>
-      <c r="T31" s="110"/>
-      <c r="U31" s="110"/>
-      <c r="V31" s="110"/>
-      <c r="W31" s="110"/>
-      <c r="X31" s="110"/>
-      <c r="Y31" s="110"/>
-      <c r="Z31" s="110"/>
-      <c r="AA31" s="110"/>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="110"/>
-      <c r="AE31" s="110"/>
-      <c r="AF31" s="110"/>
-      <c r="AG31" s="110"/>
-      <c r="AH31" s="110"/>
-      <c r="AI31" s="110"/>
-      <c r="AJ31" s="110"/>
-      <c r="AK31" s="110"/>
-      <c r="AL31" s="110"/>
-      <c r="AM31" s="110"/>
-      <c r="AN31" s="110"/>
-      <c r="AO31" s="110"/>
-      <c r="AP31" s="110"/>
-      <c r="AQ31" s="110"/>
-      <c r="AR31" s="110"/>
-      <c r="AS31" s="110"/>
-      <c r="AT31" s="110"/>
-      <c r="AU31" s="110"/>
-      <c r="AV31" s="110"/>
-      <c r="AW31" s="110"/>
-      <c r="AX31" s="110"/>
-      <c r="AY31" s="110"/>
-      <c r="AZ31" s="110"/>
-      <c r="BA31" s="110"/>
-      <c r="BB31" s="110"/>
-      <c r="BC31" s="110"/>
-      <c r="BD31" s="110"/>
-      <c r="BE31" s="110"/>
-      <c r="BF31" s="110"/>
-      <c r="BG31" s="110"/>
-      <c r="BH31" s="110"/>
-      <c r="BI31" s="110"/>
-      <c r="BJ31" s="110"/>
-      <c r="BK31" s="110"/>
-      <c r="BL31" s="110"/>
-      <c r="BM31" s="110"/>
-      <c r="BN31" s="110"/>
-      <c r="BO31" s="110"/>
-      <c r="BP31" s="110"/>
-      <c r="BQ31" s="110"/>
-      <c r="BR31" s="110"/>
-      <c r="BS31" s="110"/>
-      <c r="BT31" s="110"/>
-      <c r="BU31" s="110"/>
-      <c r="BV31" s="110"/>
-      <c r="BW31" s="110"/>
-      <c r="BX31" s="110"/>
-      <c r="BY31" s="110"/>
-      <c r="BZ31" s="110"/>
-      <c r="CA31" s="110"/>
-      <c r="CB31" s="110"/>
-      <c r="CC31" s="110"/>
-      <c r="CD31" s="110"/>
-      <c r="CE31" s="110"/>
-      <c r="CF31" s="110"/>
-      <c r="CG31" s="110"/>
-      <c r="CH31" s="110"/>
-      <c r="CI31" s="110"/>
-      <c r="CJ31" s="110"/>
-      <c r="CK31" s="110"/>
-      <c r="CL31" s="110"/>
-      <c r="CM31" s="110"/>
+      <c r="B31" s="127"/>
+      <c r="C31" s="127"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="127"/>
+      <c r="O31" s="127"/>
+      <c r="P31" s="127"/>
+      <c r="Q31" s="127"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="127"/>
+      <c r="U31" s="127"/>
+      <c r="V31" s="127"/>
+      <c r="W31" s="127"/>
+      <c r="X31" s="127"/>
+      <c r="Y31" s="127"/>
+      <c r="Z31" s="127"/>
+      <c r="AA31" s="127"/>
+      <c r="AB31" s="127"/>
+      <c r="AC31" s="127"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="127"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="127"/>
+      <c r="AH31" s="127"/>
+      <c r="AI31" s="127"/>
+      <c r="AJ31" s="127"/>
+      <c r="AK31" s="127"/>
+      <c r="AL31" s="127"/>
+      <c r="AM31" s="127"/>
+      <c r="AN31" s="127"/>
+      <c r="AO31" s="127"/>
+      <c r="AP31" s="127"/>
+      <c r="AQ31" s="127"/>
+      <c r="AR31" s="127"/>
+      <c r="AS31" s="127"/>
+      <c r="AT31" s="127"/>
+      <c r="AU31" s="127"/>
+      <c r="AV31" s="127"/>
+      <c r="AW31" s="127"/>
+      <c r="AX31" s="127"/>
+      <c r="AY31" s="127"/>
+      <c r="AZ31" s="127"/>
+      <c r="BA31" s="127"/>
+      <c r="BB31" s="127"/>
+      <c r="BC31" s="127"/>
+      <c r="BD31" s="127"/>
+      <c r="BE31" s="127"/>
+      <c r="BF31" s="127"/>
+      <c r="BG31" s="127"/>
+      <c r="BH31" s="127"/>
+      <c r="BI31" s="127"/>
+      <c r="BJ31" s="127"/>
+      <c r="BK31" s="127"/>
+      <c r="BL31" s="127"/>
+      <c r="BM31" s="127"/>
+      <c r="BN31" s="127"/>
+      <c r="BO31" s="127"/>
+      <c r="BP31" s="127"/>
+      <c r="BQ31" s="127"/>
+      <c r="BR31" s="127"/>
+      <c r="BS31" s="127"/>
+      <c r="BT31" s="127"/>
+      <c r="BU31" s="127"/>
+      <c r="BV31" s="127"/>
+      <c r="BW31" s="127"/>
+      <c r="BX31" s="127"/>
+      <c r="BY31" s="127"/>
+      <c r="BZ31" s="127"/>
+      <c r="CA31" s="127"/>
+      <c r="CB31" s="127"/>
+      <c r="CC31" s="127"/>
+      <c r="CD31" s="127"/>
+      <c r="CE31" s="127"/>
+      <c r="CF31" s="127"/>
+      <c r="CG31" s="127"/>
+      <c r="CH31" s="127"/>
+      <c r="CI31" s="127"/>
+      <c r="CJ31" s="127"/>
+      <c r="CK31" s="127"/>
+      <c r="CL31" s="127"/>
+      <c r="CM31" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="BP6:BW30"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="A31:CM31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:CM3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="CN4:CN30"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="CB4:CE4"/>
@@ -5255,6 +5266,21 @@
     <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A31:CM31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:CM3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="BP6:BW30"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B30">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">

--- a/docs/PHAM_Planning_2025_.xlsx
+++ b/docs/PHAM_Planning_2025_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="682" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0675F083-202D-4CD9-9FA2-E55871A642D5}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{231F269E-B568-4626-9C2E-DFDB0B457A09}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="44">
   <si>
     <t>Tâches</t>
   </si>
@@ -138,9 +138,6 @@
     <t>Pham Esther</t>
   </si>
   <si>
-    <t>Réalisation des tests fonctionnels de l'application</t>
-  </si>
-  <si>
     <t>Plannification</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Création des pages d'affichage des articles</t>
+  </si>
+  <si>
+    <t>Réalisation des tests fonctionnels de l'application ACHANGER</t>
   </si>
 </sst>
 </file>
@@ -364,7 +364,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -875,17 +875,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -903,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1191,10 +1180,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1308,7 +1293,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1328,6 +1313,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1374,50 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1487,13 +1468,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>19837</xdr:colOff>
+      <xdr:colOff>19836</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
@@ -1510,8 +1491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4848598" y="662609"/>
-          <a:ext cx="7409663" cy="4472608"/>
+          <a:off x="4848597" y="662609"/>
+          <a:ext cx="8519533" cy="4472608"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1927,10 +1908,10 @@
   <dimension ref="A1:CP31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="5" topLeftCell="AF6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BA17" sqref="BA17"/>
+      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1950,207 +1931,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
     </row>
     <row r="2" spans="1:94" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="112">
+      <c r="B2" s="121">
         <v>151481</v>
       </c>
-      <c r="C2" s="113"/>
-      <c r="D2" s="130" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
-      <c r="J2" s="130"/>
-      <c r="K2" s="130"/>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="R2" s="130"/>
-      <c r="S2" s="130"/>
-      <c r="T2" s="130"/>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="130"/>
-      <c r="AG2" s="130"/>
-      <c r="AH2" s="130"/>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="130"/>
-      <c r="AO2" s="130"/>
-      <c r="AP2" s="130"/>
-      <c r="AQ2" s="130"/>
-      <c r="AR2" s="130" t="s">
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="118"/>
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="130"/>
-      <c r="AT2" s="130"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="130"/>
-      <c r="AW2" s="130"/>
-      <c r="AX2" s="130"/>
-      <c r="AY2" s="130"/>
-      <c r="AZ2" s="130"/>
-      <c r="BA2" s="130"/>
-      <c r="BB2" s="130"/>
-      <c r="BC2" s="130"/>
-      <c r="BD2" s="130"/>
-      <c r="BE2" s="130"/>
-      <c r="BF2" s="130"/>
-      <c r="BG2" s="130"/>
-      <c r="BH2" s="130"/>
-      <c r="BI2" s="130"/>
-      <c r="BJ2" s="130"/>
-      <c r="BK2" s="130"/>
-      <c r="BL2" s="130"/>
-      <c r="BM2" s="130"/>
-      <c r="BN2" s="130"/>
-      <c r="BO2" s="130"/>
-      <c r="BP2" s="130"/>
-      <c r="BQ2" s="130"/>
-      <c r="BR2" s="130"/>
-      <c r="BS2" s="130"/>
-      <c r="BT2" s="130"/>
-      <c r="BU2" s="130"/>
-      <c r="BV2" s="130"/>
-      <c r="BW2" s="130"/>
-      <c r="BX2" s="130"/>
-      <c r="BY2" s="130"/>
-      <c r="BZ2" s="130"/>
-      <c r="CA2" s="130"/>
-      <c r="CB2" s="130"/>
-      <c r="CC2" s="130"/>
-      <c r="CD2" s="130"/>
-      <c r="CE2" s="130"/>
-      <c r="CF2" s="130" t="s">
+      <c r="AS2" s="118"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="118"/>
+      <c r="AX2" s="118"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="118"/>
+      <c r="BD2" s="118"/>
+      <c r="BE2" s="118"/>
+      <c r="BF2" s="118"/>
+      <c r="BG2" s="118"/>
+      <c r="BH2" s="118"/>
+      <c r="BI2" s="118"/>
+      <c r="BJ2" s="118"/>
+      <c r="BK2" s="118"/>
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="118"/>
+      <c r="BN2" s="118"/>
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="118"/>
+      <c r="BQ2" s="118"/>
+      <c r="BR2" s="118"/>
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="118"/>
+      <c r="BU2" s="118"/>
+      <c r="BV2" s="118"/>
+      <c r="BW2" s="118"/>
+      <c r="BX2" s="118"/>
+      <c r="BY2" s="118"/>
+      <c r="BZ2" s="118"/>
+      <c r="CA2" s="118"/>
+      <c r="CB2" s="118"/>
+      <c r="CC2" s="118"/>
+      <c r="CD2" s="118"/>
+      <c r="CE2" s="118"/>
+      <c r="CF2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="130"/>
-      <c r="CH2" s="130"/>
-      <c r="CI2" s="130"/>
-      <c r="CJ2" s="130"/>
-      <c r="CK2" s="130"/>
-      <c r="CL2" s="130"/>
-      <c r="CM2" s="130"/>
+      <c r="CG2" s="118"/>
+      <c r="CH2" s="118"/>
+      <c r="CI2" s="118"/>
+      <c r="CJ2" s="118"/>
+      <c r="CK2" s="118"/>
+      <c r="CL2" s="118"/>
+      <c r="CM2" s="118"/>
     </row>
     <row r="3" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="131"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="131"/>
-      <c r="T3" s="131"/>
-      <c r="U3" s="131"/>
-      <c r="V3" s="131"/>
-      <c r="W3" s="131"/>
-      <c r="X3" s="131"/>
-      <c r="Y3" s="131"/>
-      <c r="Z3" s="131"/>
-      <c r="AA3" s="131"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="131"/>
-      <c r="AD3" s="131"/>
-      <c r="AE3" s="131"/>
-      <c r="AF3" s="131"/>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="131"/>
-      <c r="AJ3" s="131"/>
-      <c r="AK3" s="131"/>
-      <c r="AL3" s="131"/>
-      <c r="AM3" s="131"/>
-      <c r="AN3" s="131"/>
-      <c r="AO3" s="131"/>
-      <c r="AP3" s="131"/>
-      <c r="AQ3" s="131"/>
-      <c r="AR3" s="131"/>
-      <c r="AS3" s="131"/>
-      <c r="AT3" s="131"/>
-      <c r="AU3" s="131"/>
-      <c r="AV3" s="131"/>
-      <c r="AW3" s="131"/>
-      <c r="AX3" s="131"/>
-      <c r="AY3" s="131"/>
-      <c r="AZ3" s="131"/>
-      <c r="BA3" s="131"/>
-      <c r="BB3" s="131"/>
-      <c r="BC3" s="131"/>
-      <c r="BD3" s="131"/>
-      <c r="BE3" s="131"/>
-      <c r="BF3" s="131"/>
-      <c r="BG3" s="131"/>
-      <c r="BH3" s="131"/>
-      <c r="BI3" s="131"/>
-      <c r="BJ3" s="131"/>
-      <c r="BK3" s="131"/>
-      <c r="BL3" s="131"/>
-      <c r="BM3" s="131"/>
-      <c r="BN3" s="131"/>
-      <c r="BO3" s="131"/>
-      <c r="BP3" s="131"/>
-      <c r="BQ3" s="131"/>
-      <c r="BR3" s="131"/>
-      <c r="BS3" s="131"/>
-      <c r="BT3" s="131"/>
-      <c r="BU3" s="131"/>
-      <c r="BV3" s="131"/>
-      <c r="BW3" s="131"/>
-      <c r="BX3" s="131"/>
-      <c r="BY3" s="131"/>
-      <c r="BZ3" s="131"/>
-      <c r="CA3" s="131"/>
-      <c r="CB3" s="131"/>
-      <c r="CC3" s="131"/>
-      <c r="CD3" s="131"/>
-      <c r="CE3" s="131"/>
-      <c r="CF3" s="131"/>
-      <c r="CG3" s="131"/>
-      <c r="CH3" s="131"/>
-      <c r="CI3" s="131"/>
-      <c r="CJ3" s="131"/>
-      <c r="CK3" s="131"/>
-      <c r="CL3" s="131"/>
-      <c r="CM3" s="131"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="119"/>
+      <c r="BD3" s="119"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="119"/>
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="119"/>
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="119"/>
+      <c r="BO3" s="119"/>
+      <c r="BP3" s="119"/>
+      <c r="BQ3" s="119"/>
+      <c r="BR3" s="119"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="119"/>
+      <c r="BU3" s="119"/>
+      <c r="BV3" s="119"/>
+      <c r="BW3" s="119"/>
+      <c r="BX3" s="119"/>
+      <c r="BY3" s="119"/>
+      <c r="BZ3" s="119"/>
+      <c r="CA3" s="119"/>
+      <c r="CB3" s="119"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="119"/>
+      <c r="CF3" s="119"/>
+      <c r="CG3" s="119"/>
+      <c r="CH3" s="119"/>
+      <c r="CI3" s="119"/>
+      <c r="CJ3" s="119"/>
+      <c r="CK3" s="119"/>
+      <c r="CL3" s="119"/>
+      <c r="CM3" s="119"/>
     </row>
     <row r="4" spans="1:94" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2159,144 +2140,144 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="125">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="113">
         <v>45796</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="123" t="s">
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
-      <c r="O4" s="124"/>
-      <c r="P4" s="125">
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="113">
         <v>45797</v>
       </c>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="123" t="s">
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="124"/>
-      <c r="V4" s="124"/>
-      <c r="W4" s="124"/>
-      <c r="X4" s="125">
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="113">
         <v>45798</v>
       </c>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="123" t="s">
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="124"/>
-      <c r="AD4" s="124"/>
-      <c r="AE4" s="124"/>
-      <c r="AF4" s="124"/>
-      <c r="AG4" s="125">
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="113">
         <v>45799</v>
       </c>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="125"/>
-      <c r="AJ4" s="125"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="123" t="s">
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="125">
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="113">
         <v>45800</v>
       </c>
-      <c r="AO4" s="125"/>
-      <c r="AP4" s="125"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="123" t="s">
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="124"/>
-      <c r="AT4" s="124"/>
-      <c r="AU4" s="124"/>
-      <c r="AV4" s="125">
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="113">
         <v>45803</v>
       </c>
-      <c r="AW4" s="125"/>
-      <c r="AX4" s="125"/>
-      <c r="AY4" s="126"/>
-      <c r="AZ4" s="123" t="s">
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="114"/>
+      <c r="AZ4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="124"/>
-      <c r="BB4" s="124"/>
-      <c r="BC4" s="124"/>
-      <c r="BD4" s="125">
+      <c r="BA4" s="112"/>
+      <c r="BB4" s="112"/>
+      <c r="BC4" s="112"/>
+      <c r="BD4" s="113">
         <v>45804</v>
       </c>
-      <c r="BE4" s="125"/>
-      <c r="BF4" s="125"/>
-      <c r="BG4" s="126"/>
-      <c r="BH4" s="123" t="s">
+      <c r="BE4" s="113"/>
+      <c r="BF4" s="113"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="124"/>
-      <c r="BJ4" s="124"/>
-      <c r="BK4" s="124"/>
-      <c r="BL4" s="125">
+      <c r="BI4" s="112"/>
+      <c r="BJ4" s="112"/>
+      <c r="BK4" s="112"/>
+      <c r="BL4" s="113">
         <v>45805</v>
       </c>
-      <c r="BM4" s="125"/>
-      <c r="BN4" s="125"/>
-      <c r="BO4" s="126"/>
-      <c r="BP4" s="123" t="s">
+      <c r="BM4" s="113"/>
+      <c r="BN4" s="113"/>
+      <c r="BO4" s="114"/>
+      <c r="BP4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="124"/>
-      <c r="BR4" s="124"/>
-      <c r="BS4" s="124"/>
-      <c r="BT4" s="125">
+      <c r="BQ4" s="112"/>
+      <c r="BR4" s="112"/>
+      <c r="BS4" s="112"/>
+      <c r="BT4" s="113">
         <v>45806</v>
       </c>
-      <c r="BU4" s="125"/>
-      <c r="BV4" s="125"/>
-      <c r="BW4" s="126"/>
-      <c r="BX4" s="123" t="s">
+      <c r="BU4" s="113"/>
+      <c r="BV4" s="113"/>
+      <c r="BW4" s="114"/>
+      <c r="BX4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="124"/>
-      <c r="BZ4" s="124"/>
-      <c r="CA4" s="124"/>
-      <c r="CB4" s="125">
+      <c r="BY4" s="112"/>
+      <c r="BZ4" s="112"/>
+      <c r="CA4" s="112"/>
+      <c r="CB4" s="113">
         <v>45807</v>
       </c>
-      <c r="CC4" s="125"/>
-      <c r="CD4" s="125"/>
-      <c r="CE4" s="126"/>
-      <c r="CF4" s="123" t="s">
+      <c r="CC4" s="113"/>
+      <c r="CD4" s="113"/>
+      <c r="CE4" s="114"/>
+      <c r="CF4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="124"/>
-      <c r="CH4" s="124"/>
-      <c r="CI4" s="124"/>
-      <c r="CJ4" s="125">
+      <c r="CG4" s="112"/>
+      <c r="CH4" s="112"/>
+      <c r="CI4" s="112"/>
+      <c r="CJ4" s="113">
         <v>45810</v>
       </c>
-      <c r="CK4" s="125"/>
-      <c r="CL4" s="125"/>
-      <c r="CM4" s="126"/>
-      <c r="CN4" s="132" t="s">
+      <c r="CK4" s="113"/>
+      <c r="CL4" s="113"/>
+      <c r="CM4" s="114"/>
+      <c r="CN4" s="110" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2399,13 +2380,13 @@
       <c r="AI5" s="5">
         <v>8</v>
       </c>
-      <c r="AJ5" s="105">
+      <c r="AJ5" s="104">
         <v>9</v>
       </c>
       <c r="AK5" s="6">
         <v>10</v>
       </c>
-      <c r="AL5" s="105">
+      <c r="AL5" s="104">
         <v>1</v>
       </c>
       <c r="AM5" s="5">
@@ -2567,433 +2548,439 @@
       <c r="CM5" s="6">
         <v>8</v>
       </c>
-      <c r="CN5" s="132"/>
+      <c r="CN5" s="110"/>
     </row>
     <row r="6" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="88"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="88"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="106"/>
-      <c r="AK6" s="88"/>
-      <c r="AL6" s="106"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="87"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="88"/>
-      <c r="AR6" s="86"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="87"/>
-      <c r="AV6" s="87"/>
-      <c r="AW6" s="87"/>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="88"/>
-      <c r="AZ6" s="86"/>
-      <c r="BA6" s="87"/>
-      <c r="BB6" s="87"/>
-      <c r="BC6" s="87"/>
-      <c r="BD6" s="87"/>
-      <c r="BE6" s="87"/>
-      <c r="BF6" s="87"/>
-      <c r="BG6" s="88"/>
-      <c r="BH6" s="86"/>
-      <c r="BI6" s="87"/>
-      <c r="BJ6" s="87"/>
-      <c r="BK6" s="87"/>
-      <c r="BL6" s="87"/>
-      <c r="BM6" s="87"/>
-      <c r="BN6" s="87"/>
-      <c r="BO6" s="88"/>
-      <c r="BP6" s="114" t="s">
+      <c r="A6" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="105"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="105"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="86"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="85"/>
+      <c r="AS6" s="86"/>
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="86"/>
+      <c r="AV6" s="86"/>
+      <c r="AW6" s="86"/>
+      <c r="AX6" s="86"/>
+      <c r="AY6" s="87"/>
+      <c r="AZ6" s="85"/>
+      <c r="BA6" s="86"/>
+      <c r="BB6" s="86"/>
+      <c r="BC6" s="86"/>
+      <c r="BD6" s="86"/>
+      <c r="BE6" s="86"/>
+      <c r="BF6" s="86"/>
+      <c r="BG6" s="87"/>
+      <c r="BH6" s="85"/>
+      <c r="BI6" s="86"/>
+      <c r="BJ6" s="86"/>
+      <c r="BK6" s="86"/>
+      <c r="BL6" s="86"/>
+      <c r="BM6" s="86"/>
+      <c r="BN6" s="86"/>
+      <c r="BO6" s="87"/>
+      <c r="BP6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="BQ6" s="115"/>
-      <c r="BR6" s="115"/>
-      <c r="BS6" s="115"/>
-      <c r="BT6" s="115"/>
-      <c r="BU6" s="115"/>
-      <c r="BV6" s="115"/>
-      <c r="BW6" s="116"/>
-      <c r="BX6" s="86"/>
-      <c r="BY6" s="87"/>
-      <c r="BZ6" s="87"/>
-      <c r="CA6" s="87"/>
-      <c r="CB6" s="87"/>
-      <c r="CC6" s="87"/>
-      <c r="CD6" s="87"/>
-      <c r="CE6" s="88"/>
-      <c r="CF6" s="86"/>
-      <c r="CG6" s="87"/>
-      <c r="CH6" s="87"/>
-      <c r="CI6" s="87"/>
-      <c r="CJ6" s="87"/>
-      <c r="CK6" s="87"/>
-      <c r="CL6" s="87"/>
-      <c r="CM6" s="88"/>
-      <c r="CN6" s="132"/>
+      <c r="BQ6" s="124"/>
+      <c r="BR6" s="124"/>
+      <c r="BS6" s="124"/>
+      <c r="BT6" s="124"/>
+      <c r="BU6" s="124"/>
+      <c r="BV6" s="124"/>
+      <c r="BW6" s="125"/>
+      <c r="BX6" s="85"/>
+      <c r="BY6" s="86"/>
+      <c r="BZ6" s="86"/>
+      <c r="CA6" s="86"/>
+      <c r="CB6" s="86"/>
+      <c r="CC6" s="86"/>
+      <c r="CD6" s="86"/>
+      <c r="CE6" s="87"/>
+      <c r="CF6" s="85"/>
+      <c r="CG6" s="86"/>
+      <c r="CH6" s="86"/>
+      <c r="CI6" s="86"/>
+      <c r="CJ6" s="86"/>
+      <c r="CK6" s="86"/>
+      <c r="CL6" s="86"/>
+      <c r="CM6" s="87"/>
+      <c r="CN6" s="110"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A7" s="84" t="s">
-        <v>35</v>
+      <c r="A7" s="83" t="s">
+        <v>34</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="76"/>
+      <c r="D7" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="90"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="90"/>
+      <c r="V7" s="90"/>
+      <c r="W7" s="90"/>
+      <c r="X7" s="90"/>
+      <c r="Y7" s="90"/>
+      <c r="Z7" s="90"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="90"/>
+      <c r="AD7" s="90"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="90"/>
+      <c r="AG7" s="90"/>
+      <c r="AH7" s="90"/>
+      <c r="AI7" s="90"/>
+      <c r="AJ7" s="106"/>
+      <c r="AK7" s="91"/>
+      <c r="AL7" s="106"/>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AP7" s="90"/>
+      <c r="AQ7" s="91"/>
+      <c r="AR7" s="92"/>
+      <c r="AS7" s="90"/>
+      <c r="AT7" s="90"/>
+      <c r="AU7" s="90"/>
+      <c r="AV7" s="90"/>
+      <c r="AW7" s="90"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="91"/>
+      <c r="AZ7" s="92"/>
+      <c r="BA7" s="90"/>
+      <c r="BB7" s="90"/>
+      <c r="BC7" s="90"/>
+      <c r="BD7" s="90"/>
+      <c r="BE7" s="90"/>
+      <c r="BF7" s="90"/>
+      <c r="BG7" s="91"/>
+      <c r="BH7" s="92"/>
+      <c r="BI7" s="90"/>
+      <c r="BJ7" s="90"/>
+      <c r="BK7" s="90"/>
+      <c r="BL7" s="90"/>
+      <c r="BM7" s="90"/>
+      <c r="BN7" s="90"/>
+      <c r="BO7" s="91"/>
+      <c r="BP7" s="126"/>
+      <c r="BQ7" s="127"/>
+      <c r="BR7" s="127"/>
+      <c r="BS7" s="127"/>
+      <c r="BT7" s="127"/>
+      <c r="BU7" s="127"/>
+      <c r="BV7" s="127"/>
+      <c r="BW7" s="128"/>
+      <c r="BX7" s="92"/>
+      <c r="BY7" s="90"/>
+      <c r="BZ7" s="90"/>
+      <c r="CA7" s="90"/>
+      <c r="CB7" s="90"/>
+      <c r="CC7" s="90"/>
+      <c r="CD7" s="90"/>
+      <c r="CE7" s="91"/>
+      <c r="CF7" s="92"/>
+      <c r="CG7" s="90"/>
+      <c r="CH7" s="90"/>
+      <c r="CI7" s="90"/>
+      <c r="CJ7" s="90"/>
+      <c r="CK7" s="90"/>
+      <c r="CL7" s="90"/>
+      <c r="CM7" s="91"/>
+      <c r="CN7" s="110"/>
+      <c r="CP7" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="91"/>
-      <c r="R7" s="91"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="107"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="107"/>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="91"/>
-      <c r="AQ7" s="92"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="91"/>
-      <c r="BF7" s="91"/>
-      <c r="BG7" s="92"/>
-      <c r="BH7" s="93"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="91"/>
-      <c r="BK7" s="91"/>
-      <c r="BL7" s="91"/>
-      <c r="BM7" s="91"/>
-      <c r="BN7" s="91"/>
-      <c r="BO7" s="92"/>
-      <c r="BP7" s="117"/>
-      <c r="BQ7" s="118"/>
-      <c r="BR7" s="118"/>
-      <c r="BS7" s="118"/>
-      <c r="BT7" s="118"/>
-      <c r="BU7" s="118"/>
-      <c r="BV7" s="118"/>
-      <c r="BW7" s="119"/>
-      <c r="BX7" s="93"/>
-      <c r="BY7" s="91"/>
-      <c r="BZ7" s="91"/>
-      <c r="CA7" s="91"/>
-      <c r="CB7" s="91"/>
-      <c r="CC7" s="91"/>
-      <c r="CD7" s="91"/>
-      <c r="CE7" s="92"/>
-      <c r="CF7" s="93"/>
-      <c r="CG7" s="91"/>
-      <c r="CH7" s="91"/>
-      <c r="CI7" s="91"/>
-      <c r="CJ7" s="91"/>
-      <c r="CK7" s="91"/>
-      <c r="CL7" s="91"/>
-      <c r="CM7" s="92"/>
-      <c r="CN7" s="132"/>
-      <c r="CP7" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A8" s="84" t="s">
-        <v>27</v>
+      <c r="A8" s="83" t="s">
+        <v>26</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="76"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="102" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="92"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="90"/>
+      <c r="W8" s="90"/>
+      <c r="X8" s="90"/>
+      <c r="Y8" s="90"/>
+      <c r="Z8" s="90"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="90"/>
+      <c r="AD8" s="90"/>
+      <c r="AE8" s="90"/>
+      <c r="AF8" s="90"/>
+      <c r="AG8" s="90"/>
+      <c r="AH8" s="90"/>
+      <c r="AI8" s="90"/>
+      <c r="AJ8" s="106"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="106"/>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AP8" s="90"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="92"/>
+      <c r="AS8" s="90"/>
+      <c r="AT8" s="90"/>
+      <c r="AU8" s="90"/>
+      <c r="AV8" s="90"/>
+      <c r="AW8" s="90"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="91"/>
+      <c r="AZ8" s="92"/>
+      <c r="BA8" s="90"/>
+      <c r="BB8" s="90"/>
+      <c r="BC8" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD8" s="90"/>
+      <c r="BE8" s="90"/>
+      <c r="BF8" s="90"/>
+      <c r="BG8" s="91"/>
+      <c r="BH8" s="92"/>
+      <c r="BI8" s="90"/>
+      <c r="BJ8" s="90"/>
+      <c r="BK8" s="90"/>
+      <c r="BL8" s="90"/>
+      <c r="BM8" s="90"/>
+      <c r="BN8" s="90"/>
+      <c r="BO8" s="91"/>
+      <c r="BP8" s="126"/>
+      <c r="BQ8" s="127"/>
+      <c r="BR8" s="127"/>
+      <c r="BS8" s="127"/>
+      <c r="BT8" s="127"/>
+      <c r="BU8" s="127"/>
+      <c r="BV8" s="127"/>
+      <c r="BW8" s="128"/>
+      <c r="BX8" s="92"/>
+      <c r="BY8" s="90"/>
+      <c r="BZ8" s="90"/>
+      <c r="CA8" s="90"/>
+      <c r="CB8" s="90"/>
+      <c r="CC8" s="90"/>
+      <c r="CD8" s="90"/>
+      <c r="CE8" s="91"/>
+      <c r="CF8" s="92"/>
+      <c r="CG8" s="90"/>
+      <c r="CH8" s="90"/>
+      <c r="CI8" s="90"/>
+      <c r="CJ8" s="90"/>
+      <c r="CK8" s="90"/>
+      <c r="CL8" s="90"/>
+      <c r="CM8" s="91"/>
+      <c r="CN8" s="110"/>
+      <c r="CP8" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="91"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="93"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="92"/>
-      <c r="AB8" s="93"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="107"/>
-      <c r="AK8" s="92"/>
-      <c r="AL8" s="107"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="92"/>
-      <c r="AR8" s="93"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="91"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="92"/>
-      <c r="AZ8" s="93"/>
-      <c r="BA8" s="91"/>
-      <c r="BB8" s="91"/>
-      <c r="BC8" s="90"/>
-      <c r="BD8" s="133"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="91"/>
-      <c r="BG8" s="92"/>
-      <c r="BH8" s="93"/>
-      <c r="BI8" s="91"/>
-      <c r="BJ8" s="91"/>
-      <c r="BK8" s="91"/>
-      <c r="BL8" s="91"/>
-      <c r="BM8" s="91"/>
-      <c r="BN8" s="91"/>
-      <c r="BO8" s="92"/>
-      <c r="BP8" s="117"/>
-      <c r="BQ8" s="118"/>
-      <c r="BR8" s="118"/>
-      <c r="BS8" s="118"/>
-      <c r="BT8" s="118"/>
-      <c r="BU8" s="118"/>
-      <c r="BV8" s="118"/>
-      <c r="BW8" s="119"/>
-      <c r="BX8" s="93"/>
-      <c r="BY8" s="91"/>
-      <c r="BZ8" s="91"/>
-      <c r="CA8" s="91"/>
-      <c r="CB8" s="91"/>
-      <c r="CC8" s="91"/>
-      <c r="CD8" s="91"/>
-      <c r="CE8" s="92"/>
-      <c r="CF8" s="93"/>
-      <c r="CG8" s="91"/>
-      <c r="CH8" s="91"/>
-      <c r="CI8" s="91"/>
-      <c r="CJ8" s="91"/>
-      <c r="CK8" s="91"/>
-      <c r="CL8" s="91"/>
-      <c r="CM8" s="92"/>
-      <c r="CN8" s="132"/>
-      <c r="CP8" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:94" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
-        <v>28</v>
+      <c r="A9" s="83" t="s">
+        <v>27</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="91"/>
-      <c r="V9" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="W9" s="91"/>
-      <c r="X9" s="91"/>
-      <c r="Y9" s="91"/>
-      <c r="Z9" s="91"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="91"/>
-      <c r="AD9" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE9" s="91"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="91"/>
-      <c r="AI9" s="91"/>
-      <c r="AJ9" s="107"/>
-      <c r="AK9" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN9" s="91"/>
-      <c r="AO9" s="91"/>
-      <c r="AP9" s="91"/>
-      <c r="AQ9" s="92"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="91"/>
-      <c r="AT9" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="AU9" s="91"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="91"/>
-      <c r="AX9" s="91"/>
-      <c r="AY9" s="92"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="91"/>
-      <c r="BC9" s="91"/>
-      <c r="BD9" s="91"/>
-      <c r="BE9" s="91"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="92"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="91"/>
-      <c r="BJ9" s="91"/>
-      <c r="BK9" s="91"/>
-      <c r="BL9" s="91"/>
-      <c r="BM9" s="91"/>
-      <c r="BN9" s="91"/>
-      <c r="BO9" s="92"/>
-      <c r="BP9" s="117"/>
-      <c r="BQ9" s="118"/>
-      <c r="BR9" s="118"/>
-      <c r="BS9" s="118"/>
-      <c r="BT9" s="118"/>
-      <c r="BU9" s="118"/>
-      <c r="BV9" s="118"/>
-      <c r="BW9" s="119"/>
-      <c r="BX9" s="93"/>
-      <c r="BY9" s="91"/>
-      <c r="BZ9" s="91"/>
-      <c r="CA9" s="91"/>
-      <c r="CB9" s="91"/>
-      <c r="CC9" s="91"/>
-      <c r="CD9" s="91"/>
-      <c r="CE9" s="92"/>
-      <c r="CF9" s="93"/>
-      <c r="CG9" s="91"/>
-      <c r="CH9" s="91"/>
-      <c r="CI9" s="91"/>
-      <c r="CJ9" s="91"/>
-      <c r="CK9" s="91"/>
-      <c r="CL9" s="91"/>
-      <c r="CM9" s="92"/>
-      <c r="CN9" s="132"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="W9" s="90"/>
+      <c r="X9" s="90"/>
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="90"/>
+      <c r="AD9" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="91" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL9" s="106"/>
+      <c r="AM9" s="94" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="92"/>
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="90"/>
+      <c r="AW9" s="90"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="92"/>
+      <c r="BA9" s="90"/>
+      <c r="BB9" s="90"/>
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="90"/>
+      <c r="BG9" s="91"/>
+      <c r="BH9" s="92"/>
+      <c r="BI9" s="90"/>
+      <c r="BJ9" s="90"/>
+      <c r="BK9" s="90"/>
+      <c r="BL9" s="90"/>
+      <c r="BM9" s="90"/>
+      <c r="BN9" s="90"/>
+      <c r="BO9" s="91"/>
+      <c r="BP9" s="126"/>
+      <c r="BQ9" s="127"/>
+      <c r="BR9" s="127"/>
+      <c r="BS9" s="127"/>
+      <c r="BT9" s="127"/>
+      <c r="BU9" s="127"/>
+      <c r="BV9" s="127"/>
+      <c r="BW9" s="128"/>
+      <c r="BX9" s="92"/>
+      <c r="BY9" s="90"/>
+      <c r="BZ9" s="90"/>
+      <c r="CA9" s="90"/>
+      <c r="CB9" s="90"/>
+      <c r="CC9" s="90"/>
+      <c r="CD9" s="90"/>
+      <c r="CE9" s="91"/>
+      <c r="CF9" s="92"/>
+      <c r="CG9" s="90"/>
+      <c r="CH9" s="90"/>
+      <c r="CI9" s="90"/>
+      <c r="CJ9" s="90"/>
+      <c r="CK9" s="90"/>
+      <c r="CL9" s="90"/>
+      <c r="CM9" s="91"/>
+      <c r="CN9" s="110"/>
     </row>
     <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
@@ -3059,14 +3046,14 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="12"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="117"/>
-      <c r="BQ10" s="118"/>
-      <c r="BR10" s="118"/>
-      <c r="BS10" s="118"/>
-      <c r="BT10" s="118"/>
-      <c r="BU10" s="118"/>
-      <c r="BV10" s="118"/>
-      <c r="BW10" s="119"/>
+      <c r="BP10" s="126"/>
+      <c r="BQ10" s="127"/>
+      <c r="BR10" s="127"/>
+      <c r="BS10" s="127"/>
+      <c r="BT10" s="127"/>
+      <c r="BU10" s="127"/>
+      <c r="BV10" s="127"/>
+      <c r="BW10" s="128"/>
       <c r="BX10" s="11"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -3083,20 +3070,20 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
       <c r="CM10" s="13"/>
-      <c r="CN10" s="132"/>
+      <c r="CN10" s="110"/>
     </row>
     <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="98" t="s">
-        <v>32</v>
+      <c r="F11" s="97" t="s">
+        <v>31</v>
       </c>
       <c r="G11" s="51"/>
       <c r="H11" s="7"/>
@@ -3159,14 +3146,14 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="8"/>
-      <c r="BP11" s="117"/>
-      <c r="BQ11" s="118"/>
-      <c r="BR11" s="118"/>
-      <c r="BS11" s="118"/>
-      <c r="BT11" s="118"/>
-      <c r="BU11" s="118"/>
-      <c r="BV11" s="118"/>
-      <c r="BW11" s="119"/>
+      <c r="BP11" s="126"/>
+      <c r="BQ11" s="127"/>
+      <c r="BR11" s="127"/>
+      <c r="BS11" s="127"/>
+      <c r="BT11" s="127"/>
+      <c r="BU11" s="127"/>
+      <c r="BV11" s="127"/>
+      <c r="BW11" s="128"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7"/>
@@ -3183,21 +3170,21 @@
       <c r="CK11" s="7"/>
       <c r="CL11" s="7"/>
       <c r="CM11" s="8"/>
-      <c r="CN11" s="132"/>
+      <c r="CN11" s="110"/>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="100" t="s">
-        <v>32</v>
+      <c r="G12" s="99" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
@@ -3259,14 +3246,14 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="12"/>
       <c r="BO12" s="13"/>
-      <c r="BP12" s="117"/>
-      <c r="BQ12" s="118"/>
-      <c r="BR12" s="118"/>
-      <c r="BS12" s="118"/>
-      <c r="BT12" s="118"/>
-      <c r="BU12" s="118"/>
-      <c r="BV12" s="118"/>
-      <c r="BW12" s="119"/>
+      <c r="BP12" s="126"/>
+      <c r="BQ12" s="127"/>
+      <c r="BR12" s="127"/>
+      <c r="BS12" s="127"/>
+      <c r="BT12" s="127"/>
+      <c r="BU12" s="127"/>
+      <c r="BV12" s="127"/>
+      <c r="BW12" s="128"/>
       <c r="BX12" s="11"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
@@ -3283,40 +3270,40 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
       <c r="CM12" s="13"/>
-      <c r="CN12" s="132"/>
+      <c r="CN12" s="110"/>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="100" t="s">
-        <v>32</v>
+      <c r="H13" s="99" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="43"/>
       <c r="K13" s="44"/>
       <c r="L13" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M13" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
@@ -3369,14 +3356,14 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="13"/>
-      <c r="BP13" s="117"/>
-      <c r="BQ13" s="118"/>
-      <c r="BR13" s="118"/>
-      <c r="BS13" s="118"/>
-      <c r="BT13" s="118"/>
-      <c r="BU13" s="118"/>
-      <c r="BV13" s="118"/>
-      <c r="BW13" s="119"/>
+      <c r="BP13" s="126"/>
+      <c r="BQ13" s="127"/>
+      <c r="BR13" s="127"/>
+      <c r="BS13" s="127"/>
+      <c r="BT13" s="127"/>
+      <c r="BU13" s="127"/>
+      <c r="BV13" s="127"/>
+      <c r="BW13" s="128"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
@@ -3393,14 +3380,14 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
       <c r="CM13" s="13"/>
-      <c r="CN13" s="132"/>
+      <c r="CN13" s="110"/>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -3417,7 +3404,7 @@
       <c r="O14" s="43"/>
       <c r="P14" s="43"/>
       <c r="Q14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="13"/>
@@ -3425,7 +3412,7 @@
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
@@ -3471,14 +3458,14 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="12"/>
       <c r="BO14" s="13"/>
-      <c r="BP14" s="117"/>
-      <c r="BQ14" s="118"/>
-      <c r="BR14" s="118"/>
-      <c r="BS14" s="118"/>
-      <c r="BT14" s="118"/>
-      <c r="BU14" s="118"/>
-      <c r="BV14" s="118"/>
-      <c r="BW14" s="119"/>
+      <c r="BP14" s="126"/>
+      <c r="BQ14" s="127"/>
+      <c r="BR14" s="127"/>
+      <c r="BS14" s="127"/>
+      <c r="BT14" s="127"/>
+      <c r="BU14" s="127"/>
+      <c r="BV14" s="127"/>
+      <c r="BW14" s="128"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
@@ -3495,13 +3482,15 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
       <c r="CM14" s="13"/>
-      <c r="CN14" s="132"/>
+      <c r="CN14" s="110"/>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="12"/>
@@ -3567,14 +3556,14 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="12"/>
       <c r="BO15" s="13"/>
-      <c r="BP15" s="117"/>
-      <c r="BQ15" s="118"/>
-      <c r="BR15" s="118"/>
-      <c r="BS15" s="118"/>
-      <c r="BT15" s="118"/>
-      <c r="BU15" s="118"/>
-      <c r="BV15" s="118"/>
-      <c r="BW15" s="119"/>
+      <c r="BP15" s="126"/>
+      <c r="BQ15" s="127"/>
+      <c r="BR15" s="127"/>
+      <c r="BS15" s="127"/>
+      <c r="BT15" s="127"/>
+      <c r="BU15" s="127"/>
+      <c r="BV15" s="127"/>
+      <c r="BW15" s="128"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
@@ -3591,7 +3580,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
       <c r="CM15" s="13"/>
-      <c r="CN15" s="132"/>
+      <c r="CN15" s="110"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3616,10 +3605,10 @@
       <c r="P16" s="45"/>
       <c r="Q16" s="45"/>
       <c r="R16" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S16" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T16" s="11"/>
       <c r="U16" s="12"/>
@@ -3669,14 +3658,14 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="12"/>
       <c r="BO16" s="13"/>
-      <c r="BP16" s="117"/>
-      <c r="BQ16" s="118"/>
-      <c r="BR16" s="118"/>
-      <c r="BS16" s="118"/>
-      <c r="BT16" s="118"/>
-      <c r="BU16" s="118"/>
-      <c r="BV16" s="118"/>
-      <c r="BW16" s="119"/>
+      <c r="BP16" s="126"/>
+      <c r="BQ16" s="127"/>
+      <c r="BR16" s="127"/>
+      <c r="BS16" s="127"/>
+      <c r="BT16" s="127"/>
+      <c r="BU16" s="127"/>
+      <c r="BV16" s="127"/>
+      <c r="BW16" s="128"/>
       <c r="BX16" s="11"/>
       <c r="BY16" s="12"/>
       <c r="BZ16" s="12"/>
@@ -3693,14 +3682,14 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
       <c r="CM16" s="13"/>
-      <c r="CN16" s="132"/>
+      <c r="CN16" s="110"/>
     </row>
     <row r="17" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -3720,13 +3709,13 @@
       <c r="R17" s="45"/>
       <c r="S17" s="52"/>
       <c r="T17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W17" s="12"/>
       <c r="X17" s="12"/>
@@ -3773,14 +3762,14 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="13"/>
-      <c r="BP17" s="117"/>
-      <c r="BQ17" s="118"/>
-      <c r="BR17" s="118"/>
-      <c r="BS17" s="118"/>
-      <c r="BT17" s="118"/>
-      <c r="BU17" s="118"/>
-      <c r="BV17" s="118"/>
-      <c r="BW17" s="119"/>
+      <c r="BP17" s="126"/>
+      <c r="BQ17" s="127"/>
+      <c r="BR17" s="127"/>
+      <c r="BS17" s="127"/>
+      <c r="BT17" s="127"/>
+      <c r="BU17" s="127"/>
+      <c r="BV17" s="127"/>
+      <c r="BW17" s="128"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
@@ -3797,13 +3786,15 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="13"/>
-      <c r="CN17" s="132"/>
+      <c r="CN17" s="110"/>
     </row>
     <row r="18" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="12"/>
@@ -3869,14 +3860,14 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
       <c r="BO18" s="13"/>
-      <c r="BP18" s="117"/>
-      <c r="BQ18" s="118"/>
-      <c r="BR18" s="118"/>
-      <c r="BS18" s="118"/>
-      <c r="BT18" s="118"/>
-      <c r="BU18" s="118"/>
-      <c r="BV18" s="118"/>
-      <c r="BW18" s="119"/>
+      <c r="BP18" s="126"/>
+      <c r="BQ18" s="127"/>
+      <c r="BR18" s="127"/>
+      <c r="BS18" s="127"/>
+      <c r="BT18" s="127"/>
+      <c r="BU18" s="127"/>
+      <c r="BV18" s="127"/>
+      <c r="BW18" s="128"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
@@ -3893,14 +3884,14 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="13"/>
-      <c r="CN18" s="132"/>
+      <c r="CN18" s="110"/>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -3924,10 +3915,10 @@
       <c r="V19" s="54"/>
       <c r="W19" s="54"/>
       <c r="X19" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y19" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z19" s="12"/>
       <c r="AA19" s="13"/>
@@ -3971,14 +3962,14 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="12"/>
       <c r="BO19" s="13"/>
-      <c r="BP19" s="117"/>
-      <c r="BQ19" s="118"/>
-      <c r="BR19" s="118"/>
-      <c r="BS19" s="118"/>
-      <c r="BT19" s="118"/>
-      <c r="BU19" s="118"/>
-      <c r="BV19" s="118"/>
-      <c r="BW19" s="119"/>
+      <c r="BP19" s="126"/>
+      <c r="BQ19" s="127"/>
+      <c r="BR19" s="127"/>
+      <c r="BS19" s="127"/>
+      <c r="BT19" s="127"/>
+      <c r="BU19" s="127"/>
+      <c r="BV19" s="127"/>
+      <c r="BW19" s="128"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
@@ -3995,14 +3986,14 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="13"/>
-      <c r="CN19" s="132"/>
+      <c r="CN19" s="110"/>
     </row>
     <row r="20" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -4028,22 +4019,22 @@
       <c r="X20" s="12"/>
       <c r="Y20" s="12"/>
       <c r="Z20" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA20" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB20" s="53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC20" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AD20" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AE20" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF20" s="61"/>
       <c r="AG20" s="61"/>
@@ -4081,14 +4072,14 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="12"/>
       <c r="BO20" s="13"/>
-      <c r="BP20" s="117"/>
-      <c r="BQ20" s="118"/>
-      <c r="BR20" s="118"/>
-      <c r="BS20" s="118"/>
-      <c r="BT20" s="118"/>
-      <c r="BU20" s="118"/>
-      <c r="BV20" s="118"/>
-      <c r="BW20" s="119"/>
+      <c r="BP20" s="126"/>
+      <c r="BQ20" s="127"/>
+      <c r="BR20" s="127"/>
+      <c r="BS20" s="127"/>
+      <c r="BT20" s="127"/>
+      <c r="BU20" s="127"/>
+      <c r="BV20" s="127"/>
+      <c r="BW20" s="128"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
@@ -4105,14 +4096,14 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
       <c r="CM20" s="13"/>
-      <c r="CN20" s="132"/>
+      <c r="CN20" s="110"/>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
@@ -4141,18 +4132,20 @@
       <c r="AA21" s="13"/>
       <c r="AB21" s="11"/>
       <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
+      <c r="AD21" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AE21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AF21" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AG21" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AH21" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI21" s="54"/>
       <c r="AJ21" s="60"/>
@@ -4187,14 +4180,14 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="12"/>
       <c r="BO21" s="13"/>
-      <c r="BP21" s="117"/>
-      <c r="BQ21" s="118"/>
-      <c r="BR21" s="118"/>
-      <c r="BS21" s="118"/>
-      <c r="BT21" s="118"/>
-      <c r="BU21" s="118"/>
-      <c r="BV21" s="118"/>
-      <c r="BW21" s="119"/>
+      <c r="BP21" s="126"/>
+      <c r="BQ21" s="127"/>
+      <c r="BR21" s="127"/>
+      <c r="BS21" s="127"/>
+      <c r="BT21" s="127"/>
+      <c r="BU21" s="127"/>
+      <c r="BV21" s="127"/>
+      <c r="BW21" s="128"/>
       <c r="BX21" s="11"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
@@ -4211,14 +4204,14 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
       <c r="CM21" s="13"/>
-      <c r="CN21" s="132"/>
+      <c r="CN21" s="110"/>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
@@ -4253,25 +4246,25 @@
       <c r="AG22" s="12"/>
       <c r="AH22" s="12"/>
       <c r="AI22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ22" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AK22" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AL22" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM22" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN22" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO22" s="100" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="AM22" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN22" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO22" s="99" t="s">
+        <v>31</v>
       </c>
       <c r="AP22" s="12"/>
       <c r="AQ22" s="22"/>
@@ -4299,14 +4292,14 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="12"/>
       <c r="BO22" s="13"/>
-      <c r="BP22" s="117"/>
-      <c r="BQ22" s="118"/>
-      <c r="BR22" s="118"/>
-      <c r="BS22" s="118"/>
-      <c r="BT22" s="118"/>
-      <c r="BU22" s="118"/>
-      <c r="BV22" s="118"/>
-      <c r="BW22" s="119"/>
+      <c r="BP22" s="126"/>
+      <c r="BQ22" s="127"/>
+      <c r="BR22" s="127"/>
+      <c r="BS22" s="127"/>
+      <c r="BT22" s="127"/>
+      <c r="BU22" s="127"/>
+      <c r="BV22" s="127"/>
+      <c r="BW22" s="128"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
@@ -4323,14 +4316,14 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
       <c r="CM22" s="13"/>
-      <c r="CN22" s="132"/>
+      <c r="CN22" s="110"/>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -4372,22 +4365,22 @@
       <c r="AN23" s="12"/>
       <c r="AO23" s="12"/>
       <c r="AP23" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AQ23" s="56" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AR23" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AS23" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AT23" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AU23" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AV23" s="25"/>
       <c r="AW23" s="25"/>
@@ -4409,14 +4402,14 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12"/>
       <c r="BO23" s="13"/>
-      <c r="BP23" s="117"/>
-      <c r="BQ23" s="118"/>
-      <c r="BR23" s="118"/>
-      <c r="BS23" s="118"/>
-      <c r="BT23" s="118"/>
-      <c r="BU23" s="118"/>
-      <c r="BV23" s="118"/>
-      <c r="BW23" s="119"/>
+      <c r="BP23" s="126"/>
+      <c r="BQ23" s="127"/>
+      <c r="BR23" s="127"/>
+      <c r="BS23" s="127"/>
+      <c r="BT23" s="127"/>
+      <c r="BU23" s="127"/>
+      <c r="BV23" s="127"/>
+      <c r="BW23" s="128"/>
       <c r="BX23" s="11"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
@@ -4433,14 +4426,14 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
       <c r="CM23" s="13"/>
-      <c r="CN23" s="132"/>
+      <c r="CN23" s="110"/>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -4487,28 +4480,38 @@
       <c r="AS24" s="25"/>
       <c r="AT24" s="25"/>
       <c r="AU24" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AV24" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AW24" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AX24" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AY24" s="59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AZ24" s="60"/>
       <c r="BA24" s="54"/>
       <c r="BB24" s="12"/>
-      <c r="BC24" s="12"/>
-      <c r="BD24" s="12"/>
-      <c r="BE24" s="12"/>
-      <c r="BF24" s="12"/>
-      <c r="BG24" s="13"/>
+      <c r="BC24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG24" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="BH24" s="11"/>
       <c r="BI24" s="12"/>
       <c r="BJ24" s="12"/>
@@ -4517,14 +4520,14 @@
       <c r="BM24" s="12"/>
       <c r="BN24" s="12"/>
       <c r="BO24" s="13"/>
-      <c r="BP24" s="117"/>
-      <c r="BQ24" s="118"/>
-      <c r="BR24" s="118"/>
-      <c r="BS24" s="118"/>
-      <c r="BT24" s="118"/>
-      <c r="BU24" s="118"/>
-      <c r="BV24" s="118"/>
-      <c r="BW24" s="119"/>
+      <c r="BP24" s="126"/>
+      <c r="BQ24" s="127"/>
+      <c r="BR24" s="127"/>
+      <c r="BS24" s="127"/>
+      <c r="BT24" s="127"/>
+      <c r="BU24" s="127"/>
+      <c r="BV24" s="127"/>
+      <c r="BW24" s="128"/>
       <c r="BX24" s="11"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
@@ -4541,11 +4544,11 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
       <c r="CM24" s="13"/>
-      <c r="CN24" s="132"/>
+      <c r="CN24" s="110"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="10"/>
@@ -4594,17 +4597,33 @@
       <c r="AT25" s="25"/>
       <c r="AU25" s="25"/>
       <c r="AV25" s="25"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="25"/>
-      <c r="AY25" s="27"/>
+      <c r="AW25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY25" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="AZ25" s="24"/>
       <c r="BA25" s="12"/>
       <c r="BB25" s="12"/>
-      <c r="BC25" s="54"/>
-      <c r="BD25" s="54"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="55"/>
+      <c r="BC25" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD25" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="BE25" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="BF25" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG25" s="55" t="s">
+        <v>31</v>
+      </c>
       <c r="BH25" s="11"/>
       <c r="BI25" s="12"/>
       <c r="BJ25" s="12"/>
@@ -4613,14 +4632,14 @@
       <c r="BM25" s="12"/>
       <c r="BN25" s="12"/>
       <c r="BO25" s="13"/>
-      <c r="BP25" s="117"/>
-      <c r="BQ25" s="118"/>
-      <c r="BR25" s="118"/>
-      <c r="BS25" s="118"/>
-      <c r="BT25" s="118"/>
-      <c r="BU25" s="118"/>
-      <c r="BV25" s="118"/>
-      <c r="BW25" s="119"/>
+      <c r="BP25" s="126"/>
+      <c r="BQ25" s="127"/>
+      <c r="BR25" s="127"/>
+      <c r="BS25" s="127"/>
+      <c r="BT25" s="127"/>
+      <c r="BU25" s="127"/>
+      <c r="BV25" s="127"/>
+      <c r="BW25" s="128"/>
       <c r="BX25" s="11"/>
       <c r="BY25" s="12"/>
       <c r="BZ25" s="12"/>
@@ -4637,11 +4656,11 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
       <c r="CM25" s="13"/>
-      <c r="CN25" s="132"/>
+      <c r="CN25" s="110"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="15"/>
       <c r="C26" s="10"/>
@@ -4709,14 +4728,14 @@
       <c r="BM26" s="54"/>
       <c r="BN26" s="12"/>
       <c r="BO26" s="13"/>
-      <c r="BP26" s="117"/>
-      <c r="BQ26" s="118"/>
-      <c r="BR26" s="118"/>
-      <c r="BS26" s="118"/>
-      <c r="BT26" s="118"/>
-      <c r="BU26" s="118"/>
-      <c r="BV26" s="118"/>
-      <c r="BW26" s="119"/>
+      <c r="BP26" s="126"/>
+      <c r="BQ26" s="127"/>
+      <c r="BR26" s="127"/>
+      <c r="BS26" s="127"/>
+      <c r="BT26" s="127"/>
+      <c r="BU26" s="127"/>
+      <c r="BV26" s="127"/>
+      <c r="BW26" s="128"/>
       <c r="BX26" s="11"/>
       <c r="BY26" s="12"/>
       <c r="BZ26" s="12"/>
@@ -4733,13 +4752,15 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
       <c r="CM26" s="13"/>
-      <c r="CN26" s="132"/>
+      <c r="CN26" s="110"/>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
@@ -4805,14 +4826,14 @@
       <c r="BM27" s="12"/>
       <c r="BN27" s="12"/>
       <c r="BO27" s="13"/>
-      <c r="BP27" s="117"/>
-      <c r="BQ27" s="118"/>
-      <c r="BR27" s="118"/>
-      <c r="BS27" s="118"/>
-      <c r="BT27" s="118"/>
-      <c r="BU27" s="118"/>
-      <c r="BV27" s="118"/>
-      <c r="BW27" s="119"/>
+      <c r="BP27" s="126"/>
+      <c r="BQ27" s="127"/>
+      <c r="BR27" s="127"/>
+      <c r="BS27" s="127"/>
+      <c r="BT27" s="127"/>
+      <c r="BU27" s="127"/>
+      <c r="BV27" s="127"/>
+      <c r="BW27" s="128"/>
       <c r="BX27" s="11"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
@@ -4829,13 +4850,15 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
       <c r="CM27" s="13"/>
-      <c r="CN27" s="132"/>
+      <c r="CN27" s="110"/>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="15"/>
+        <v>28</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
@@ -4859,48 +4882,56 @@
       <c r="W28" s="12"/>
       <c r="X28" s="12"/>
       <c r="Y28" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z28" s="12"/>
       <c r="AA28" s="13"/>
       <c r="AB28" s="12"/>
       <c r="AC28" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD28" s="97" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE28" s="97" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="AD28" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE28" s="96" t="s">
+        <v>31</v>
       </c>
       <c r="AF28" s="12"/>
       <c r="AG28" s="12"/>
       <c r="AH28" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AI28" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AJ28" s="24"/>
       <c r="AK28" s="13"/>
       <c r="AL28" s="24"/>
       <c r="AM28" s="12"/>
-      <c r="AN28" s="110" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO28" s="110" t="s">
-        <v>32</v>
+      <c r="AN28" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO28" s="109" t="s">
+        <v>31</v>
       </c>
       <c r="AP28" s="12"/>
       <c r="AQ28" s="22"/>
       <c r="AR28" s="26"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="25"/>
+      <c r="AS28" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT28" s="25" t="s">
+        <v>31</v>
+      </c>
       <c r="AU28" s="25"/>
       <c r="AV28" s="25"/>
       <c r="AW28" s="25"/>
-      <c r="AX28" s="25"/>
-      <c r="AY28" s="27"/>
+      <c r="AX28" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AY28" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="AZ28" s="24"/>
       <c r="BA28" s="62"/>
       <c r="BB28" s="62"/>
@@ -4916,15 +4947,15 @@
       <c r="BL28" s="12"/>
       <c r="BM28" s="62"/>
       <c r="BN28" s="62"/>
-      <c r="BO28" s="99"/>
-      <c r="BP28" s="117"/>
-      <c r="BQ28" s="118"/>
-      <c r="BR28" s="118"/>
-      <c r="BS28" s="118"/>
-      <c r="BT28" s="118"/>
-      <c r="BU28" s="118"/>
-      <c r="BV28" s="118"/>
-      <c r="BW28" s="119"/>
+      <c r="BO28" s="98"/>
+      <c r="BP28" s="126"/>
+      <c r="BQ28" s="127"/>
+      <c r="BR28" s="127"/>
+      <c r="BS28" s="127"/>
+      <c r="BT28" s="127"/>
+      <c r="BU28" s="127"/>
+      <c r="BV28" s="127"/>
+      <c r="BW28" s="128"/>
       <c r="BX28" s="11"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
@@ -4941,11 +4972,11 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
       <c r="CM28" s="13"/>
-      <c r="CN28" s="132"/>
+      <c r="CN28" s="110"/>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B29" s="64"/>
       <c r="C29" s="10"/>
@@ -5013,15 +5044,15 @@
       <c r="BM29" s="66"/>
       <c r="BN29" s="66"/>
       <c r="BO29" s="67"/>
-      <c r="BP29" s="117"/>
-      <c r="BQ29" s="118"/>
-      <c r="BR29" s="118"/>
-      <c r="BS29" s="118"/>
-      <c r="BT29" s="118"/>
-      <c r="BU29" s="118"/>
-      <c r="BV29" s="118"/>
-      <c r="BW29" s="119"/>
-      <c r="BX29" s="83"/>
+      <c r="BP29" s="126"/>
+      <c r="BQ29" s="127"/>
+      <c r="BR29" s="127"/>
+      <c r="BS29" s="127"/>
+      <c r="BT29" s="127"/>
+      <c r="BU29" s="127"/>
+      <c r="BV29" s="127"/>
+      <c r="BW29" s="128"/>
+      <c r="BX29" s="82"/>
       <c r="BY29" s="73"/>
       <c r="BZ29" s="73"/>
       <c r="CA29" s="73"/>
@@ -5037,110 +5068,116 @@
       <c r="CK29" s="66"/>
       <c r="CL29" s="66"/>
       <c r="CM29" s="67"/>
-      <c r="CN29" s="132"/>
+      <c r="CN29" s="110"/>
     </row>
     <row r="30" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="I30" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="104" t="s">
-        <v>32</v>
-      </c>
-      <c r="L30" s="78"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="77"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
       <c r="R30" s="30"/>
       <c r="S30" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="T30" s="78"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
+        <v>31</v>
+      </c>
+      <c r="T30" s="77"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="78"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
       <c r="Z30" s="30"/>
       <c r="AA30" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
+        <v>31</v>
+      </c>
+      <c r="AB30" s="77"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="78"/>
+      <c r="AG30" s="78"/>
       <c r="AH30" s="30"/>
       <c r="AI30" s="30"/>
-      <c r="AJ30" s="82"/>
-      <c r="AK30" s="108"/>
-      <c r="AL30" s="82"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="79"/>
+      <c r="AJ30" s="81"/>
+      <c r="AK30" s="107"/>
+      <c r="AL30" s="81"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="78"/>
+      <c r="AO30" s="78"/>
       <c r="AP30" s="30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AQ30" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AR30" s="80"/>
-      <c r="AS30" s="81"/>
-      <c r="AT30" s="81"/>
-      <c r="AU30" s="81"/>
-      <c r="AV30" s="81"/>
-      <c r="AW30" s="81"/>
+        <v>31</v>
+      </c>
+      <c r="AR30" s="79"/>
+      <c r="AS30" s="80"/>
+      <c r="AT30" s="80"/>
+      <c r="AU30" s="80"/>
+      <c r="AV30" s="80"/>
+      <c r="AW30" s="80"/>
       <c r="AX30" s="33"/>
       <c r="AY30" s="34"/>
-      <c r="AZ30" s="82"/>
-      <c r="BA30" s="79"/>
-      <c r="BB30" s="79"/>
-      <c r="BC30" s="79"/>
-      <c r="BD30" s="79"/>
-      <c r="BE30" s="79"/>
+      <c r="AZ30" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA30" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="BB30" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC30" s="78"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="78"/>
       <c r="BF30" s="30"/>
       <c r="BG30" s="31"/>
-      <c r="BH30" s="78"/>
-      <c r="BI30" s="79"/>
-      <c r="BJ30" s="79"/>
-      <c r="BK30" s="79"/>
-      <c r="BL30" s="79"/>
-      <c r="BM30" s="79"/>
+      <c r="BH30" s="77"/>
+      <c r="BI30" s="78"/>
+      <c r="BJ30" s="78"/>
+      <c r="BK30" s="78"/>
+      <c r="BL30" s="78"/>
+      <c r="BM30" s="78"/>
       <c r="BN30" s="30"/>
       <c r="BO30" s="31"/>
-      <c r="BP30" s="120"/>
-      <c r="BQ30" s="121"/>
-      <c r="BR30" s="121"/>
-      <c r="BS30" s="121"/>
-      <c r="BT30" s="121"/>
-      <c r="BU30" s="121"/>
-      <c r="BV30" s="121"/>
-      <c r="BW30" s="122"/>
-      <c r="BX30" s="78"/>
-      <c r="BY30" s="79"/>
-      <c r="BZ30" s="79"/>
-      <c r="CA30" s="79"/>
-      <c r="CB30" s="79"/>
-      <c r="CC30" s="79"/>
+      <c r="BP30" s="129"/>
+      <c r="BQ30" s="130"/>
+      <c r="BR30" s="130"/>
+      <c r="BS30" s="130"/>
+      <c r="BT30" s="130"/>
+      <c r="BU30" s="130"/>
+      <c r="BV30" s="130"/>
+      <c r="BW30" s="131"/>
+      <c r="BX30" s="77"/>
+      <c r="BY30" s="78"/>
+      <c r="BZ30" s="78"/>
+      <c r="CA30" s="78"/>
+      <c r="CB30" s="78"/>
+      <c r="CC30" s="78"/>
       <c r="CD30" s="30"/>
       <c r="CE30" s="31"/>
       <c r="CF30" s="29"/>
@@ -5151,105 +5188,120 @@
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
       <c r="CM30" s="31"/>
-      <c r="CN30" s="132"/>
+      <c r="CN30" s="110"/>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A31" s="127" t="s">
+      <c r="A31" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="127"/>
-      <c r="L31" s="127"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="127"/>
-      <c r="O31" s="127"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="127"/>
-      <c r="U31" s="127"/>
-      <c r="V31" s="127"/>
-      <c r="W31" s="127"/>
-      <c r="X31" s="127"/>
-      <c r="Y31" s="127"/>
-      <c r="Z31" s="127"/>
-      <c r="AA31" s="127"/>
-      <c r="AB31" s="127"/>
-      <c r="AC31" s="127"/>
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="127"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="127"/>
-      <c r="AI31" s="127"/>
-      <c r="AJ31" s="127"/>
-      <c r="AK31" s="127"/>
-      <c r="AL31" s="127"/>
-      <c r="AM31" s="127"/>
-      <c r="AN31" s="127"/>
-      <c r="AO31" s="127"/>
-      <c r="AP31" s="127"/>
-      <c r="AQ31" s="127"/>
-      <c r="AR31" s="127"/>
-      <c r="AS31" s="127"/>
-      <c r="AT31" s="127"/>
-      <c r="AU31" s="127"/>
-      <c r="AV31" s="127"/>
-      <c r="AW31" s="127"/>
-      <c r="AX31" s="127"/>
-      <c r="AY31" s="127"/>
-      <c r="AZ31" s="127"/>
-      <c r="BA31" s="127"/>
-      <c r="BB31" s="127"/>
-      <c r="BC31" s="127"/>
-      <c r="BD31" s="127"/>
-      <c r="BE31" s="127"/>
-      <c r="BF31" s="127"/>
-      <c r="BG31" s="127"/>
-      <c r="BH31" s="127"/>
-      <c r="BI31" s="127"/>
-      <c r="BJ31" s="127"/>
-      <c r="BK31" s="127"/>
-      <c r="BL31" s="127"/>
-      <c r="BM31" s="127"/>
-      <c r="BN31" s="127"/>
-      <c r="BO31" s="127"/>
-      <c r="BP31" s="127"/>
-      <c r="BQ31" s="127"/>
-      <c r="BR31" s="127"/>
-      <c r="BS31" s="127"/>
-      <c r="BT31" s="127"/>
-      <c r="BU31" s="127"/>
-      <c r="BV31" s="127"/>
-      <c r="BW31" s="127"/>
-      <c r="BX31" s="127"/>
-      <c r="BY31" s="127"/>
-      <c r="BZ31" s="127"/>
-      <c r="CA31" s="127"/>
-      <c r="CB31" s="127"/>
-      <c r="CC31" s="127"/>
-      <c r="CD31" s="127"/>
-      <c r="CE31" s="127"/>
-      <c r="CF31" s="127"/>
-      <c r="CG31" s="127"/>
-      <c r="CH31" s="127"/>
-      <c r="CI31" s="127"/>
-      <c r="CJ31" s="127"/>
-      <c r="CK31" s="127"/>
-      <c r="CL31" s="127"/>
-      <c r="CM31" s="127"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="115"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="115"/>
+      <c r="AB31" s="115"/>
+      <c r="AC31" s="115"/>
+      <c r="AD31" s="115"/>
+      <c r="AE31" s="115"/>
+      <c r="AF31" s="115"/>
+      <c r="AG31" s="115"/>
+      <c r="AH31" s="115"/>
+      <c r="AI31" s="115"/>
+      <c r="AJ31" s="115"/>
+      <c r="AK31" s="115"/>
+      <c r="AL31" s="115"/>
+      <c r="AM31" s="115"/>
+      <c r="AN31" s="115"/>
+      <c r="AO31" s="115"/>
+      <c r="AP31" s="115"/>
+      <c r="AQ31" s="115"/>
+      <c r="AR31" s="115"/>
+      <c r="AS31" s="115"/>
+      <c r="AT31" s="115"/>
+      <c r="AU31" s="115"/>
+      <c r="AV31" s="115"/>
+      <c r="AW31" s="115"/>
+      <c r="AX31" s="115"/>
+      <c r="AY31" s="115"/>
+      <c r="AZ31" s="115"/>
+      <c r="BA31" s="115"/>
+      <c r="BB31" s="115"/>
+      <c r="BC31" s="115"/>
+      <c r="BD31" s="115"/>
+      <c r="BE31" s="115"/>
+      <c r="BF31" s="115"/>
+      <c r="BG31" s="115"/>
+      <c r="BH31" s="115"/>
+      <c r="BI31" s="115"/>
+      <c r="BJ31" s="115"/>
+      <c r="BK31" s="115"/>
+      <c r="BL31" s="115"/>
+      <c r="BM31" s="115"/>
+      <c r="BN31" s="115"/>
+      <c r="BO31" s="115"/>
+      <c r="BP31" s="115"/>
+      <c r="BQ31" s="115"/>
+      <c r="BR31" s="115"/>
+      <c r="BS31" s="115"/>
+      <c r="BT31" s="115"/>
+      <c r="BU31" s="115"/>
+      <c r="BV31" s="115"/>
+      <c r="BW31" s="115"/>
+      <c r="BX31" s="115"/>
+      <c r="BY31" s="115"/>
+      <c r="BZ31" s="115"/>
+      <c r="CA31" s="115"/>
+      <c r="CB31" s="115"/>
+      <c r="CC31" s="115"/>
+      <c r="CD31" s="115"/>
+      <c r="CE31" s="115"/>
+      <c r="CF31" s="115"/>
+      <c r="CG31" s="115"/>
+      <c r="CH31" s="115"/>
+      <c r="CI31" s="115"/>
+      <c r="CJ31" s="115"/>
+      <c r="CK31" s="115"/>
+      <c r="CL31" s="115"/>
+      <c r="CM31" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="BP6:BW30"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="A31:CM31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:CM3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="CN4:CN30"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="CB4:CE4"/>
@@ -5266,21 +5318,6 @@
     <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="A31:CM31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:CM3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="BP6:BW30"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B30">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -5290,12 +5327,12 @@
       <formula>$CP$7</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:B30">
+  <conditionalFormatting sqref="B6:B30">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",B7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",B7)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/docs/PHAM_Planning_2025_.xlsx
+++ b/docs/PHAM_Planning_2025_.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="725" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{231F269E-B568-4626-9C2E-DFDB0B457A09}"/>
+  <xr:revisionPtr revIDLastSave="755" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BC8B60-63D0-46CA-9C17-0F27D1E67FD1}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
   <si>
     <t>Tâches</t>
   </si>
@@ -1313,92 +1313,92 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1473,8 +1473,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>124239</xdr:colOff>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>132522</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
@@ -1492,7 +1492,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4848597" y="662609"/>
-          <a:ext cx="8519533" cy="4472608"/>
+          <a:ext cx="9654251" cy="4472608"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1911,7 +1911,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="AF6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A30" sqref="A30"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1931,207 +1931,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
     </row>
     <row r="2" spans="1:94" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="121">
+      <c r="B2" s="111">
         <v>151481</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="118" t="s">
+      <c r="C2" s="112"/>
+      <c r="D2" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="118"/>
-      <c r="O2" s="118"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="118"/>
-      <c r="R2" s="118"/>
-      <c r="S2" s="118"/>
-      <c r="T2" s="118"/>
-      <c r="U2" s="118"/>
-      <c r="V2" s="118"/>
-      <c r="W2" s="118"/>
-      <c r="X2" s="118"/>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="118"/>
-      <c r="AA2" s="118"/>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="118"/>
-      <c r="AG2" s="118"/>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="118"/>
-      <c r="AJ2" s="118"/>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="118"/>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="118"/>
-      <c r="AP2" s="118"/>
-      <c r="AQ2" s="118"/>
-      <c r="AR2" s="118" t="s">
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+      <c r="W2" s="129"/>
+      <c r="X2" s="129"/>
+      <c r="Y2" s="129"/>
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="129"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="129"/>
+      <c r="AH2" s="129"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="129"/>
+      <c r="AO2" s="129"/>
+      <c r="AP2" s="129"/>
+      <c r="AQ2" s="129"/>
+      <c r="AR2" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="118"/>
-      <c r="AT2" s="118"/>
-      <c r="AU2" s="118"/>
-      <c r="AV2" s="118"/>
-      <c r="AW2" s="118"/>
-      <c r="AX2" s="118"/>
-      <c r="AY2" s="118"/>
-      <c r="AZ2" s="118"/>
-      <c r="BA2" s="118"/>
-      <c r="BB2" s="118"/>
-      <c r="BC2" s="118"/>
-      <c r="BD2" s="118"/>
-      <c r="BE2" s="118"/>
-      <c r="BF2" s="118"/>
-      <c r="BG2" s="118"/>
-      <c r="BH2" s="118"/>
-      <c r="BI2" s="118"/>
-      <c r="BJ2" s="118"/>
-      <c r="BK2" s="118"/>
-      <c r="BL2" s="118"/>
-      <c r="BM2" s="118"/>
-      <c r="BN2" s="118"/>
-      <c r="BO2" s="118"/>
-      <c r="BP2" s="118"/>
-      <c r="BQ2" s="118"/>
-      <c r="BR2" s="118"/>
-      <c r="BS2" s="118"/>
-      <c r="BT2" s="118"/>
-      <c r="BU2" s="118"/>
-      <c r="BV2" s="118"/>
-      <c r="BW2" s="118"/>
-      <c r="BX2" s="118"/>
-      <c r="BY2" s="118"/>
-      <c r="BZ2" s="118"/>
-      <c r="CA2" s="118"/>
-      <c r="CB2" s="118"/>
-      <c r="CC2" s="118"/>
-      <c r="CD2" s="118"/>
-      <c r="CE2" s="118"/>
-      <c r="CF2" s="118" t="s">
+      <c r="AS2" s="129"/>
+      <c r="AT2" s="129"/>
+      <c r="AU2" s="129"/>
+      <c r="AV2" s="129"/>
+      <c r="AW2" s="129"/>
+      <c r="AX2" s="129"/>
+      <c r="AY2" s="129"/>
+      <c r="AZ2" s="129"/>
+      <c r="BA2" s="129"/>
+      <c r="BB2" s="129"/>
+      <c r="BC2" s="129"/>
+      <c r="BD2" s="129"/>
+      <c r="BE2" s="129"/>
+      <c r="BF2" s="129"/>
+      <c r="BG2" s="129"/>
+      <c r="BH2" s="129"/>
+      <c r="BI2" s="129"/>
+      <c r="BJ2" s="129"/>
+      <c r="BK2" s="129"/>
+      <c r="BL2" s="129"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="129"/>
+      <c r="BO2" s="129"/>
+      <c r="BP2" s="129"/>
+      <c r="BQ2" s="129"/>
+      <c r="BR2" s="129"/>
+      <c r="BS2" s="129"/>
+      <c r="BT2" s="129"/>
+      <c r="BU2" s="129"/>
+      <c r="BV2" s="129"/>
+      <c r="BW2" s="129"/>
+      <c r="BX2" s="129"/>
+      <c r="BY2" s="129"/>
+      <c r="BZ2" s="129"/>
+      <c r="CA2" s="129"/>
+      <c r="CB2" s="129"/>
+      <c r="CC2" s="129"/>
+      <c r="CD2" s="129"/>
+      <c r="CE2" s="129"/>
+      <c r="CF2" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="118"/>
-      <c r="CH2" s="118"/>
-      <c r="CI2" s="118"/>
-      <c r="CJ2" s="118"/>
-      <c r="CK2" s="118"/>
-      <c r="CL2" s="118"/>
-      <c r="CM2" s="118"/>
+      <c r="CG2" s="129"/>
+      <c r="CH2" s="129"/>
+      <c r="CI2" s="129"/>
+      <c r="CJ2" s="129"/>
+      <c r="CK2" s="129"/>
+      <c r="CL2" s="129"/>
+      <c r="CM2" s="129"/>
     </row>
     <row r="3" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="119"/>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119"/>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
-      <c r="V3" s="119"/>
-      <c r="W3" s="119"/>
-      <c r="X3" s="119"/>
-      <c r="Y3" s="119"/>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="119"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="119"/>
-      <c r="AE3" s="119"/>
-      <c r="AF3" s="119"/>
-      <c r="AG3" s="119"/>
-      <c r="AH3" s="119"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="119"/>
-      <c r="AK3" s="119"/>
-      <c r="AL3" s="119"/>
-      <c r="AM3" s="119"/>
-      <c r="AN3" s="119"/>
-      <c r="AO3" s="119"/>
-      <c r="AP3" s="119"/>
-      <c r="AQ3" s="119"/>
-      <c r="AR3" s="119"/>
-      <c r="AS3" s="119"/>
-      <c r="AT3" s="119"/>
-      <c r="AU3" s="119"/>
-      <c r="AV3" s="119"/>
-      <c r="AW3" s="119"/>
-      <c r="AX3" s="119"/>
-      <c r="AY3" s="119"/>
-      <c r="AZ3" s="119"/>
-      <c r="BA3" s="119"/>
-      <c r="BB3" s="119"/>
-      <c r="BC3" s="119"/>
-      <c r="BD3" s="119"/>
-      <c r="BE3" s="119"/>
-      <c r="BF3" s="119"/>
-      <c r="BG3" s="119"/>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="119"/>
-      <c r="BJ3" s="119"/>
-      <c r="BK3" s="119"/>
-      <c r="BL3" s="119"/>
-      <c r="BM3" s="119"/>
-      <c r="BN3" s="119"/>
-      <c r="BO3" s="119"/>
-      <c r="BP3" s="119"/>
-      <c r="BQ3" s="119"/>
-      <c r="BR3" s="119"/>
-      <c r="BS3" s="119"/>
-      <c r="BT3" s="119"/>
-      <c r="BU3" s="119"/>
-      <c r="BV3" s="119"/>
-      <c r="BW3" s="119"/>
-      <c r="BX3" s="119"/>
-      <c r="BY3" s="119"/>
-      <c r="BZ3" s="119"/>
-      <c r="CA3" s="119"/>
-      <c r="CB3" s="119"/>
-      <c r="CC3" s="119"/>
-      <c r="CD3" s="119"/>
-      <c r="CE3" s="119"/>
-      <c r="CF3" s="119"/>
-      <c r="CG3" s="119"/>
-      <c r="CH3" s="119"/>
-      <c r="CI3" s="119"/>
-      <c r="CJ3" s="119"/>
-      <c r="CK3" s="119"/>
-      <c r="CL3" s="119"/>
-      <c r="CM3" s="119"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="130"/>
+      <c r="T3" s="130"/>
+      <c r="U3" s="130"/>
+      <c r="V3" s="130"/>
+      <c r="W3" s="130"/>
+      <c r="X3" s="130"/>
+      <c r="Y3" s="130"/>
+      <c r="Z3" s="130"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="130"/>
+      <c r="AC3" s="130"/>
+      <c r="AD3" s="130"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="130"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="130"/>
+      <c r="AI3" s="130"/>
+      <c r="AJ3" s="130"/>
+      <c r="AK3" s="130"/>
+      <c r="AL3" s="130"/>
+      <c r="AM3" s="130"/>
+      <c r="AN3" s="130"/>
+      <c r="AO3" s="130"/>
+      <c r="AP3" s="130"/>
+      <c r="AQ3" s="130"/>
+      <c r="AR3" s="130"/>
+      <c r="AS3" s="130"/>
+      <c r="AT3" s="130"/>
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="130"/>
+      <c r="AW3" s="130"/>
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="130"/>
+      <c r="BA3" s="130"/>
+      <c r="BB3" s="130"/>
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="130"/>
+      <c r="BE3" s="130"/>
+      <c r="BF3" s="130"/>
+      <c r="BG3" s="130"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="130"/>
+      <c r="BJ3" s="130"/>
+      <c r="BK3" s="130"/>
+      <c r="BL3" s="130"/>
+      <c r="BM3" s="130"/>
+      <c r="BN3" s="130"/>
+      <c r="BO3" s="130"/>
+      <c r="BP3" s="130"/>
+      <c r="BQ3" s="130"/>
+      <c r="BR3" s="130"/>
+      <c r="BS3" s="130"/>
+      <c r="BT3" s="130"/>
+      <c r="BU3" s="130"/>
+      <c r="BV3" s="130"/>
+      <c r="BW3" s="130"/>
+      <c r="BX3" s="130"/>
+      <c r="BY3" s="130"/>
+      <c r="BZ3" s="130"/>
+      <c r="CA3" s="130"/>
+      <c r="CB3" s="130"/>
+      <c r="CC3" s="130"/>
+      <c r="CD3" s="130"/>
+      <c r="CE3" s="130"/>
+      <c r="CF3" s="130"/>
+      <c r="CG3" s="130"/>
+      <c r="CH3" s="130"/>
+      <c r="CI3" s="130"/>
+      <c r="CJ3" s="130"/>
+      <c r="CK3" s="130"/>
+      <c r="CL3" s="130"/>
+      <c r="CM3" s="130"/>
     </row>
     <row r="4" spans="1:94" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="127" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2140,144 +2140,144 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="113">
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124">
         <v>45796</v>
       </c>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="111" t="s">
+      <c r="I4" s="124"/>
+      <c r="J4" s="124"/>
+      <c r="K4" s="125"/>
+      <c r="L4" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="112"/>
-      <c r="N4" s="112"/>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113">
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124">
         <v>45797</v>
       </c>
-      <c r="Q4" s="113"/>
-      <c r="R4" s="113"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="111" t="s">
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="125"/>
+      <c r="T4" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="112"/>
-      <c r="V4" s="112"/>
-      <c r="W4" s="112"/>
-      <c r="X4" s="113">
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123"/>
+      <c r="X4" s="124">
         <v>45798</v>
       </c>
-      <c r="Y4" s="113"/>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="114"/>
-      <c r="AB4" s="111" t="s">
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="125"/>
+      <c r="AB4" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="112"/>
-      <c r="AE4" s="112"/>
-      <c r="AF4" s="112"/>
-      <c r="AG4" s="113">
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123"/>
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="124">
         <v>45799</v>
       </c>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="113"/>
-      <c r="AJ4" s="113"/>
-      <c r="AK4" s="114"/>
-      <c r="AL4" s="111" t="s">
+      <c r="AH4" s="124"/>
+      <c r="AI4" s="124"/>
+      <c r="AJ4" s="124"/>
+      <c r="AK4" s="125"/>
+      <c r="AL4" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="112"/>
-      <c r="AN4" s="113">
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="124">
         <v>45800</v>
       </c>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="113"/>
-      <c r="AQ4" s="114"/>
-      <c r="AR4" s="111" t="s">
+      <c r="AO4" s="124"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="112"/>
-      <c r="AT4" s="112"/>
-      <c r="AU4" s="112"/>
-      <c r="AV4" s="113">
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="124">
         <v>45803</v>
       </c>
-      <c r="AW4" s="113"/>
-      <c r="AX4" s="113"/>
-      <c r="AY4" s="114"/>
-      <c r="AZ4" s="111" t="s">
+      <c r="AW4" s="124"/>
+      <c r="AX4" s="124"/>
+      <c r="AY4" s="125"/>
+      <c r="AZ4" s="122" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="112"/>
-      <c r="BB4" s="112"/>
-      <c r="BC4" s="112"/>
-      <c r="BD4" s="113">
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="124">
         <v>45804</v>
       </c>
-      <c r="BE4" s="113"/>
-      <c r="BF4" s="113"/>
-      <c r="BG4" s="114"/>
-      <c r="BH4" s="111" t="s">
+      <c r="BE4" s="124"/>
+      <c r="BF4" s="124"/>
+      <c r="BG4" s="125"/>
+      <c r="BH4" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="112"/>
-      <c r="BJ4" s="112"/>
-      <c r="BK4" s="112"/>
-      <c r="BL4" s="113">
+      <c r="BI4" s="123"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="123"/>
+      <c r="BL4" s="124">
         <v>45805</v>
       </c>
-      <c r="BM4" s="113"/>
-      <c r="BN4" s="113"/>
-      <c r="BO4" s="114"/>
-      <c r="BP4" s="111" t="s">
+      <c r="BM4" s="124"/>
+      <c r="BN4" s="124"/>
+      <c r="BO4" s="125"/>
+      <c r="BP4" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="112"/>
-      <c r="BR4" s="112"/>
-      <c r="BS4" s="112"/>
-      <c r="BT4" s="113">
+      <c r="BQ4" s="123"/>
+      <c r="BR4" s="123"/>
+      <c r="BS4" s="123"/>
+      <c r="BT4" s="124">
         <v>45806</v>
       </c>
-      <c r="BU4" s="113"/>
-      <c r="BV4" s="113"/>
-      <c r="BW4" s="114"/>
-      <c r="BX4" s="111" t="s">
+      <c r="BU4" s="124"/>
+      <c r="BV4" s="124"/>
+      <c r="BW4" s="125"/>
+      <c r="BX4" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="112"/>
-      <c r="BZ4" s="112"/>
-      <c r="CA4" s="112"/>
-      <c r="CB4" s="113">
+      <c r="BY4" s="123"/>
+      <c r="BZ4" s="123"/>
+      <c r="CA4" s="123"/>
+      <c r="CB4" s="124">
         <v>45807</v>
       </c>
-      <c r="CC4" s="113"/>
-      <c r="CD4" s="113"/>
-      <c r="CE4" s="114"/>
-      <c r="CF4" s="111" t="s">
+      <c r="CC4" s="124"/>
+      <c r="CD4" s="124"/>
+      <c r="CE4" s="125"/>
+      <c r="CF4" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="112"/>
-      <c r="CH4" s="112"/>
-      <c r="CI4" s="112"/>
-      <c r="CJ4" s="113">
+      <c r="CG4" s="123"/>
+      <c r="CH4" s="123"/>
+      <c r="CI4" s="123"/>
+      <c r="CJ4" s="124">
         <v>45810</v>
       </c>
-      <c r="CK4" s="113"/>
-      <c r="CL4" s="113"/>
-      <c r="CM4" s="114"/>
-      <c r="CN4" s="110" t="s">
+      <c r="CK4" s="124"/>
+      <c r="CL4" s="124"/>
+      <c r="CM4" s="125"/>
+      <c r="CN4" s="131" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="128"/>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="CM5" s="6">
         <v>8</v>
       </c>
-      <c r="CN5" s="110"/>
+      <c r="CN5" s="131"/>
     </row>
     <row r="6" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="84" t="s">
@@ -2622,16 +2622,16 @@
       <c r="BM6" s="86"/>
       <c r="BN6" s="86"/>
       <c r="BO6" s="87"/>
-      <c r="BP6" s="123" t="s">
+      <c r="BP6" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="BQ6" s="124"/>
-      <c r="BR6" s="124"/>
-      <c r="BS6" s="124"/>
-      <c r="BT6" s="124"/>
-      <c r="BU6" s="124"/>
-      <c r="BV6" s="124"/>
-      <c r="BW6" s="125"/>
+      <c r="BQ6" s="114"/>
+      <c r="BR6" s="114"/>
+      <c r="BS6" s="114"/>
+      <c r="BT6" s="114"/>
+      <c r="BU6" s="114"/>
+      <c r="BV6" s="114"/>
+      <c r="BW6" s="115"/>
       <c r="BX6" s="85"/>
       <c r="BY6" s="86"/>
       <c r="BZ6" s="86"/>
@@ -2648,7 +2648,7 @@
       <c r="CK6" s="86"/>
       <c r="CL6" s="86"/>
       <c r="CM6" s="87"/>
-      <c r="CN6" s="110"/>
+      <c r="CN6" s="131"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="83" t="s">
@@ -2728,14 +2728,14 @@
       <c r="BM7" s="90"/>
       <c r="BN7" s="90"/>
       <c r="BO7" s="91"/>
-      <c r="BP7" s="126"/>
-      <c r="BQ7" s="127"/>
-      <c r="BR7" s="127"/>
-      <c r="BS7" s="127"/>
-      <c r="BT7" s="127"/>
-      <c r="BU7" s="127"/>
-      <c r="BV7" s="127"/>
-      <c r="BW7" s="128"/>
+      <c r="BP7" s="116"/>
+      <c r="BQ7" s="117"/>
+      <c r="BR7" s="117"/>
+      <c r="BS7" s="117"/>
+      <c r="BT7" s="117"/>
+      <c r="BU7" s="117"/>
+      <c r="BV7" s="117"/>
+      <c r="BW7" s="118"/>
       <c r="BX7" s="92"/>
       <c r="BY7" s="90"/>
       <c r="BZ7" s="90"/>
@@ -2752,7 +2752,7 @@
       <c r="CK7" s="90"/>
       <c r="CL7" s="90"/>
       <c r="CM7" s="91"/>
-      <c r="CN7" s="110"/>
+      <c r="CN7" s="131"/>
       <c r="CP7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="76"/>
       <c r="D8" s="92"/>
@@ -2833,14 +2833,14 @@
       <c r="BM8" s="90"/>
       <c r="BN8" s="90"/>
       <c r="BO8" s="91"/>
-      <c r="BP8" s="126"/>
-      <c r="BQ8" s="127"/>
-      <c r="BR8" s="127"/>
-      <c r="BS8" s="127"/>
-      <c r="BT8" s="127"/>
-      <c r="BU8" s="127"/>
-      <c r="BV8" s="127"/>
-      <c r="BW8" s="128"/>
+      <c r="BP8" s="116"/>
+      <c r="BQ8" s="117"/>
+      <c r="BR8" s="117"/>
+      <c r="BS8" s="117"/>
+      <c r="BT8" s="117"/>
+      <c r="BU8" s="117"/>
+      <c r="BV8" s="117"/>
+      <c r="BW8" s="118"/>
       <c r="BX8" s="92"/>
       <c r="BY8" s="90"/>
       <c r="BZ8" s="90"/>
@@ -2857,7 +2857,7 @@
       <c r="CK8" s="90"/>
       <c r="CL8" s="90"/>
       <c r="CM8" s="91"/>
-      <c r="CN8" s="110"/>
+      <c r="CN8" s="131"/>
       <c r="CP8" s="2" t="s">
         <v>33</v>
       </c>
@@ -2941,21 +2941,23 @@
       <c r="BF9" s="90"/>
       <c r="BG9" s="91"/>
       <c r="BH9" s="92"/>
-      <c r="BI9" s="90"/>
+      <c r="BI9" s="90" t="s">
+        <v>31</v>
+      </c>
       <c r="BJ9" s="90"/>
       <c r="BK9" s="90"/>
       <c r="BL9" s="90"/>
       <c r="BM9" s="90"/>
       <c r="BN9" s="90"/>
       <c r="BO9" s="91"/>
-      <c r="BP9" s="126"/>
-      <c r="BQ9" s="127"/>
-      <c r="BR9" s="127"/>
-      <c r="BS9" s="127"/>
-      <c r="BT9" s="127"/>
-      <c r="BU9" s="127"/>
-      <c r="BV9" s="127"/>
-      <c r="BW9" s="128"/>
+      <c r="BP9" s="116"/>
+      <c r="BQ9" s="117"/>
+      <c r="BR9" s="117"/>
+      <c r="BS9" s="117"/>
+      <c r="BT9" s="117"/>
+      <c r="BU9" s="117"/>
+      <c r="BV9" s="117"/>
+      <c r="BW9" s="118"/>
       <c r="BX9" s="92"/>
       <c r="BY9" s="90"/>
       <c r="BZ9" s="90"/>
@@ -2972,7 +2974,7 @@
       <c r="CK9" s="90"/>
       <c r="CL9" s="90"/>
       <c r="CM9" s="91"/>
-      <c r="CN9" s="110"/>
+      <c r="CN9" s="131"/>
     </row>
     <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
@@ -3046,14 +3048,14 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="12"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="126"/>
-      <c r="BQ10" s="127"/>
-      <c r="BR10" s="127"/>
-      <c r="BS10" s="127"/>
-      <c r="BT10" s="127"/>
-      <c r="BU10" s="127"/>
-      <c r="BV10" s="127"/>
-      <c r="BW10" s="128"/>
+      <c r="BP10" s="116"/>
+      <c r="BQ10" s="117"/>
+      <c r="BR10" s="117"/>
+      <c r="BS10" s="117"/>
+      <c r="BT10" s="117"/>
+      <c r="BU10" s="117"/>
+      <c r="BV10" s="117"/>
+      <c r="BW10" s="118"/>
       <c r="BX10" s="11"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -3070,7 +3072,7 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
       <c r="CM10" s="13"/>
-      <c r="CN10" s="110"/>
+      <c r="CN10" s="131"/>
     </row>
     <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
@@ -3146,14 +3148,14 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="8"/>
-      <c r="BP11" s="126"/>
-      <c r="BQ11" s="127"/>
-      <c r="BR11" s="127"/>
-      <c r="BS11" s="127"/>
-      <c r="BT11" s="127"/>
-      <c r="BU11" s="127"/>
-      <c r="BV11" s="127"/>
-      <c r="BW11" s="128"/>
+      <c r="BP11" s="116"/>
+      <c r="BQ11" s="117"/>
+      <c r="BR11" s="117"/>
+      <c r="BS11" s="117"/>
+      <c r="BT11" s="117"/>
+      <c r="BU11" s="117"/>
+      <c r="BV11" s="117"/>
+      <c r="BW11" s="118"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7"/>
@@ -3170,7 +3172,7 @@
       <c r="CK11" s="7"/>
       <c r="CL11" s="7"/>
       <c r="CM11" s="8"/>
-      <c r="CN11" s="110"/>
+      <c r="CN11" s="131"/>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -3246,14 +3248,14 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="12"/>
       <c r="BO12" s="13"/>
-      <c r="BP12" s="126"/>
-      <c r="BQ12" s="127"/>
-      <c r="BR12" s="127"/>
-      <c r="BS12" s="127"/>
-      <c r="BT12" s="127"/>
-      <c r="BU12" s="127"/>
-      <c r="BV12" s="127"/>
-      <c r="BW12" s="128"/>
+      <c r="BP12" s="116"/>
+      <c r="BQ12" s="117"/>
+      <c r="BR12" s="117"/>
+      <c r="BS12" s="117"/>
+      <c r="BT12" s="117"/>
+      <c r="BU12" s="117"/>
+      <c r="BV12" s="117"/>
+      <c r="BW12" s="118"/>
       <c r="BX12" s="11"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
@@ -3270,7 +3272,7 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
       <c r="CM12" s="13"/>
-      <c r="CN12" s="110"/>
+      <c r="CN12" s="131"/>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
@@ -3356,14 +3358,14 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="13"/>
-      <c r="BP13" s="126"/>
-      <c r="BQ13" s="127"/>
-      <c r="BR13" s="127"/>
-      <c r="BS13" s="127"/>
-      <c r="BT13" s="127"/>
-      <c r="BU13" s="127"/>
-      <c r="BV13" s="127"/>
-      <c r="BW13" s="128"/>
+      <c r="BP13" s="116"/>
+      <c r="BQ13" s="117"/>
+      <c r="BR13" s="117"/>
+      <c r="BS13" s="117"/>
+      <c r="BT13" s="117"/>
+      <c r="BU13" s="117"/>
+      <c r="BV13" s="117"/>
+      <c r="BW13" s="118"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
@@ -3380,7 +3382,7 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
       <c r="CM13" s="13"/>
-      <c r="CN13" s="110"/>
+      <c r="CN13" s="131"/>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
@@ -3458,14 +3460,14 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="12"/>
       <c r="BO14" s="13"/>
-      <c r="BP14" s="126"/>
-      <c r="BQ14" s="127"/>
-      <c r="BR14" s="127"/>
-      <c r="BS14" s="127"/>
-      <c r="BT14" s="127"/>
-      <c r="BU14" s="127"/>
-      <c r="BV14" s="127"/>
-      <c r="BW14" s="128"/>
+      <c r="BP14" s="116"/>
+      <c r="BQ14" s="117"/>
+      <c r="BR14" s="117"/>
+      <c r="BS14" s="117"/>
+      <c r="BT14" s="117"/>
+      <c r="BU14" s="117"/>
+      <c r="BV14" s="117"/>
+      <c r="BW14" s="118"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
@@ -3482,7 +3484,7 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
       <c r="CM14" s="13"/>
-      <c r="CN14" s="110"/>
+      <c r="CN14" s="131"/>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
@@ -3556,14 +3558,14 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="12"/>
       <c r="BO15" s="13"/>
-      <c r="BP15" s="126"/>
-      <c r="BQ15" s="127"/>
-      <c r="BR15" s="127"/>
-      <c r="BS15" s="127"/>
-      <c r="BT15" s="127"/>
-      <c r="BU15" s="127"/>
-      <c r="BV15" s="127"/>
-      <c r="BW15" s="128"/>
+      <c r="BP15" s="116"/>
+      <c r="BQ15" s="117"/>
+      <c r="BR15" s="117"/>
+      <c r="BS15" s="117"/>
+      <c r="BT15" s="117"/>
+      <c r="BU15" s="117"/>
+      <c r="BV15" s="117"/>
+      <c r="BW15" s="118"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
@@ -3580,7 +3582,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
       <c r="CM15" s="13"/>
-      <c r="CN15" s="110"/>
+      <c r="CN15" s="131"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3658,14 +3660,14 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="12"/>
       <c r="BO16" s="13"/>
-      <c r="BP16" s="126"/>
-      <c r="BQ16" s="127"/>
-      <c r="BR16" s="127"/>
-      <c r="BS16" s="127"/>
-      <c r="BT16" s="127"/>
-      <c r="BU16" s="127"/>
-      <c r="BV16" s="127"/>
-      <c r="BW16" s="128"/>
+      <c r="BP16" s="116"/>
+      <c r="BQ16" s="117"/>
+      <c r="BR16" s="117"/>
+      <c r="BS16" s="117"/>
+      <c r="BT16" s="117"/>
+      <c r="BU16" s="117"/>
+      <c r="BV16" s="117"/>
+      <c r="BW16" s="118"/>
       <c r="BX16" s="11"/>
       <c r="BY16" s="12"/>
       <c r="BZ16" s="12"/>
@@ -3682,7 +3684,7 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
       <c r="CM16" s="13"/>
-      <c r="CN16" s="110"/>
+      <c r="CN16" s="131"/>
     </row>
     <row r="17" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
@@ -3762,14 +3764,14 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="13"/>
-      <c r="BP17" s="126"/>
-      <c r="BQ17" s="127"/>
-      <c r="BR17" s="127"/>
-      <c r="BS17" s="127"/>
-      <c r="BT17" s="127"/>
-      <c r="BU17" s="127"/>
-      <c r="BV17" s="127"/>
-      <c r="BW17" s="128"/>
+      <c r="BP17" s="116"/>
+      <c r="BQ17" s="117"/>
+      <c r="BR17" s="117"/>
+      <c r="BS17" s="117"/>
+      <c r="BT17" s="117"/>
+      <c r="BU17" s="117"/>
+      <c r="BV17" s="117"/>
+      <c r="BW17" s="118"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
@@ -3786,7 +3788,7 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="13"/>
-      <c r="CN17" s="110"/>
+      <c r="CN17" s="131"/>
     </row>
     <row r="18" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
@@ -3860,14 +3862,14 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
       <c r="BO18" s="13"/>
-      <c r="BP18" s="126"/>
-      <c r="BQ18" s="127"/>
-      <c r="BR18" s="127"/>
-      <c r="BS18" s="127"/>
-      <c r="BT18" s="127"/>
-      <c r="BU18" s="127"/>
-      <c r="BV18" s="127"/>
-      <c r="BW18" s="128"/>
+      <c r="BP18" s="116"/>
+      <c r="BQ18" s="117"/>
+      <c r="BR18" s="117"/>
+      <c r="BS18" s="117"/>
+      <c r="BT18" s="117"/>
+      <c r="BU18" s="117"/>
+      <c r="BV18" s="117"/>
+      <c r="BW18" s="118"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
@@ -3884,7 +3886,7 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="13"/>
-      <c r="CN18" s="110"/>
+      <c r="CN18" s="131"/>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
@@ -3962,14 +3964,14 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="12"/>
       <c r="BO19" s="13"/>
-      <c r="BP19" s="126"/>
-      <c r="BQ19" s="127"/>
-      <c r="BR19" s="127"/>
-      <c r="BS19" s="127"/>
-      <c r="BT19" s="127"/>
-      <c r="BU19" s="127"/>
-      <c r="BV19" s="127"/>
-      <c r="BW19" s="128"/>
+      <c r="BP19" s="116"/>
+      <c r="BQ19" s="117"/>
+      <c r="BR19" s="117"/>
+      <c r="BS19" s="117"/>
+      <c r="BT19" s="117"/>
+      <c r="BU19" s="117"/>
+      <c r="BV19" s="117"/>
+      <c r="BW19" s="118"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
@@ -3986,7 +3988,7 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="13"/>
-      <c r="CN19" s="110"/>
+      <c r="CN19" s="131"/>
     </row>
     <row r="20" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
@@ -4072,14 +4074,14 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="12"/>
       <c r="BO20" s="13"/>
-      <c r="BP20" s="126"/>
-      <c r="BQ20" s="127"/>
-      <c r="BR20" s="127"/>
-      <c r="BS20" s="127"/>
-      <c r="BT20" s="127"/>
-      <c r="BU20" s="127"/>
-      <c r="BV20" s="127"/>
-      <c r="BW20" s="128"/>
+      <c r="BP20" s="116"/>
+      <c r="BQ20" s="117"/>
+      <c r="BR20" s="117"/>
+      <c r="BS20" s="117"/>
+      <c r="BT20" s="117"/>
+      <c r="BU20" s="117"/>
+      <c r="BV20" s="117"/>
+      <c r="BW20" s="118"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
@@ -4096,7 +4098,7 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
       <c r="CM20" s="13"/>
-      <c r="CN20" s="110"/>
+      <c r="CN20" s="131"/>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
@@ -4180,14 +4182,14 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="12"/>
       <c r="BO21" s="13"/>
-      <c r="BP21" s="126"/>
-      <c r="BQ21" s="127"/>
-      <c r="BR21" s="127"/>
-      <c r="BS21" s="127"/>
-      <c r="BT21" s="127"/>
-      <c r="BU21" s="127"/>
-      <c r="BV21" s="127"/>
-      <c r="BW21" s="128"/>
+      <c r="BP21" s="116"/>
+      <c r="BQ21" s="117"/>
+      <c r="BR21" s="117"/>
+      <c r="BS21" s="117"/>
+      <c r="BT21" s="117"/>
+      <c r="BU21" s="117"/>
+      <c r="BV21" s="117"/>
+      <c r="BW21" s="118"/>
       <c r="BX21" s="11"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
@@ -4204,7 +4206,7 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
       <c r="CM21" s="13"/>
-      <c r="CN21" s="110"/>
+      <c r="CN21" s="131"/>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
@@ -4292,14 +4294,14 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="12"/>
       <c r="BO22" s="13"/>
-      <c r="BP22" s="126"/>
-      <c r="BQ22" s="127"/>
-      <c r="BR22" s="127"/>
-      <c r="BS22" s="127"/>
-      <c r="BT22" s="127"/>
-      <c r="BU22" s="127"/>
-      <c r="BV22" s="127"/>
-      <c r="BW22" s="128"/>
+      <c r="BP22" s="116"/>
+      <c r="BQ22" s="117"/>
+      <c r="BR22" s="117"/>
+      <c r="BS22" s="117"/>
+      <c r="BT22" s="117"/>
+      <c r="BU22" s="117"/>
+      <c r="BV22" s="117"/>
+      <c r="BW22" s="118"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
@@ -4316,7 +4318,7 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
       <c r="CM22" s="13"/>
-      <c r="CN22" s="110"/>
+      <c r="CN22" s="131"/>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
@@ -4402,14 +4404,14 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12"/>
       <c r="BO23" s="13"/>
-      <c r="BP23" s="126"/>
-      <c r="BQ23" s="127"/>
-      <c r="BR23" s="127"/>
-      <c r="BS23" s="127"/>
-      <c r="BT23" s="127"/>
-      <c r="BU23" s="127"/>
-      <c r="BV23" s="127"/>
-      <c r="BW23" s="128"/>
+      <c r="BP23" s="116"/>
+      <c r="BQ23" s="117"/>
+      <c r="BR23" s="117"/>
+      <c r="BS23" s="117"/>
+      <c r="BT23" s="117"/>
+      <c r="BU23" s="117"/>
+      <c r="BV23" s="117"/>
+      <c r="BW23" s="118"/>
       <c r="BX23" s="11"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
@@ -4426,7 +4428,7 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
       <c r="CM23" s="13"/>
-      <c r="CN23" s="110"/>
+      <c r="CN23" s="131"/>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
@@ -4512,22 +4514,36 @@
       <c r="BG24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="BH24" s="11"/>
+      <c r="BH24" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="BI24" s="12"/>
-      <c r="BJ24" s="12"/>
-      <c r="BK24" s="12"/>
-      <c r="BL24" s="12"/>
-      <c r="BM24" s="12"/>
-      <c r="BN24" s="12"/>
-      <c r="BO24" s="13"/>
-      <c r="BP24" s="126"/>
-      <c r="BQ24" s="127"/>
-      <c r="BR24" s="127"/>
-      <c r="BS24" s="127"/>
-      <c r="BT24" s="127"/>
-      <c r="BU24" s="127"/>
-      <c r="BV24" s="127"/>
-      <c r="BW24" s="128"/>
+      <c r="BJ24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BN24" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP24" s="116"/>
+      <c r="BQ24" s="117"/>
+      <c r="BR24" s="117"/>
+      <c r="BS24" s="117"/>
+      <c r="BT24" s="117"/>
+      <c r="BU24" s="117"/>
+      <c r="BV24" s="117"/>
+      <c r="BW24" s="118"/>
       <c r="BX24" s="11"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
@@ -4544,13 +4560,15 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
       <c r="CM24" s="13"/>
-      <c r="CN24" s="110"/>
+      <c r="CN24" s="131"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="15"/>
+      <c r="B25" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
@@ -4624,22 +4642,32 @@
       <c r="BG25" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="BH25" s="11"/>
+      <c r="BH25" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="BI25" s="12"/>
-      <c r="BJ25" s="12"/>
-      <c r="BK25" s="12"/>
-      <c r="BL25" s="12"/>
-      <c r="BM25" s="12"/>
+      <c r="BJ25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BL25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BM25" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="BN25" s="12"/>
       <c r="BO25" s="13"/>
-      <c r="BP25" s="126"/>
-      <c r="BQ25" s="127"/>
-      <c r="BR25" s="127"/>
-      <c r="BS25" s="127"/>
-      <c r="BT25" s="127"/>
-      <c r="BU25" s="127"/>
-      <c r="BV25" s="127"/>
-      <c r="BW25" s="128"/>
+      <c r="BP25" s="116"/>
+      <c r="BQ25" s="117"/>
+      <c r="BR25" s="117"/>
+      <c r="BS25" s="117"/>
+      <c r="BT25" s="117"/>
+      <c r="BU25" s="117"/>
+      <c r="BV25" s="117"/>
+      <c r="BW25" s="118"/>
       <c r="BX25" s="11"/>
       <c r="BY25" s="12"/>
       <c r="BZ25" s="12"/>
@@ -4656,13 +4684,15 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
       <c r="CM25" s="13"/>
-      <c r="CN25" s="110"/>
+      <c r="CN25" s="131"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="15" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
@@ -4726,16 +4756,20 @@
       <c r="BK26" s="54"/>
       <c r="BL26" s="54"/>
       <c r="BM26" s="54"/>
-      <c r="BN26" s="12"/>
-      <c r="BO26" s="13"/>
-      <c r="BP26" s="126"/>
-      <c r="BQ26" s="127"/>
-      <c r="BR26" s="127"/>
-      <c r="BS26" s="127"/>
-      <c r="BT26" s="127"/>
-      <c r="BU26" s="127"/>
-      <c r="BV26" s="127"/>
-      <c r="BW26" s="128"/>
+      <c r="BN26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BO26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP26" s="116"/>
+      <c r="BQ26" s="117"/>
+      <c r="BR26" s="117"/>
+      <c r="BS26" s="117"/>
+      <c r="BT26" s="117"/>
+      <c r="BU26" s="117"/>
+      <c r="BV26" s="117"/>
+      <c r="BW26" s="118"/>
       <c r="BX26" s="11"/>
       <c r="BY26" s="12"/>
       <c r="BZ26" s="12"/>
@@ -4752,7 +4786,7 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
       <c r="CM26" s="13"/>
-      <c r="CN26" s="110"/>
+      <c r="CN26" s="131"/>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
@@ -4826,14 +4860,14 @@
       <c r="BM27" s="12"/>
       <c r="BN27" s="12"/>
       <c r="BO27" s="13"/>
-      <c r="BP27" s="126"/>
-      <c r="BQ27" s="127"/>
-      <c r="BR27" s="127"/>
-      <c r="BS27" s="127"/>
-      <c r="BT27" s="127"/>
-      <c r="BU27" s="127"/>
-      <c r="BV27" s="127"/>
-      <c r="BW27" s="128"/>
+      <c r="BP27" s="116"/>
+      <c r="BQ27" s="117"/>
+      <c r="BR27" s="117"/>
+      <c r="BS27" s="117"/>
+      <c r="BT27" s="117"/>
+      <c r="BU27" s="117"/>
+      <c r="BV27" s="117"/>
+      <c r="BW27" s="118"/>
       <c r="BX27" s="11"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
@@ -4850,7 +4884,7 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
       <c r="CM27" s="13"/>
-      <c r="CN27" s="110"/>
+      <c r="CN27" s="131"/>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
@@ -4942,20 +4976,26 @@
       <c r="BG28" s="13"/>
       <c r="BH28" s="11"/>
       <c r="BI28" s="12"/>
-      <c r="BJ28" s="12"/>
-      <c r="BK28" s="12"/>
+      <c r="BJ28" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BK28" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="BL28" s="12"/>
       <c r="BM28" s="62"/>
       <c r="BN28" s="62"/>
-      <c r="BO28" s="98"/>
-      <c r="BP28" s="126"/>
-      <c r="BQ28" s="127"/>
-      <c r="BR28" s="127"/>
-      <c r="BS28" s="127"/>
-      <c r="BT28" s="127"/>
-      <c r="BU28" s="127"/>
-      <c r="BV28" s="127"/>
-      <c r="BW28" s="128"/>
+      <c r="BO28" s="98" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP28" s="116"/>
+      <c r="BQ28" s="117"/>
+      <c r="BR28" s="117"/>
+      <c r="BS28" s="117"/>
+      <c r="BT28" s="117"/>
+      <c r="BU28" s="117"/>
+      <c r="BV28" s="117"/>
+      <c r="BW28" s="118"/>
       <c r="BX28" s="11"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
@@ -4972,7 +5012,7 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
       <c r="CM28" s="13"/>
-      <c r="CN28" s="110"/>
+      <c r="CN28" s="131"/>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
@@ -5044,14 +5084,14 @@
       <c r="BM29" s="66"/>
       <c r="BN29" s="66"/>
       <c r="BO29" s="67"/>
-      <c r="BP29" s="126"/>
-      <c r="BQ29" s="127"/>
-      <c r="BR29" s="127"/>
-      <c r="BS29" s="127"/>
-      <c r="BT29" s="127"/>
-      <c r="BU29" s="127"/>
-      <c r="BV29" s="127"/>
-      <c r="BW29" s="128"/>
+      <c r="BP29" s="116"/>
+      <c r="BQ29" s="117"/>
+      <c r="BR29" s="117"/>
+      <c r="BS29" s="117"/>
+      <c r="BT29" s="117"/>
+      <c r="BU29" s="117"/>
+      <c r="BV29" s="117"/>
+      <c r="BW29" s="118"/>
       <c r="BX29" s="82"/>
       <c r="BY29" s="73"/>
       <c r="BZ29" s="73"/>
@@ -5068,7 +5108,7 @@
       <c r="CK29" s="66"/>
       <c r="CL29" s="66"/>
       <c r="CM29" s="67"/>
-      <c r="CN29" s="110"/>
+      <c r="CN29" s="131"/>
     </row>
     <row r="30" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
@@ -5164,14 +5204,14 @@
       <c r="BM30" s="78"/>
       <c r="BN30" s="30"/>
       <c r="BO30" s="31"/>
-      <c r="BP30" s="129"/>
-      <c r="BQ30" s="130"/>
-      <c r="BR30" s="130"/>
-      <c r="BS30" s="130"/>
-      <c r="BT30" s="130"/>
-      <c r="BU30" s="130"/>
-      <c r="BV30" s="130"/>
-      <c r="BW30" s="131"/>
+      <c r="BP30" s="119"/>
+      <c r="BQ30" s="120"/>
+      <c r="BR30" s="120"/>
+      <c r="BS30" s="120"/>
+      <c r="BT30" s="120"/>
+      <c r="BU30" s="120"/>
+      <c r="BV30" s="120"/>
+      <c r="BW30" s="121"/>
       <c r="BX30" s="77"/>
       <c r="BY30" s="78"/>
       <c r="BZ30" s="78"/>
@@ -5188,120 +5228,105 @@
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
       <c r="CM30" s="31"/>
-      <c r="CN30" s="110"/>
+      <c r="CN30" s="131"/>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="115"/>
-      <c r="X31" s="115"/>
-      <c r="Y31" s="115"/>
-      <c r="Z31" s="115"/>
-      <c r="AA31" s="115"/>
-      <c r="AB31" s="115"/>
-      <c r="AC31" s="115"/>
-      <c r="AD31" s="115"/>
-      <c r="AE31" s="115"/>
-      <c r="AF31" s="115"/>
-      <c r="AG31" s="115"/>
-      <c r="AH31" s="115"/>
-      <c r="AI31" s="115"/>
-      <c r="AJ31" s="115"/>
-      <c r="AK31" s="115"/>
-      <c r="AL31" s="115"/>
-      <c r="AM31" s="115"/>
-      <c r="AN31" s="115"/>
-      <c r="AO31" s="115"/>
-      <c r="AP31" s="115"/>
-      <c r="AQ31" s="115"/>
-      <c r="AR31" s="115"/>
-      <c r="AS31" s="115"/>
-      <c r="AT31" s="115"/>
-      <c r="AU31" s="115"/>
-      <c r="AV31" s="115"/>
-      <c r="AW31" s="115"/>
-      <c r="AX31" s="115"/>
-      <c r="AY31" s="115"/>
-      <c r="AZ31" s="115"/>
-      <c r="BA31" s="115"/>
-      <c r="BB31" s="115"/>
-      <c r="BC31" s="115"/>
-      <c r="BD31" s="115"/>
-      <c r="BE31" s="115"/>
-      <c r="BF31" s="115"/>
-      <c r="BG31" s="115"/>
-      <c r="BH31" s="115"/>
-      <c r="BI31" s="115"/>
-      <c r="BJ31" s="115"/>
-      <c r="BK31" s="115"/>
-      <c r="BL31" s="115"/>
-      <c r="BM31" s="115"/>
-      <c r="BN31" s="115"/>
-      <c r="BO31" s="115"/>
-      <c r="BP31" s="115"/>
-      <c r="BQ31" s="115"/>
-      <c r="BR31" s="115"/>
-      <c r="BS31" s="115"/>
-      <c r="BT31" s="115"/>
-      <c r="BU31" s="115"/>
-      <c r="BV31" s="115"/>
-      <c r="BW31" s="115"/>
-      <c r="BX31" s="115"/>
-      <c r="BY31" s="115"/>
-      <c r="BZ31" s="115"/>
-      <c r="CA31" s="115"/>
-      <c r="CB31" s="115"/>
-      <c r="CC31" s="115"/>
-      <c r="CD31" s="115"/>
-      <c r="CE31" s="115"/>
-      <c r="CF31" s="115"/>
-      <c r="CG31" s="115"/>
-      <c r="CH31" s="115"/>
-      <c r="CI31" s="115"/>
-      <c r="CJ31" s="115"/>
-      <c r="CK31" s="115"/>
-      <c r="CL31" s="115"/>
-      <c r="CM31" s="115"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="126"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="126"/>
+      <c r="R31" s="126"/>
+      <c r="S31" s="126"/>
+      <c r="T31" s="126"/>
+      <c r="U31" s="126"/>
+      <c r="V31" s="126"/>
+      <c r="W31" s="126"/>
+      <c r="X31" s="126"/>
+      <c r="Y31" s="126"/>
+      <c r="Z31" s="126"/>
+      <c r="AA31" s="126"/>
+      <c r="AB31" s="126"/>
+      <c r="AC31" s="126"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="126"/>
+      <c r="AF31" s="126"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="126"/>
+      <c r="AI31" s="126"/>
+      <c r="AJ31" s="126"/>
+      <c r="AK31" s="126"/>
+      <c r="AL31" s="126"/>
+      <c r="AM31" s="126"/>
+      <c r="AN31" s="126"/>
+      <c r="AO31" s="126"/>
+      <c r="AP31" s="126"/>
+      <c r="AQ31" s="126"/>
+      <c r="AR31" s="126"/>
+      <c r="AS31" s="126"/>
+      <c r="AT31" s="126"/>
+      <c r="AU31" s="126"/>
+      <c r="AV31" s="126"/>
+      <c r="AW31" s="126"/>
+      <c r="AX31" s="126"/>
+      <c r="AY31" s="126"/>
+      <c r="AZ31" s="126"/>
+      <c r="BA31" s="126"/>
+      <c r="BB31" s="126"/>
+      <c r="BC31" s="126"/>
+      <c r="BD31" s="126"/>
+      <c r="BE31" s="126"/>
+      <c r="BF31" s="126"/>
+      <c r="BG31" s="126"/>
+      <c r="BH31" s="126"/>
+      <c r="BI31" s="126"/>
+      <c r="BJ31" s="126"/>
+      <c r="BK31" s="126"/>
+      <c r="BL31" s="126"/>
+      <c r="BM31" s="126"/>
+      <c r="BN31" s="126"/>
+      <c r="BO31" s="126"/>
+      <c r="BP31" s="126"/>
+      <c r="BQ31" s="126"/>
+      <c r="BR31" s="126"/>
+      <c r="BS31" s="126"/>
+      <c r="BT31" s="126"/>
+      <c r="BU31" s="126"/>
+      <c r="BV31" s="126"/>
+      <c r="BW31" s="126"/>
+      <c r="BX31" s="126"/>
+      <c r="BY31" s="126"/>
+      <c r="BZ31" s="126"/>
+      <c r="CA31" s="126"/>
+      <c r="CB31" s="126"/>
+      <c r="CC31" s="126"/>
+      <c r="CD31" s="126"/>
+      <c r="CE31" s="126"/>
+      <c r="CF31" s="126"/>
+      <c r="CG31" s="126"/>
+      <c r="CH31" s="126"/>
+      <c r="CI31" s="126"/>
+      <c r="CJ31" s="126"/>
+      <c r="CK31" s="126"/>
+      <c r="CL31" s="126"/>
+      <c r="CM31" s="126"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="BP6:BW30"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="A31:CM31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:CM3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="CN4:CN30"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="CB4:CE4"/>
@@ -5318,6 +5343,21 @@
     <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="A31:CM31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:CM3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="BP4:BS4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="BP6:BW30"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B30">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -5326,8 +5366,6 @@
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$CP$7</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B30">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",B6)))</formula>
     </cfRule>

--- a/docs/PHAM_Planning_2025_.xlsx
+++ b/docs/PHAM_Planning_2025_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduetatfr-my.sharepoint.com/personal/esther_pham_studentfr_ch/Documents/4eme/TPI/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BC8B60-63D0-46CA-9C17-0F27D1E67FD1}"/>
+  <xr:revisionPtr revIDLastSave="782" documentId="13_ncr:1_{6C568C59-21BF-4AFA-A630-9DD46D0CD300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15F97BA1-0527-466C-B95E-80D39C0527C9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="44">
   <si>
     <t>Tâches</t>
   </si>
@@ -195,7 +195,7 @@
     <t>Création des pages d'affichage des articles</t>
   </si>
   <si>
-    <t>Réalisation des tests fonctionnels de l'application ACHANGER</t>
+    <t>Réalisation des tests de la conception</t>
   </si>
 </sst>
 </file>
@@ -1313,6 +1313,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1359,46 +1399,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="90"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1473,8 +1473,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>66</xdr:col>
-      <xdr:colOff>132522</xdr:colOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>124239</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
@@ -1492,7 +1492,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4848597" y="662609"/>
-          <a:ext cx="9654251" cy="4472608"/>
+          <a:ext cx="11898838" cy="4472608"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1911,7 +1911,7 @@
       <pane xSplit="3" ySplit="5" topLeftCell="AF6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="CH29" sqref="CH29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1931,207 +1931,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:94" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
     </row>
     <row r="2" spans="1:94" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="111">
+      <c r="B2" s="121">
         <v>151481</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="129" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="129"/>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129" t="s">
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="118"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="118"/>
+      <c r="AJ2" s="118"/>
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="118"/>
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="118"/>
+      <c r="AP2" s="118"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="129"/>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="129"/>
-      <c r="BA2" s="129"/>
-      <c r="BB2" s="129"/>
-      <c r="BC2" s="129"/>
-      <c r="BD2" s="129"/>
-      <c r="BE2" s="129"/>
-      <c r="BF2" s="129"/>
-      <c r="BG2" s="129"/>
-      <c r="BH2" s="129"/>
-      <c r="BI2" s="129"/>
-      <c r="BJ2" s="129"/>
-      <c r="BK2" s="129"/>
-      <c r="BL2" s="129"/>
-      <c r="BM2" s="129"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="129"/>
-      <c r="BR2" s="129"/>
-      <c r="BS2" s="129"/>
-      <c r="BT2" s="129"/>
-      <c r="BU2" s="129"/>
-      <c r="BV2" s="129"/>
-      <c r="BW2" s="129"/>
-      <c r="BX2" s="129"/>
-      <c r="BY2" s="129"/>
-      <c r="BZ2" s="129"/>
-      <c r="CA2" s="129"/>
-      <c r="CB2" s="129"/>
-      <c r="CC2" s="129"/>
-      <c r="CD2" s="129"/>
-      <c r="CE2" s="129"/>
-      <c r="CF2" s="129" t="s">
+      <c r="AS2" s="118"/>
+      <c r="AT2" s="118"/>
+      <c r="AU2" s="118"/>
+      <c r="AV2" s="118"/>
+      <c r="AW2" s="118"/>
+      <c r="AX2" s="118"/>
+      <c r="AY2" s="118"/>
+      <c r="AZ2" s="118"/>
+      <c r="BA2" s="118"/>
+      <c r="BB2" s="118"/>
+      <c r="BC2" s="118"/>
+      <c r="BD2" s="118"/>
+      <c r="BE2" s="118"/>
+      <c r="BF2" s="118"/>
+      <c r="BG2" s="118"/>
+      <c r="BH2" s="118"/>
+      <c r="BI2" s="118"/>
+      <c r="BJ2" s="118"/>
+      <c r="BK2" s="118"/>
+      <c r="BL2" s="118"/>
+      <c r="BM2" s="118"/>
+      <c r="BN2" s="118"/>
+      <c r="BO2" s="118"/>
+      <c r="BP2" s="118"/>
+      <c r="BQ2" s="118"/>
+      <c r="BR2" s="118"/>
+      <c r="BS2" s="118"/>
+      <c r="BT2" s="118"/>
+      <c r="BU2" s="118"/>
+      <c r="BV2" s="118"/>
+      <c r="BW2" s="118"/>
+      <c r="BX2" s="118"/>
+      <c r="BY2" s="118"/>
+      <c r="BZ2" s="118"/>
+      <c r="CA2" s="118"/>
+      <c r="CB2" s="118"/>
+      <c r="CC2" s="118"/>
+      <c r="CD2" s="118"/>
+      <c r="CE2" s="118"/>
+      <c r="CF2" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="CG2" s="129"/>
-      <c r="CH2" s="129"/>
-      <c r="CI2" s="129"/>
-      <c r="CJ2" s="129"/>
-      <c r="CK2" s="129"/>
-      <c r="CL2" s="129"/>
-      <c r="CM2" s="129"/>
+      <c r="CG2" s="118"/>
+      <c r="CH2" s="118"/>
+      <c r="CI2" s="118"/>
+      <c r="CJ2" s="118"/>
+      <c r="CK2" s="118"/>
+      <c r="CL2" s="118"/>
+      <c r="CM2" s="118"/>
     </row>
     <row r="3" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
-      <c r="K3" s="130"/>
-      <c r="L3" s="130"/>
-      <c r="M3" s="130"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="130"/>
-      <c r="S3" s="130"/>
-      <c r="T3" s="130"/>
-      <c r="U3" s="130"/>
-      <c r="V3" s="130"/>
-      <c r="W3" s="130"/>
-      <c r="X3" s="130"/>
-      <c r="Y3" s="130"/>
-      <c r="Z3" s="130"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="130"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="130"/>
-      <c r="AG3" s="130"/>
-      <c r="AH3" s="130"/>
-      <c r="AI3" s="130"/>
-      <c r="AJ3" s="130"/>
-      <c r="AK3" s="130"/>
-      <c r="AL3" s="130"/>
-      <c r="AM3" s="130"/>
-      <c r="AN3" s="130"/>
-      <c r="AO3" s="130"/>
-      <c r="AP3" s="130"/>
-      <c r="AQ3" s="130"/>
-      <c r="AR3" s="130"/>
-      <c r="AS3" s="130"/>
-      <c r="AT3" s="130"/>
-      <c r="AU3" s="130"/>
-      <c r="AV3" s="130"/>
-      <c r="AW3" s="130"/>
-      <c r="AX3" s="130"/>
-      <c r="AY3" s="130"/>
-      <c r="AZ3" s="130"/>
-      <c r="BA3" s="130"/>
-      <c r="BB3" s="130"/>
-      <c r="BC3" s="130"/>
-      <c r="BD3" s="130"/>
-      <c r="BE3" s="130"/>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130"/>
-      <c r="BJ3" s="130"/>
-      <c r="BK3" s="130"/>
-      <c r="BL3" s="130"/>
-      <c r="BM3" s="130"/>
-      <c r="BN3" s="130"/>
-      <c r="BO3" s="130"/>
-      <c r="BP3" s="130"/>
-      <c r="BQ3" s="130"/>
-      <c r="BR3" s="130"/>
-      <c r="BS3" s="130"/>
-      <c r="BT3" s="130"/>
-      <c r="BU3" s="130"/>
-      <c r="BV3" s="130"/>
-      <c r="BW3" s="130"/>
-      <c r="BX3" s="130"/>
-      <c r="BY3" s="130"/>
-      <c r="BZ3" s="130"/>
-      <c r="CA3" s="130"/>
-      <c r="CB3" s="130"/>
-      <c r="CC3" s="130"/>
-      <c r="CD3" s="130"/>
-      <c r="CE3" s="130"/>
-      <c r="CF3" s="130"/>
-      <c r="CG3" s="130"/>
-      <c r="CH3" s="130"/>
-      <c r="CI3" s="130"/>
-      <c r="CJ3" s="130"/>
-      <c r="CK3" s="130"/>
-      <c r="CL3" s="130"/>
-      <c r="CM3" s="130"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="119"/>
+      <c r="S3" s="119"/>
+      <c r="T3" s="119"/>
+      <c r="U3" s="119"/>
+      <c r="V3" s="119"/>
+      <c r="W3" s="119"/>
+      <c r="X3" s="119"/>
+      <c r="Y3" s="119"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="119"/>
+      <c r="AE3" s="119"/>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+      <c r="AH3" s="119"/>
+      <c r="AI3" s="119"/>
+      <c r="AJ3" s="119"/>
+      <c r="AK3" s="119"/>
+      <c r="AL3" s="119"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="119"/>
+      <c r="AO3" s="119"/>
+      <c r="AP3" s="119"/>
+      <c r="AQ3" s="119"/>
+      <c r="AR3" s="119"/>
+      <c r="AS3" s="119"/>
+      <c r="AT3" s="119"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="119"/>
+      <c r="AW3" s="119"/>
+      <c r="AX3" s="119"/>
+      <c r="AY3" s="119"/>
+      <c r="AZ3" s="119"/>
+      <c r="BA3" s="119"/>
+      <c r="BB3" s="119"/>
+      <c r="BC3" s="119"/>
+      <c r="BD3" s="119"/>
+      <c r="BE3" s="119"/>
+      <c r="BF3" s="119"/>
+      <c r="BG3" s="119"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="119"/>
+      <c r="BJ3" s="119"/>
+      <c r="BK3" s="119"/>
+      <c r="BL3" s="119"/>
+      <c r="BM3" s="119"/>
+      <c r="BN3" s="119"/>
+      <c r="BO3" s="119"/>
+      <c r="BP3" s="119"/>
+      <c r="BQ3" s="119"/>
+      <c r="BR3" s="119"/>
+      <c r="BS3" s="119"/>
+      <c r="BT3" s="119"/>
+      <c r="BU3" s="119"/>
+      <c r="BV3" s="119"/>
+      <c r="BW3" s="119"/>
+      <c r="BX3" s="119"/>
+      <c r="BY3" s="119"/>
+      <c r="BZ3" s="119"/>
+      <c r="CA3" s="119"/>
+      <c r="CB3" s="119"/>
+      <c r="CC3" s="119"/>
+      <c r="CD3" s="119"/>
+      <c r="CE3" s="119"/>
+      <c r="CF3" s="119"/>
+      <c r="CG3" s="119"/>
+      <c r="CH3" s="119"/>
+      <c r="CI3" s="119"/>
+      <c r="CJ3" s="119"/>
+      <c r="CK3" s="119"/>
+      <c r="CL3" s="119"/>
+      <c r="CM3" s="119"/>
     </row>
     <row r="4" spans="1:94" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="116" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -2140,144 +2140,144 @@
       <c r="C4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124">
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="113">
         <v>45796</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="122" t="s">
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="124">
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="113">
         <v>45797</v>
       </c>
-      <c r="Q4" s="124"/>
-      <c r="R4" s="124"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="122" t="s">
+      <c r="Q4" s="113"/>
+      <c r="R4" s="113"/>
+      <c r="S4" s="114"/>
+      <c r="T4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123"/>
-      <c r="X4" s="124">
+      <c r="U4" s="112"/>
+      <c r="V4" s="112"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="113">
         <v>45798</v>
       </c>
-      <c r="Y4" s="124"/>
-      <c r="Z4" s="124"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="122" t="s">
+      <c r="Y4" s="113"/>
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="114"/>
+      <c r="AB4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123"/>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="124">
+      <c r="AC4" s="112"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="112"/>
+      <c r="AF4" s="112"/>
+      <c r="AG4" s="113">
         <v>45799</v>
       </c>
-      <c r="AH4" s="124"/>
-      <c r="AI4" s="124"/>
-      <c r="AJ4" s="124"/>
-      <c r="AK4" s="125"/>
-      <c r="AL4" s="122" t="s">
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="124">
+      <c r="AM4" s="112"/>
+      <c r="AN4" s="113">
         <v>45800</v>
       </c>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="125"/>
-      <c r="AR4" s="122" t="s">
+      <c r="AO4" s="113"/>
+      <c r="AP4" s="113"/>
+      <c r="AQ4" s="114"/>
+      <c r="AR4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="124">
+      <c r="AS4" s="112"/>
+      <c r="AT4" s="112"/>
+      <c r="AU4" s="112"/>
+      <c r="AV4" s="113">
         <v>45803</v>
       </c>
-      <c r="AW4" s="124"/>
-      <c r="AX4" s="124"/>
-      <c r="AY4" s="125"/>
-      <c r="AZ4" s="122" t="s">
+      <c r="AW4" s="113"/>
+      <c r="AX4" s="113"/>
+      <c r="AY4" s="114"/>
+      <c r="AZ4" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="124">
+      <c r="BA4" s="112"/>
+      <c r="BB4" s="112"/>
+      <c r="BC4" s="112"/>
+      <c r="BD4" s="113">
         <v>45804</v>
       </c>
-      <c r="BE4" s="124"/>
-      <c r="BF4" s="124"/>
-      <c r="BG4" s="125"/>
-      <c r="BH4" s="122" t="s">
+      <c r="BE4" s="113"/>
+      <c r="BF4" s="113"/>
+      <c r="BG4" s="114"/>
+      <c r="BH4" s="111" t="s">
         <v>7</v>
       </c>
-      <c r="BI4" s="123"/>
-      <c r="BJ4" s="123"/>
-      <c r="BK4" s="123"/>
-      <c r="BL4" s="124">
+      <c r="BI4" s="112"/>
+      <c r="BJ4" s="112"/>
+      <c r="BK4" s="112"/>
+      <c r="BL4" s="113">
         <v>45805</v>
       </c>
-      <c r="BM4" s="124"/>
-      <c r="BN4" s="124"/>
-      <c r="BO4" s="125"/>
-      <c r="BP4" s="122" t="s">
+      <c r="BM4" s="113"/>
+      <c r="BN4" s="113"/>
+      <c r="BO4" s="114"/>
+      <c r="BP4" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="BQ4" s="123"/>
-      <c r="BR4" s="123"/>
-      <c r="BS4" s="123"/>
-      <c r="BT4" s="124">
+      <c r="BQ4" s="112"/>
+      <c r="BR4" s="112"/>
+      <c r="BS4" s="112"/>
+      <c r="BT4" s="113">
         <v>45806</v>
       </c>
-      <c r="BU4" s="124"/>
-      <c r="BV4" s="124"/>
-      <c r="BW4" s="125"/>
-      <c r="BX4" s="122" t="s">
+      <c r="BU4" s="113"/>
+      <c r="BV4" s="113"/>
+      <c r="BW4" s="114"/>
+      <c r="BX4" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="BY4" s="123"/>
-      <c r="BZ4" s="123"/>
-      <c r="CA4" s="123"/>
-      <c r="CB4" s="124">
+      <c r="BY4" s="112"/>
+      <c r="BZ4" s="112"/>
+      <c r="CA4" s="112"/>
+      <c r="CB4" s="113">
         <v>45807</v>
       </c>
-      <c r="CC4" s="124"/>
-      <c r="CD4" s="124"/>
-      <c r="CE4" s="125"/>
-      <c r="CF4" s="122" t="s">
+      <c r="CC4" s="113"/>
+      <c r="CD4" s="113"/>
+      <c r="CE4" s="114"/>
+      <c r="CF4" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="CG4" s="123"/>
-      <c r="CH4" s="123"/>
-      <c r="CI4" s="123"/>
-      <c r="CJ4" s="124">
+      <c r="CG4" s="112"/>
+      <c r="CH4" s="112"/>
+      <c r="CI4" s="112"/>
+      <c r="CJ4" s="113">
         <v>45810</v>
       </c>
-      <c r="CK4" s="124"/>
-      <c r="CL4" s="124"/>
-      <c r="CM4" s="125"/>
-      <c r="CN4" s="131" t="s">
+      <c r="CK4" s="113"/>
+      <c r="CL4" s="113"/>
+      <c r="CM4" s="114"/>
+      <c r="CN4" s="110" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:94" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="128"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="18" t="s">
         <v>3</v>
       </c>
@@ -2548,7 +2548,7 @@
       <c r="CM5" s="6">
         <v>8</v>
       </c>
-      <c r="CN5" s="131"/>
+      <c r="CN5" s="110"/>
     </row>
     <row r="6" spans="1:94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="84" t="s">
@@ -2622,16 +2622,16 @@
       <c r="BM6" s="86"/>
       <c r="BN6" s="86"/>
       <c r="BO6" s="87"/>
-      <c r="BP6" s="113" t="s">
+      <c r="BP6" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="BQ6" s="114"/>
-      <c r="BR6" s="114"/>
-      <c r="BS6" s="114"/>
-      <c r="BT6" s="114"/>
-      <c r="BU6" s="114"/>
-      <c r="BV6" s="114"/>
-      <c r="BW6" s="115"/>
+      <c r="BQ6" s="124"/>
+      <c r="BR6" s="124"/>
+      <c r="BS6" s="124"/>
+      <c r="BT6" s="124"/>
+      <c r="BU6" s="124"/>
+      <c r="BV6" s="124"/>
+      <c r="BW6" s="125"/>
       <c r="BX6" s="85"/>
       <c r="BY6" s="86"/>
       <c r="BZ6" s="86"/>
@@ -2648,7 +2648,7 @@
       <c r="CK6" s="86"/>
       <c r="CL6" s="86"/>
       <c r="CM6" s="87"/>
-      <c r="CN6" s="131"/>
+      <c r="CN6" s="110"/>
     </row>
     <row r="7" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A7" s="83" t="s">
@@ -2728,14 +2728,14 @@
       <c r="BM7" s="90"/>
       <c r="BN7" s="90"/>
       <c r="BO7" s="91"/>
-      <c r="BP7" s="116"/>
-      <c r="BQ7" s="117"/>
-      <c r="BR7" s="117"/>
-      <c r="BS7" s="117"/>
-      <c r="BT7" s="117"/>
-      <c r="BU7" s="117"/>
-      <c r="BV7" s="117"/>
-      <c r="BW7" s="118"/>
+      <c r="BP7" s="126"/>
+      <c r="BQ7" s="127"/>
+      <c r="BR7" s="127"/>
+      <c r="BS7" s="127"/>
+      <c r="BT7" s="127"/>
+      <c r="BU7" s="127"/>
+      <c r="BV7" s="127"/>
+      <c r="BW7" s="128"/>
       <c r="BX7" s="92"/>
       <c r="BY7" s="90"/>
       <c r="BZ7" s="90"/>
@@ -2752,7 +2752,7 @@
       <c r="CK7" s="90"/>
       <c r="CL7" s="90"/>
       <c r="CM7" s="91"/>
-      <c r="CN7" s="131"/>
+      <c r="CN7" s="110"/>
       <c r="CP7" s="2" t="s">
         <v>32</v>
       </c>
@@ -2833,14 +2833,14 @@
       <c r="BM8" s="90"/>
       <c r="BN8" s="90"/>
       <c r="BO8" s="91"/>
-      <c r="BP8" s="116"/>
-      <c r="BQ8" s="117"/>
-      <c r="BR8" s="117"/>
-      <c r="BS8" s="117"/>
-      <c r="BT8" s="117"/>
-      <c r="BU8" s="117"/>
-      <c r="BV8" s="117"/>
-      <c r="BW8" s="118"/>
+      <c r="BP8" s="126"/>
+      <c r="BQ8" s="127"/>
+      <c r="BR8" s="127"/>
+      <c r="BS8" s="127"/>
+      <c r="BT8" s="127"/>
+      <c r="BU8" s="127"/>
+      <c r="BV8" s="127"/>
+      <c r="BW8" s="128"/>
       <c r="BX8" s="92"/>
       <c r="BY8" s="90"/>
       <c r="BZ8" s="90"/>
@@ -2857,7 +2857,7 @@
       <c r="CK8" s="90"/>
       <c r="CL8" s="90"/>
       <c r="CM8" s="91"/>
-      <c r="CN8" s="131"/>
+      <c r="CN8" s="110"/>
       <c r="CP8" s="2" t="s">
         <v>33</v>
       </c>
@@ -2950,14 +2950,14 @@
       <c r="BM9" s="90"/>
       <c r="BN9" s="90"/>
       <c r="BO9" s="91"/>
-      <c r="BP9" s="116"/>
-      <c r="BQ9" s="117"/>
-      <c r="BR9" s="117"/>
-      <c r="BS9" s="117"/>
-      <c r="BT9" s="117"/>
-      <c r="BU9" s="117"/>
-      <c r="BV9" s="117"/>
-      <c r="BW9" s="118"/>
+      <c r="BP9" s="126"/>
+      <c r="BQ9" s="127"/>
+      <c r="BR9" s="127"/>
+      <c r="BS9" s="127"/>
+      <c r="BT9" s="127"/>
+      <c r="BU9" s="127"/>
+      <c r="BV9" s="127"/>
+      <c r="BW9" s="128"/>
       <c r="BX9" s="92"/>
       <c r="BY9" s="90"/>
       <c r="BZ9" s="90"/>
@@ -2974,7 +2974,7 @@
       <c r="CK9" s="90"/>
       <c r="CL9" s="90"/>
       <c r="CM9" s="91"/>
-      <c r="CN9" s="131"/>
+      <c r="CN9" s="110"/>
     </row>
     <row r="10" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="75" t="s">
@@ -3048,14 +3048,14 @@
       <c r="BM10" s="12"/>
       <c r="BN10" s="12"/>
       <c r="BO10" s="13"/>
-      <c r="BP10" s="116"/>
-      <c r="BQ10" s="117"/>
-      <c r="BR10" s="117"/>
-      <c r="BS10" s="117"/>
-      <c r="BT10" s="117"/>
-      <c r="BU10" s="117"/>
-      <c r="BV10" s="117"/>
-      <c r="BW10" s="118"/>
+      <c r="BP10" s="126"/>
+      <c r="BQ10" s="127"/>
+      <c r="BR10" s="127"/>
+      <c r="BS10" s="127"/>
+      <c r="BT10" s="127"/>
+      <c r="BU10" s="127"/>
+      <c r="BV10" s="127"/>
+      <c r="BW10" s="128"/>
       <c r="BX10" s="11"/>
       <c r="BY10" s="12"/>
       <c r="BZ10" s="12"/>
@@ -3072,7 +3072,7 @@
       <c r="CK10" s="12"/>
       <c r="CL10" s="12"/>
       <c r="CM10" s="13"/>
-      <c r="CN10" s="131"/>
+      <c r="CN10" s="110"/>
     </row>
     <row r="11" spans="1:94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
@@ -3148,14 +3148,14 @@
       <c r="BM11" s="7"/>
       <c r="BN11" s="7"/>
       <c r="BO11" s="8"/>
-      <c r="BP11" s="116"/>
-      <c r="BQ11" s="117"/>
-      <c r="BR11" s="117"/>
-      <c r="BS11" s="117"/>
-      <c r="BT11" s="117"/>
-      <c r="BU11" s="117"/>
-      <c r="BV11" s="117"/>
-      <c r="BW11" s="118"/>
+      <c r="BP11" s="126"/>
+      <c r="BQ11" s="127"/>
+      <c r="BR11" s="127"/>
+      <c r="BS11" s="127"/>
+      <c r="BT11" s="127"/>
+      <c r="BU11" s="127"/>
+      <c r="BV11" s="127"/>
+      <c r="BW11" s="128"/>
       <c r="BX11" s="9"/>
       <c r="BY11" s="7"/>
       <c r="BZ11" s="7"/>
@@ -3172,7 +3172,7 @@
       <c r="CK11" s="7"/>
       <c r="CL11" s="7"/>
       <c r="CM11" s="8"/>
-      <c r="CN11" s="131"/>
+      <c r="CN11" s="110"/>
     </row>
     <row r="12" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="s">
@@ -3248,14 +3248,14 @@
       <c r="BM12" s="12"/>
       <c r="BN12" s="12"/>
       <c r="BO12" s="13"/>
-      <c r="BP12" s="116"/>
-      <c r="BQ12" s="117"/>
-      <c r="BR12" s="117"/>
-      <c r="BS12" s="117"/>
-      <c r="BT12" s="117"/>
-      <c r="BU12" s="117"/>
-      <c r="BV12" s="117"/>
-      <c r="BW12" s="118"/>
+      <c r="BP12" s="126"/>
+      <c r="BQ12" s="127"/>
+      <c r="BR12" s="127"/>
+      <c r="BS12" s="127"/>
+      <c r="BT12" s="127"/>
+      <c r="BU12" s="127"/>
+      <c r="BV12" s="127"/>
+      <c r="BW12" s="128"/>
       <c r="BX12" s="11"/>
       <c r="BY12" s="12"/>
       <c r="BZ12" s="12"/>
@@ -3272,7 +3272,7 @@
       <c r="CK12" s="12"/>
       <c r="CL12" s="12"/>
       <c r="CM12" s="13"/>
-      <c r="CN12" s="131"/>
+      <c r="CN12" s="110"/>
     </row>
     <row r="13" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
@@ -3358,14 +3358,14 @@
       <c r="BM13" s="12"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="13"/>
-      <c r="BP13" s="116"/>
-      <c r="BQ13" s="117"/>
-      <c r="BR13" s="117"/>
-      <c r="BS13" s="117"/>
-      <c r="BT13" s="117"/>
-      <c r="BU13" s="117"/>
-      <c r="BV13" s="117"/>
-      <c r="BW13" s="118"/>
+      <c r="BP13" s="126"/>
+      <c r="BQ13" s="127"/>
+      <c r="BR13" s="127"/>
+      <c r="BS13" s="127"/>
+      <c r="BT13" s="127"/>
+      <c r="BU13" s="127"/>
+      <c r="BV13" s="127"/>
+      <c r="BW13" s="128"/>
       <c r="BX13" s="11"/>
       <c r="BY13" s="12"/>
       <c r="BZ13" s="12"/>
@@ -3382,7 +3382,7 @@
       <c r="CK13" s="12"/>
       <c r="CL13" s="12"/>
       <c r="CM13" s="13"/>
-      <c r="CN13" s="131"/>
+      <c r="CN13" s="110"/>
     </row>
     <row r="14" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
@@ -3460,14 +3460,14 @@
       <c r="BM14" s="12"/>
       <c r="BN14" s="12"/>
       <c r="BO14" s="13"/>
-      <c r="BP14" s="116"/>
-      <c r="BQ14" s="117"/>
-      <c r="BR14" s="117"/>
-      <c r="BS14" s="117"/>
-      <c r="BT14" s="117"/>
-      <c r="BU14" s="117"/>
-      <c r="BV14" s="117"/>
-      <c r="BW14" s="118"/>
+      <c r="BP14" s="126"/>
+      <c r="BQ14" s="127"/>
+      <c r="BR14" s="127"/>
+      <c r="BS14" s="127"/>
+      <c r="BT14" s="127"/>
+      <c r="BU14" s="127"/>
+      <c r="BV14" s="127"/>
+      <c r="BW14" s="128"/>
       <c r="BX14" s="11"/>
       <c r="BY14" s="12"/>
       <c r="BZ14" s="12"/>
@@ -3484,7 +3484,7 @@
       <c r="CK14" s="12"/>
       <c r="CL14" s="12"/>
       <c r="CM14" s="13"/>
-      <c r="CN14" s="131"/>
+      <c r="CN14" s="110"/>
     </row>
     <row r="15" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A15" s="35" t="s">
@@ -3558,14 +3558,14 @@
       <c r="BM15" s="12"/>
       <c r="BN15" s="12"/>
       <c r="BO15" s="13"/>
-      <c r="BP15" s="116"/>
-      <c r="BQ15" s="117"/>
-      <c r="BR15" s="117"/>
-      <c r="BS15" s="117"/>
-      <c r="BT15" s="117"/>
-      <c r="BU15" s="117"/>
-      <c r="BV15" s="117"/>
-      <c r="BW15" s="118"/>
+      <c r="BP15" s="126"/>
+      <c r="BQ15" s="127"/>
+      <c r="BR15" s="127"/>
+      <c r="BS15" s="127"/>
+      <c r="BT15" s="127"/>
+      <c r="BU15" s="127"/>
+      <c r="BV15" s="127"/>
+      <c r="BW15" s="128"/>
       <c r="BX15" s="11"/>
       <c r="BY15" s="12"/>
       <c r="BZ15" s="12"/>
@@ -3582,7 +3582,7 @@
       <c r="CK15" s="12"/>
       <c r="CL15" s="12"/>
       <c r="CM15" s="13"/>
-      <c r="CN15" s="131"/>
+      <c r="CN15" s="110"/>
     </row>
     <row r="16" spans="1:94" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
@@ -3660,14 +3660,14 @@
       <c r="BM16" s="12"/>
       <c r="BN16" s="12"/>
       <c r="BO16" s="13"/>
-      <c r="BP16" s="116"/>
-      <c r="BQ16" s="117"/>
-      <c r="BR16" s="117"/>
-      <c r="BS16" s="117"/>
-      <c r="BT16" s="117"/>
-      <c r="BU16" s="117"/>
-      <c r="BV16" s="117"/>
-      <c r="BW16" s="118"/>
+      <c r="BP16" s="126"/>
+      <c r="BQ16" s="127"/>
+      <c r="BR16" s="127"/>
+      <c r="BS16" s="127"/>
+      <c r="BT16" s="127"/>
+      <c r="BU16" s="127"/>
+      <c r="BV16" s="127"/>
+      <c r="BW16" s="128"/>
       <c r="BX16" s="11"/>
       <c r="BY16" s="12"/>
       <c r="BZ16" s="12"/>
@@ -3684,7 +3684,7 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
       <c r="CM16" s="13"/>
-      <c r="CN16" s="131"/>
+      <c r="CN16" s="110"/>
     </row>
     <row r="17" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A17" s="39" t="s">
@@ -3764,14 +3764,14 @@
       <c r="BM17" s="12"/>
       <c r="BN17" s="12"/>
       <c r="BO17" s="13"/>
-      <c r="BP17" s="116"/>
-      <c r="BQ17" s="117"/>
-      <c r="BR17" s="117"/>
-      <c r="BS17" s="117"/>
-      <c r="BT17" s="117"/>
-      <c r="BU17" s="117"/>
-      <c r="BV17" s="117"/>
-      <c r="BW17" s="118"/>
+      <c r="BP17" s="126"/>
+      <c r="BQ17" s="127"/>
+      <c r="BR17" s="127"/>
+      <c r="BS17" s="127"/>
+      <c r="BT17" s="127"/>
+      <c r="BU17" s="127"/>
+      <c r="BV17" s="127"/>
+      <c r="BW17" s="128"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="12"/>
       <c r="BZ17" s="12"/>
@@ -3788,7 +3788,7 @@
       <c r="CK17" s="12"/>
       <c r="CL17" s="12"/>
       <c r="CM17" s="13"/>
-      <c r="CN17" s="131"/>
+      <c r="CN17" s="110"/>
     </row>
     <row r="18" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
@@ -3862,14 +3862,14 @@
       <c r="BM18" s="12"/>
       <c r="BN18" s="12"/>
       <c r="BO18" s="13"/>
-      <c r="BP18" s="116"/>
-      <c r="BQ18" s="117"/>
-      <c r="BR18" s="117"/>
-      <c r="BS18" s="117"/>
-      <c r="BT18" s="117"/>
-      <c r="BU18" s="117"/>
-      <c r="BV18" s="117"/>
-      <c r="BW18" s="118"/>
+      <c r="BP18" s="126"/>
+      <c r="BQ18" s="127"/>
+      <c r="BR18" s="127"/>
+      <c r="BS18" s="127"/>
+      <c r="BT18" s="127"/>
+      <c r="BU18" s="127"/>
+      <c r="BV18" s="127"/>
+      <c r="BW18" s="128"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="12"/>
       <c r="BZ18" s="12"/>
@@ -3886,7 +3886,7 @@
       <c r="CK18" s="12"/>
       <c r="CL18" s="12"/>
       <c r="CM18" s="13"/>
-      <c r="CN18" s="131"/>
+      <c r="CN18" s="110"/>
     </row>
     <row r="19" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A19" s="40" t="s">
@@ -3964,14 +3964,14 @@
       <c r="BM19" s="12"/>
       <c r="BN19" s="12"/>
       <c r="BO19" s="13"/>
-      <c r="BP19" s="116"/>
-      <c r="BQ19" s="117"/>
-      <c r="BR19" s="117"/>
-      <c r="BS19" s="117"/>
-      <c r="BT19" s="117"/>
-      <c r="BU19" s="117"/>
-      <c r="BV19" s="117"/>
-      <c r="BW19" s="118"/>
+      <c r="BP19" s="126"/>
+      <c r="BQ19" s="127"/>
+      <c r="BR19" s="127"/>
+      <c r="BS19" s="127"/>
+      <c r="BT19" s="127"/>
+      <c r="BU19" s="127"/>
+      <c r="BV19" s="127"/>
+      <c r="BW19" s="128"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="12"/>
       <c r="BZ19" s="12"/>
@@ -3988,7 +3988,7 @@
       <c r="CK19" s="12"/>
       <c r="CL19" s="12"/>
       <c r="CM19" s="13"/>
-      <c r="CN19" s="131"/>
+      <c r="CN19" s="110"/>
     </row>
     <row r="20" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A20" s="40" t="s">
@@ -4074,14 +4074,14 @@
       <c r="BM20" s="12"/>
       <c r="BN20" s="12"/>
       <c r="BO20" s="13"/>
-      <c r="BP20" s="116"/>
-      <c r="BQ20" s="117"/>
-      <c r="BR20" s="117"/>
-      <c r="BS20" s="117"/>
-      <c r="BT20" s="117"/>
-      <c r="BU20" s="117"/>
-      <c r="BV20" s="117"/>
-      <c r="BW20" s="118"/>
+      <c r="BP20" s="126"/>
+      <c r="BQ20" s="127"/>
+      <c r="BR20" s="127"/>
+      <c r="BS20" s="127"/>
+      <c r="BT20" s="127"/>
+      <c r="BU20" s="127"/>
+      <c r="BV20" s="127"/>
+      <c r="BW20" s="128"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="12"/>
       <c r="BZ20" s="12"/>
@@ -4098,7 +4098,7 @@
       <c r="CK20" s="12"/>
       <c r="CL20" s="12"/>
       <c r="CM20" s="13"/>
-      <c r="CN20" s="131"/>
+      <c r="CN20" s="110"/>
     </row>
     <row r="21" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A21" s="40" t="s">
@@ -4182,14 +4182,14 @@
       <c r="BM21" s="12"/>
       <c r="BN21" s="12"/>
       <c r="BO21" s="13"/>
-      <c r="BP21" s="116"/>
-      <c r="BQ21" s="117"/>
-      <c r="BR21" s="117"/>
-      <c r="BS21" s="117"/>
-      <c r="BT21" s="117"/>
-      <c r="BU21" s="117"/>
-      <c r="BV21" s="117"/>
-      <c r="BW21" s="118"/>
+      <c r="BP21" s="126"/>
+      <c r="BQ21" s="127"/>
+      <c r="BR21" s="127"/>
+      <c r="BS21" s="127"/>
+      <c r="BT21" s="127"/>
+      <c r="BU21" s="127"/>
+      <c r="BV21" s="127"/>
+      <c r="BW21" s="128"/>
       <c r="BX21" s="11"/>
       <c r="BY21" s="12"/>
       <c r="BZ21" s="12"/>
@@ -4206,7 +4206,7 @@
       <c r="CK21" s="12"/>
       <c r="CL21" s="12"/>
       <c r="CM21" s="13"/>
-      <c r="CN21" s="131"/>
+      <c r="CN21" s="110"/>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A22" s="40" t="s">
@@ -4294,14 +4294,14 @@
       <c r="BM22" s="12"/>
       <c r="BN22" s="12"/>
       <c r="BO22" s="13"/>
-      <c r="BP22" s="116"/>
-      <c r="BQ22" s="117"/>
-      <c r="BR22" s="117"/>
-      <c r="BS22" s="117"/>
-      <c r="BT22" s="117"/>
-      <c r="BU22" s="117"/>
-      <c r="BV22" s="117"/>
-      <c r="BW22" s="118"/>
+      <c r="BP22" s="126"/>
+      <c r="BQ22" s="127"/>
+      <c r="BR22" s="127"/>
+      <c r="BS22" s="127"/>
+      <c r="BT22" s="127"/>
+      <c r="BU22" s="127"/>
+      <c r="BV22" s="127"/>
+      <c r="BW22" s="128"/>
       <c r="BX22" s="11"/>
       <c r="BY22" s="12"/>
       <c r="BZ22" s="12"/>
@@ -4318,7 +4318,7 @@
       <c r="CK22" s="12"/>
       <c r="CL22" s="12"/>
       <c r="CM22" s="13"/>
-      <c r="CN22" s="131"/>
+      <c r="CN22" s="110"/>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A23" s="40" t="s">
@@ -4404,14 +4404,14 @@
       <c r="BM23" s="12"/>
       <c r="BN23" s="12"/>
       <c r="BO23" s="13"/>
-      <c r="BP23" s="116"/>
-      <c r="BQ23" s="117"/>
-      <c r="BR23" s="117"/>
-      <c r="BS23" s="117"/>
-      <c r="BT23" s="117"/>
-      <c r="BU23" s="117"/>
-      <c r="BV23" s="117"/>
-      <c r="BW23" s="118"/>
+      <c r="BP23" s="126"/>
+      <c r="BQ23" s="127"/>
+      <c r="BR23" s="127"/>
+      <c r="BS23" s="127"/>
+      <c r="BT23" s="127"/>
+      <c r="BU23" s="127"/>
+      <c r="BV23" s="127"/>
+      <c r="BW23" s="128"/>
       <c r="BX23" s="11"/>
       <c r="BY23" s="12"/>
       <c r="BZ23" s="12"/>
@@ -4428,7 +4428,7 @@
       <c r="CK23" s="12"/>
       <c r="CL23" s="12"/>
       <c r="CM23" s="13"/>
-      <c r="CN23" s="131"/>
+      <c r="CN23" s="110"/>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A24" s="40" t="s">
@@ -4536,14 +4536,14 @@
       <c r="BO24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="BP24" s="116"/>
-      <c r="BQ24" s="117"/>
-      <c r="BR24" s="117"/>
-      <c r="BS24" s="117"/>
-      <c r="BT24" s="117"/>
-      <c r="BU24" s="117"/>
-      <c r="BV24" s="117"/>
-      <c r="BW24" s="118"/>
+      <c r="BP24" s="126"/>
+      <c r="BQ24" s="127"/>
+      <c r="BR24" s="127"/>
+      <c r="BS24" s="127"/>
+      <c r="BT24" s="127"/>
+      <c r="BU24" s="127"/>
+      <c r="BV24" s="127"/>
+      <c r="BW24" s="128"/>
       <c r="BX24" s="11"/>
       <c r="BY24" s="12"/>
       <c r="BZ24" s="12"/>
@@ -4560,7 +4560,7 @@
       <c r="CK24" s="12"/>
       <c r="CL24" s="12"/>
       <c r="CM24" s="13"/>
-      <c r="CN24" s="131"/>
+      <c r="CN24" s="110"/>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A25" s="40" t="s">
@@ -4660,14 +4660,14 @@
       </c>
       <c r="BN25" s="12"/>
       <c r="BO25" s="13"/>
-      <c r="BP25" s="116"/>
-      <c r="BQ25" s="117"/>
-      <c r="BR25" s="117"/>
-      <c r="BS25" s="117"/>
-      <c r="BT25" s="117"/>
-      <c r="BU25" s="117"/>
-      <c r="BV25" s="117"/>
-      <c r="BW25" s="118"/>
+      <c r="BP25" s="126"/>
+      <c r="BQ25" s="127"/>
+      <c r="BR25" s="127"/>
+      <c r="BS25" s="127"/>
+      <c r="BT25" s="127"/>
+      <c r="BU25" s="127"/>
+      <c r="BV25" s="127"/>
+      <c r="BW25" s="128"/>
       <c r="BX25" s="11"/>
       <c r="BY25" s="12"/>
       <c r="BZ25" s="12"/>
@@ -4684,7 +4684,7 @@
       <c r="CK25" s="12"/>
       <c r="CL25" s="12"/>
       <c r="CM25" s="13"/>
-      <c r="CN25" s="131"/>
+      <c r="CN25" s="110"/>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
@@ -4762,18 +4762,26 @@
       <c r="BO26" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="BP26" s="116"/>
-      <c r="BQ26" s="117"/>
-      <c r="BR26" s="117"/>
-      <c r="BS26" s="117"/>
-      <c r="BT26" s="117"/>
-      <c r="BU26" s="117"/>
-      <c r="BV26" s="117"/>
-      <c r="BW26" s="118"/>
-      <c r="BX26" s="11"/>
-      <c r="BY26" s="12"/>
-      <c r="BZ26" s="12"/>
-      <c r="CA26" s="12"/>
+      <c r="BP26" s="126"/>
+      <c r="BQ26" s="127"/>
+      <c r="BR26" s="127"/>
+      <c r="BS26" s="127"/>
+      <c r="BT26" s="127"/>
+      <c r="BU26" s="127"/>
+      <c r="BV26" s="127"/>
+      <c r="BW26" s="128"/>
+      <c r="BX26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="BY26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="BZ26" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA26" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="CB26" s="12"/>
       <c r="CC26" s="12"/>
       <c r="CD26" s="12"/>
@@ -4786,7 +4794,7 @@
       <c r="CK26" s="12"/>
       <c r="CL26" s="12"/>
       <c r="CM26" s="13"/>
-      <c r="CN26" s="131"/>
+      <c r="CN26" s="110"/>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A27" s="36" t="s">
@@ -4860,14 +4868,14 @@
       <c r="BM27" s="12"/>
       <c r="BN27" s="12"/>
       <c r="BO27" s="13"/>
-      <c r="BP27" s="116"/>
-      <c r="BQ27" s="117"/>
-      <c r="BR27" s="117"/>
-      <c r="BS27" s="117"/>
-      <c r="BT27" s="117"/>
-      <c r="BU27" s="117"/>
-      <c r="BV27" s="117"/>
-      <c r="BW27" s="118"/>
+      <c r="BP27" s="126"/>
+      <c r="BQ27" s="127"/>
+      <c r="BR27" s="127"/>
+      <c r="BS27" s="127"/>
+      <c r="BT27" s="127"/>
+      <c r="BU27" s="127"/>
+      <c r="BV27" s="127"/>
+      <c r="BW27" s="128"/>
       <c r="BX27" s="11"/>
       <c r="BY27" s="12"/>
       <c r="BZ27" s="12"/>
@@ -4884,7 +4892,7 @@
       <c r="CK27" s="12"/>
       <c r="CL27" s="12"/>
       <c r="CM27" s="13"/>
-      <c r="CN27" s="131"/>
+      <c r="CN27" s="110"/>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
@@ -4988,14 +4996,14 @@
       <c r="BO28" s="98" t="s">
         <v>31</v>
       </c>
-      <c r="BP28" s="116"/>
-      <c r="BQ28" s="117"/>
-      <c r="BR28" s="117"/>
-      <c r="BS28" s="117"/>
-      <c r="BT28" s="117"/>
-      <c r="BU28" s="117"/>
-      <c r="BV28" s="117"/>
-      <c r="BW28" s="118"/>
+      <c r="BP28" s="126"/>
+      <c r="BQ28" s="127"/>
+      <c r="BR28" s="127"/>
+      <c r="BS28" s="127"/>
+      <c r="BT28" s="127"/>
+      <c r="BU28" s="127"/>
+      <c r="BV28" s="127"/>
+      <c r="BW28" s="128"/>
       <c r="BX28" s="11"/>
       <c r="BY28" s="12"/>
       <c r="BZ28" s="12"/>
@@ -5012,7 +5020,7 @@
       <c r="CK28" s="12"/>
       <c r="CL28" s="12"/>
       <c r="CM28" s="13"/>
-      <c r="CN28" s="131"/>
+      <c r="CN28" s="110"/>
     </row>
     <row r="29" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A29" s="63" t="s">
@@ -5084,20 +5092,24 @@
       <c r="BM29" s="66"/>
       <c r="BN29" s="66"/>
       <c r="BO29" s="67"/>
-      <c r="BP29" s="116"/>
-      <c r="BQ29" s="117"/>
-      <c r="BR29" s="117"/>
-      <c r="BS29" s="117"/>
-      <c r="BT29" s="117"/>
-      <c r="BU29" s="117"/>
-      <c r="BV29" s="117"/>
-      <c r="BW29" s="118"/>
+      <c r="BP29" s="126"/>
+      <c r="BQ29" s="127"/>
+      <c r="BR29" s="127"/>
+      <c r="BS29" s="127"/>
+      <c r="BT29" s="127"/>
+      <c r="BU29" s="127"/>
+      <c r="BV29" s="127"/>
+      <c r="BW29" s="128"/>
       <c r="BX29" s="82"/>
       <c r="BY29" s="73"/>
       <c r="BZ29" s="73"/>
       <c r="CA29" s="73"/>
-      <c r="CB29" s="73"/>
-      <c r="CC29" s="73"/>
+      <c r="CB29" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="CC29" s="73" t="s">
+        <v>31</v>
+      </c>
       <c r="CD29" s="73"/>
       <c r="CE29" s="74"/>
       <c r="CF29" s="72"/>
@@ -5108,7 +5120,7 @@
       <c r="CK29" s="66"/>
       <c r="CL29" s="66"/>
       <c r="CM29" s="67"/>
-      <c r="CN29" s="131"/>
+      <c r="CN29" s="110"/>
     </row>
     <row r="30" spans="1:92" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28" t="s">
@@ -5204,22 +5216,26 @@
       <c r="BM30" s="78"/>
       <c r="BN30" s="30"/>
       <c r="BO30" s="31"/>
-      <c r="BP30" s="119"/>
-      <c r="BQ30" s="120"/>
-      <c r="BR30" s="120"/>
-      <c r="BS30" s="120"/>
-      <c r="BT30" s="120"/>
-      <c r="BU30" s="120"/>
-      <c r="BV30" s="120"/>
-      <c r="BW30" s="121"/>
+      <c r="BP30" s="129"/>
+      <c r="BQ30" s="130"/>
+      <c r="BR30" s="130"/>
+      <c r="BS30" s="130"/>
+      <c r="BT30" s="130"/>
+      <c r="BU30" s="130"/>
+      <c r="BV30" s="130"/>
+      <c r="BW30" s="131"/>
       <c r="BX30" s="77"/>
       <c r="BY30" s="78"/>
       <c r="BZ30" s="78"/>
       <c r="CA30" s="78"/>
       <c r="CB30" s="78"/>
       <c r="CC30" s="78"/>
-      <c r="CD30" s="30"/>
-      <c r="CE30" s="31"/>
+      <c r="CD30" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE30" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="CF30" s="29"/>
       <c r="CG30" s="30"/>
       <c r="CH30" s="30"/>
@@ -5228,105 +5244,120 @@
       <c r="CK30" s="30"/>
       <c r="CL30" s="30"/>
       <c r="CM30" s="31"/>
-      <c r="CN30" s="131"/>
+      <c r="CN30" s="110"/>
     </row>
     <row r="31" spans="1:92" x14ac:dyDescent="0.2">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="126"/>
-      <c r="C31" s="126"/>
-      <c r="D31" s="126"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="126"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="126"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="126"/>
-      <c r="K31" s="126"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="126"/>
-      <c r="N31" s="126"/>
-      <c r="O31" s="126"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="126"/>
-      <c r="R31" s="126"/>
-      <c r="S31" s="126"/>
-      <c r="T31" s="126"/>
-      <c r="U31" s="126"/>
-      <c r="V31" s="126"/>
-      <c r="W31" s="126"/>
-      <c r="X31" s="126"/>
-      <c r="Y31" s="126"/>
-      <c r="Z31" s="126"/>
-      <c r="AA31" s="126"/>
-      <c r="AB31" s="126"/>
-      <c r="AC31" s="126"/>
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="126"/>
-      <c r="AF31" s="126"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="126"/>
-      <c r="AI31" s="126"/>
-      <c r="AJ31" s="126"/>
-      <c r="AK31" s="126"/>
-      <c r="AL31" s="126"/>
-      <c r="AM31" s="126"/>
-      <c r="AN31" s="126"/>
-      <c r="AO31" s="126"/>
-      <c r="AP31" s="126"/>
-      <c r="AQ31" s="126"/>
-      <c r="AR31" s="126"/>
-      <c r="AS31" s="126"/>
-      <c r="AT31" s="126"/>
-      <c r="AU31" s="126"/>
-      <c r="AV31" s="126"/>
-      <c r="AW31" s="126"/>
-      <c r="AX31" s="126"/>
-      <c r="AY31" s="126"/>
-      <c r="AZ31" s="126"/>
-      <c r="BA31" s="126"/>
-      <c r="BB31" s="126"/>
-      <c r="BC31" s="126"/>
-      <c r="BD31" s="126"/>
-      <c r="BE31" s="126"/>
-      <c r="BF31" s="126"/>
-      <c r="BG31" s="126"/>
-      <c r="BH31" s="126"/>
-      <c r="BI31" s="126"/>
-      <c r="BJ31" s="126"/>
-      <c r="BK31" s="126"/>
-      <c r="BL31" s="126"/>
-      <c r="BM31" s="126"/>
-      <c r="BN31" s="126"/>
-      <c r="BO31" s="126"/>
-      <c r="BP31" s="126"/>
-      <c r="BQ31" s="126"/>
-      <c r="BR31" s="126"/>
-      <c r="BS31" s="126"/>
-      <c r="BT31" s="126"/>
-      <c r="BU31" s="126"/>
-      <c r="BV31" s="126"/>
-      <c r="BW31" s="126"/>
-      <c r="BX31" s="126"/>
-      <c r="BY31" s="126"/>
-      <c r="BZ31" s="126"/>
-      <c r="CA31" s="126"/>
-      <c r="CB31" s="126"/>
-      <c r="CC31" s="126"/>
-      <c r="CD31" s="126"/>
-      <c r="CE31" s="126"/>
-      <c r="CF31" s="126"/>
-      <c r="CG31" s="126"/>
-      <c r="CH31" s="126"/>
-      <c r="CI31" s="126"/>
-      <c r="CJ31" s="126"/>
-      <c r="CK31" s="126"/>
-      <c r="CL31" s="126"/>
-      <c r="CM31" s="126"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="115"/>
+      <c r="Z31" s="115"/>
+      <c r="AA31" s="115"/>
+      <c r="AB31" s="115"/>
+      <c r="AC31" s="115"/>
+      <c r="AD31" s="115"/>
+      <c r="AE31" s="115"/>
+      <c r="AF31" s="115"/>
+      <c r="AG31" s="115"/>
+      <c r="AH31" s="115"/>
+      <c r="AI31" s="115"/>
+      <c r="AJ31" s="115"/>
+      <c r="AK31" s="115"/>
+      <c r="AL31" s="115"/>
+      <c r="AM31" s="115"/>
+      <c r="AN31" s="115"/>
+      <c r="AO31" s="115"/>
+      <c r="AP31" s="115"/>
+      <c r="AQ31" s="115"/>
+      <c r="AR31" s="115"/>
+      <c r="AS31" s="115"/>
+      <c r="AT31" s="115"/>
+      <c r="AU31" s="115"/>
+      <c r="AV31" s="115"/>
+      <c r="AW31" s="115"/>
+      <c r="AX31" s="115"/>
+      <c r="AY31" s="115"/>
+      <c r="AZ31" s="115"/>
+      <c r="BA31" s="115"/>
+      <c r="BB31" s="115"/>
+      <c r="BC31" s="115"/>
+      <c r="BD31" s="115"/>
+      <c r="BE31" s="115"/>
+      <c r="BF31" s="115"/>
+      <c r="BG31" s="115"/>
+      <c r="BH31" s="115"/>
+      <c r="BI31" s="115"/>
+      <c r="BJ31" s="115"/>
+      <c r="BK31" s="115"/>
+      <c r="BL31" s="115"/>
+      <c r="BM31" s="115"/>
+      <c r="BN31" s="115"/>
+      <c r="BO31" s="115"/>
+      <c r="BP31" s="115"/>
+      <c r="BQ31" s="115"/>
+      <c r="BR31" s="115"/>
+      <c r="BS31" s="115"/>
+      <c r="BT31" s="115"/>
+      <c r="BU31" s="115"/>
+      <c r="BV31" s="115"/>
+      <c r="BW31" s="115"/>
+      <c r="BX31" s="115"/>
+      <c r="BY31" s="115"/>
+      <c r="BZ31" s="115"/>
+      <c r="CA31" s="115"/>
+      <c r="CB31" s="115"/>
+      <c r="CC31" s="115"/>
+      <c r="CD31" s="115"/>
+      <c r="CE31" s="115"/>
+      <c r="CF31" s="115"/>
+      <c r="CG31" s="115"/>
+      <c r="CH31" s="115"/>
+      <c r="CI31" s="115"/>
+      <c r="CJ31" s="115"/>
+      <c r="CK31" s="115"/>
+      <c r="CL31" s="115"/>
+      <c r="CM31" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="BP6:BW30"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AB4:AF4"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="A31:CM31"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AR2:CE3"/>
+    <mergeCell ref="CF2:CM3"/>
+    <mergeCell ref="D2:AQ3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="BH4:BK4"/>
+    <mergeCell ref="AN4:AQ4"/>
+    <mergeCell ref="BP4:BS4"/>
     <mergeCell ref="CN4:CN30"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="CB4:CE4"/>
@@ -5343,21 +5374,6 @@
     <mergeCell ref="BT4:BW4"/>
     <mergeCell ref="BX4:CA4"/>
     <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="A31:CM31"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AR2:CE3"/>
-    <mergeCell ref="CF2:CM3"/>
-    <mergeCell ref="D2:AQ3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="BH4:BK4"/>
-    <mergeCell ref="AN4:AQ4"/>
-    <mergeCell ref="BP4:BS4"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="BP6:BW30"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="AG4:AK4"/>
   </mergeCells>
   <conditionalFormatting sqref="B6:B30">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
